--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adventure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B2396-B1FC-4A83-AEBE-1606A25DA8F4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10785" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="338">
   <si>
     <t>Long description</t>
   </si>
@@ -1032,6 +1033,15 @@
   </si>
   <si>
     <t>&lt;dead&gt;</t>
+  </si>
+  <si>
+    <t>Internal Location</t>
+  </si>
+  <si>
+    <t>You  are  standing  at  the  end of a road before a small brick building. Around you is a forest.  A small stream flows out  of  the  building  and down a gully and a wide path leads northwest.</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -1411,157 +1421,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.796875" customWidth="1"/>
-    <col min="2" max="2" width="40.19921875" customWidth="1"/>
-    <col min="3" max="12" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="13" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="4">
+        <v>336</v>
+      </c>
+      <c r="C2" s="1">
+        <v>136</v>
+      </c>
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>6</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>8</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>82</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
+        <v>440</v>
+      </c>
+      <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
+        <v>142</v>
+      </c>
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
+        <v>143</v>
+      </c>
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>9</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
+      <c r="C8">
+        <v>141</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -1569,12 +1595,12 @@
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1591,60 +1617,72 @@
         <v>16</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
+        <v>144</v>
+      </c>
+      <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>11</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>10</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>9</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <v>436</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
+      <c r="C12">
+        <v>145</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -1652,12 +1690,12 @@
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4">
         <v>13</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1667,35 +1705,38 @@
       <c r="J12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="4">
         <v>9</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
+      <c r="C13">
+        <v>146</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
         <v>12</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>14</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1711,29 +1752,32 @@
       <c r="L13" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
+      <c r="C14">
+        <v>147</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
         <v>13</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>15</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1743,36 +1787,39 @@
       <c r="J14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4">
         <v>15</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="M14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
+      <c r="C15">
+        <v>148</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4">
         <v>14</v>
       </c>
-      <c r="F15" s="4">
-        <v>16</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="4">
         <v>16</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1784,35 +1831,38 @@
       <c r="J15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L15" s="4">
+        <v>16</v>
+      </c>
+      <c r="M15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
+      <c r="C16">
+        <v>149</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4">
         <v>15</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1828,24 +1878,27 @@
       <c r="L16" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
+      <c r="C17">
+        <v>150</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4">
         <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1864,31 +1917,34 @@
         <v>16</v>
       </c>
       <c r="L17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
+        <v>151</v>
+      </c>
+      <c r="D18" s="4">
         <v>19</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>33</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>34</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>64</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1899,66 +1955,72 @@
         <v>16</v>
       </c>
       <c r="K18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
+        <v>155</v>
+      </c>
+      <c r="D19" s="4">
         <v>20</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>38</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>18</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>41</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>57</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>36</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>58</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>18</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
+        <v>160</v>
+      </c>
+      <c r="D20" s="4">
         <v>21</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F20" s="4" t="s">
         <v>16</v>
       </c>
@@ -1977,32 +2039,35 @@
       <c r="K20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21">
+        <v>163</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4">
         <v>20</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>23</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>22</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2019,28 +2084,31 @@
         <v>16</v>
       </c>
       <c r="M21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>16</v>
+      <c r="C22">
+        <v>165</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="4">
         <v>21</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G22" s="4" t="s">
         <v>16</v>
       </c>
@@ -2059,16 +2127,19 @@
       <c r="L22" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>16</v>
+      <c r="C23">
+        <v>164</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
@@ -2091,35 +2162,38 @@
       <c r="J23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="4">
         <v>18</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>16</v>
+      <c r="C24">
+        <v>198</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4">
         <v>25</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>27</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H24" s="4" t="s">
         <v>16</v>
       </c>
@@ -2129,22 +2203,25 @@
       <c r="J24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="4">
         <v>20</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>69</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>16</v>
+      <c r="C25">
+        <v>199</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>16</v>
@@ -2152,12 +2229,12 @@
       <c r="E25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="4">
         <v>24</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H25" s="4" t="s">
         <v>16</v>
       </c>
@@ -2170,19 +2247,22 @@
       <c r="K25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>71</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>16</v>
+      <c r="C26">
+        <v>200</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>16</v>
@@ -2205,32 +2285,35 @@
       <c r="J26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="4">
         <v>25</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>16</v>
+      <c r="C27">
+        <v>201</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4">
         <v>24</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
@@ -2246,32 +2329,35 @@
       <c r="K27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
+        <v>202</v>
+      </c>
+      <c r="D28" s="4">
         <v>29</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4">
         <v>69</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>70</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H28" s="4" t="s">
         <v>16</v>
       </c>
@@ -2281,35 +2367,38 @@
       <c r="J28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="4">
         <v>27</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="C29">
+        <v>232</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="4">
         <v>28</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="F29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="4">
         <v>30</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H29" s="4" t="s">
         <v>16</v>
       </c>
@@ -2319,32 +2408,35 @@
       <c r="J29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="4">
         <v>30</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
       <c r="B30" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>16</v>
+      <c r="C30">
+        <v>231</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="4">
         <v>31</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G30" s="4" t="s">
         <v>16</v>
       </c>
@@ -2357,35 +2449,38 @@
       <c r="J30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="4">
         <v>31</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>82</v>
       </c>
       <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>16</v>
+      <c r="C31">
+        <v>370</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>30</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H31" s="4" t="s">
         <v>16</v>
       </c>
@@ -2401,17 +2496,17 @@
       <c r="L31" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>84</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
@@ -2433,23 +2528,26 @@
       <c r="J32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33">
+        <v>154</v>
+      </c>
+      <c r="D33" s="4">
         <v>18</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E33" s="4" t="s">
         <v>16</v>
       </c>
@@ -2474,29 +2572,29 @@
       <c r="L33" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M33" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>94</v>
       </c>
       <c r="B34" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="4">
         <v>18</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H34" s="4" t="s">
         <v>16</v>
       </c>
@@ -2509,32 +2607,32 @@
       <c r="K34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="4">
         <v>35</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="D35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4">
         <v>36</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>34</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G35" s="4" t="s">
         <v>16</v>
       </c>
@@ -2547,32 +2645,32 @@
       <c r="J35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="4">
         <v>34</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M35" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>100</v>
       </c>
       <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>37</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>19</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>35</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G36" s="4" t="s">
         <v>16</v>
       </c>
@@ -2591,20 +2689,20 @@
       <c r="L36" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>101</v>
       </c>
       <c r="B37" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E37" s="4" t="s">
         <v>16</v>
       </c>
@@ -2629,20 +2727,20 @@
       <c r="L37" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>115</v>
       </c>
       <c r="B38" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>19</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
@@ -2664,20 +2762,20 @@
       <c r="K38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>116</v>
       </c>
       <c r="B39" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D39" s="4" t="s">
         <v>16</v>
       </c>
@@ -2699,23 +2797,23 @@
       <c r="J39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="4">
         <v>38</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>119</v>
       </c>
       <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D40" s="4" t="s">
         <v>16</v>
       </c>
@@ -2737,35 +2835,35 @@
       <c r="J40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="4">
         <v>39</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M40" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>125</v>
       </c>
       <c r="B41" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="4">
         <v>19</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>42</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H41" s="4" t="s">
         <v>16</v>
       </c>
@@ -2775,35 +2873,35 @@
       <c r="J41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="4">
         <v>42</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>126</v>
       </c>
       <c r="B42" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>43</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>44</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>41</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>91</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H42" s="4" t="s">
         <v>16</v>
       </c>
@@ -2819,23 +2917,23 @@
       <c r="L42" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>127</v>
       </c>
       <c r="B43" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="D43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="4">
         <v>42</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
@@ -2857,26 +2955,26 @@
       <c r="L43" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M43" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>129</v>
       </c>
       <c r="B44" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>42</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>45</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>91</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G44" s="4" t="s">
         <v>16</v>
       </c>
@@ -2895,336 +2993,336 @@
       <c r="L44" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M44" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>46</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>48</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>55</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>49</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>54</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>50</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>47</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>53</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>55</v>
       </c>
-      <c r="L45" s="5">
+      <c r="M45" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>47</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>49</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>53</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>54</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>52</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>48</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>48</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>55</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>50</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>46</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>49</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>53</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>54</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>49</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>46</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>52</v>
-      </c>
-      <c r="F48" s="4">
-        <v>45</v>
       </c>
       <c r="G48" s="4">
         <v>45</v>
       </c>
       <c r="H48" s="4">
+        <v>45</v>
+      </c>
+      <c r="I48" s="4">
         <v>54</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>55</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>47</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>50</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>51</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>48</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>47</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>53</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>52</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>45</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>54</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>47</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>51</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>49</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>52</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>50</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>45</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>48</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>46</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>55</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>49</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="4">
+      <c r="D52" s="4">
         <v>53</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="5">
         <v>56</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>54</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>55</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>51</v>
       </c>
-      <c r="H52" s="4">
+      <c r="I52" s="4">
         <v>47</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J52" s="4">
         <v>50</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K52" s="4">
         <v>48</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="4">
+      <c r="D53" s="4">
         <v>54</v>
       </c>
-      <c r="D53" s="4">
+      <c r="E53" s="4">
         <v>47</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
         <v>49</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <v>50</v>
       </c>
-      <c r="G53" s="4">
+      <c r="H53" s="4">
         <v>55</v>
       </c>
-      <c r="H53" s="4">
+      <c r="I53" s="4">
         <v>45</v>
       </c>
-      <c r="I53" s="4">
+      <c r="J53" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="4">
+      <c r="D54" s="4">
         <v>55</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E54" s="4">
         <v>52</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>51</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>53</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>47</v>
       </c>
-      <c r="H54" s="4">
+      <c r="I54" s="4">
         <v>49</v>
       </c>
-      <c r="I54" s="4">
+      <c r="J54" s="4">
         <v>45</v>
       </c>
-      <c r="J54" s="4">
+      <c r="K54" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="4">
+      <c r="D55" s="4">
         <v>51</v>
       </c>
-      <c r="D55" s="4">
+      <c r="E55" s="4">
         <v>53</v>
       </c>
-      <c r="E55" s="4">
+      <c r="F55" s="4">
         <v>46</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <v>52</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <v>48</v>
       </c>
-      <c r="H55" s="4">
+      <c r="I55" s="4">
         <v>50</v>
       </c>
-      <c r="I55" s="4">
+      <c r="J55" s="4">
         <v>45</v>
       </c>
-      <c r="J55" s="4">
+      <c r="K55" s="4">
         <v>49</v>
       </c>
-      <c r="K55" s="4">
+      <c r="L55" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="4">
+      <c r="D56" s="4">
         <v>52</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E56" s="4" t="s">
         <v>16</v>
       </c>
@@ -3249,23 +3347,23 @@
       <c r="L56" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M56" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>147</v>
       </c>
       <c r="B57" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="D57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="4">
         <v>19</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F57" s="4" t="s">
         <v>16</v>
       </c>
@@ -3287,23 +3385,23 @@
       <c r="L57" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M57" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>148</v>
       </c>
       <c r="B58" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="4">
+      <c r="D58" s="4">
         <v>59</v>
       </c>
-      <c r="D58" s="4">
+      <c r="E58" s="4">
         <v>19</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F58" s="4" t="s">
         <v>16</v>
       </c>
@@ -3325,35 +3423,35 @@
       <c r="L58" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M58" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>150</v>
       </c>
       <c r="B59" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="4">
+      <c r="D59" s="4">
         <v>60</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <v>58</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <v>60</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>58</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>60</v>
       </c>
-      <c r="H59" s="4">
+      <c r="I59" s="4">
         <v>58</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J59" s="4" t="s">
         <v>16</v>
       </c>
@@ -3363,23 +3461,23 @@
       <c r="L59" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M59" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>154</v>
       </c>
       <c r="B60" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="4">
+      <c r="D60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="4">
         <v>59</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F60" s="4" t="s">
         <v>16</v>
       </c>
@@ -3401,29 +3499,29 @@
       <c r="L60" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M60" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>168</v>
       </c>
       <c r="B61" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="4">
         <v>19</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
         <v>62</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H61" s="4" t="s">
         <v>16</v>
       </c>
@@ -3436,29 +3534,29 @@
       <c r="K61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="4">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>157</v>
       </c>
       <c r="B62" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="4">
+      <c r="D62" s="4">
         <v>65</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="E62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="4">
         <v>61</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G62" s="4" t="s">
         <v>16</v>
       </c>
@@ -3477,20 +3575,20 @@
       <c r="L62" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M62" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>173</v>
       </c>
       <c r="B63" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="4">
+      <c r="D63" s="4">
         <v>19</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E63" s="4" t="s">
         <v>16</v>
       </c>
@@ -3509,35 +3607,35 @@
       <c r="J63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="4">
         <v>19</v>
       </c>
-      <c r="L63" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M63" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>177</v>
       </c>
       <c r="B64" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="4">
         <v>18</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H64" s="4" t="s">
         <v>16</v>
       </c>
@@ -3554,25 +3652,25 @@
         <v>16</v>
       </c>
       <c r="M64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>178</v>
       </c>
       <c r="B65" t="s">
         <v>178</v>
       </c>
-      <c r="C65" s="4">
+      <c r="D65" s="4">
         <v>66</v>
       </c>
-      <c r="D65" s="4">
+      <c r="E65" s="4">
         <v>62</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F65" s="4" t="s">
         <v>16</v>
       </c>
@@ -3591,23 +3689,23 @@
       <c r="K65" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="L65" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>180</v>
       </c>
       <c r="B66" t="s">
         <v>179</v>
       </c>
-      <c r="C66" s="4">
+      <c r="D66" s="4">
         <v>67</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E66" s="4">
         <v>65</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F66" s="4" t="s">
         <v>16</v>
       </c>
@@ -3629,29 +3727,29 @@
       <c r="L66" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M66" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>326</v>
       </c>
       <c r="B67" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <v>66</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="4">
+      <c r="F67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="4">
         <v>115</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H67" s="4" t="s">
         <v>16</v>
       </c>
@@ -3667,104 +3765,104 @@
       <c r="L67" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M67" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>187</v>
       </c>
       <c r="B68" t="s">
         <v>187</v>
       </c>
-      <c r="C68" s="4">
+      <c r="D68" s="4">
         <v>86</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="4">
+      <c r="E68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="4">
         <v>64</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>193</v>
       </c>
-      <c r="F69" s="4">
+      <c r="G69" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>195</v>
       </c>
       <c r="B70" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="D70" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="4">
         <v>28</v>
       </c>
-      <c r="F70" s="4">
+      <c r="G70" s="4">
         <v>71</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="4">
+      <c r="H70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="4">
         <v>78</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J70" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>232</v>
       </c>
       <c r="M70" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="N70" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>203</v>
       </c>
       <c r="B71" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="4">
+      <c r="D71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="4">
         <v>75</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71" s="4">
         <v>72</v>
       </c>
-      <c r="F71" s="4">
+      <c r="G71" s="4">
         <v>77</v>
       </c>
-      <c r="G71" s="4">
+      <c r="H71" s="4">
         <v>70</v>
       </c>
-      <c r="H71" s="4">
+      <c r="I71" s="4">
         <v>78</v>
       </c>
-      <c r="I71" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J71" s="4" t="s">
         <v>16</v>
       </c>
@@ -3774,83 +3872,83 @@
       <c r="L71" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M71" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>202</v>
       </c>
       <c r="B72" t="s">
         <v>197</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="4">
         <v>74</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G72" s="4">
         <v>71</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="4">
         <v>73</v>
       </c>
-      <c r="J72" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="K72" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M72" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>200</v>
       </c>
-      <c r="H73" s="4">
+      <c r="I73" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>201</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G74" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>208</v>
       </c>
       <c r="B75" t="s">
         <v>204</v>
       </c>
-      <c r="C75" s="4">
+      <c r="D75" s="4">
         <v>71</v>
       </c>
-      <c r="D75" s="4">
+      <c r="E75" s="4">
         <v>76</v>
       </c>
-      <c r="E75" s="4">
+      <c r="F75" s="4">
         <v>112</v>
       </c>
-      <c r="F75" s="4">
+      <c r="G75" s="4">
         <v>114</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H75" s="4" t="s">
         <v>16</v>
       </c>
@@ -3866,20 +3964,20 @@
       <c r="L75" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M75" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>209</v>
       </c>
       <c r="B76" t="s">
         <v>205</v>
       </c>
-      <c r="C76" s="4">
+      <c r="D76" s="4">
         <v>75</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E76" s="4" t="s">
         <v>16</v>
       </c>
@@ -3904,81 +4002,81 @@
       <c r="L76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N76" t="s">
         <v>206</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="O76" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="4">
+      <c r="F77" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>215</v>
       </c>
       <c r="B78" t="s">
         <v>211</v>
       </c>
-      <c r="C78" s="4">
+      <c r="D78" s="4">
         <v>79</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="4">
         <v>80</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="4">
         <v>71</v>
       </c>
-      <c r="J78" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" s="4">
+      <c r="K78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="4">
         <v>79</v>
       </c>
-      <c r="L78" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M78" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>216</v>
       </c>
       <c r="B79" t="s">
         <v>214</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="4">
+      <c r="D79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="4">
         <v>78</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="4">
+      <c r="F79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="4">
         <v>90</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H79" s="4" t="s">
         <v>16</v>
       </c>
@@ -3988,20 +4086,20 @@
       <c r="J79" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K79" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>217</v>
       </c>
       <c r="B80" t="s">
         <v>217</v>
       </c>
-      <c r="C80" s="4">
+      <c r="D80" s="4">
         <v>81</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E80" s="4" t="s">
         <v>16</v>
       </c>
@@ -4014,32 +4112,32 @@
       <c r="H80" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="4">
         <v>78</v>
       </c>
-      <c r="J80" s="4">
+      <c r="K80" s="4">
         <v>88</v>
       </c>
-      <c r="K80" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="L80" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M80" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>218</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="4">
+      <c r="D81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="4">
         <v>80</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F81" s="4" t="s">
         <v>16</v>
       </c>
@@ -4061,88 +4159,88 @@
       <c r="L81" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M81" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>220</v>
       </c>
       <c r="B82" t="s">
         <v>219</v>
       </c>
-      <c r="C82" s="4">
+      <c r="D82" s="4">
         <v>84</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>83</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82" s="4">
         <v>1</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>222</v>
       </c>
-      <c r="C83" s="4">
+      <c r="D83" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>224</v>
       </c>
       <c r="B84" t="s">
         <v>223</v>
       </c>
-      <c r="C84" s="4">
+      <c r="D84" s="4">
         <v>85</v>
       </c>
-      <c r="D84" s="4">
+      <c r="E84" s="4">
         <v>82</v>
       </c>
-      <c r="H84" s="4">
+      <c r="I84" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>226</v>
       </c>
       <c r="B85" t="s">
         <v>225</v>
       </c>
-      <c r="C85" s="4">
+      <c r="D85" s="4">
         <v>5</v>
       </c>
-      <c r="D85" s="4">
+      <c r="E85" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>244</v>
       </c>
       <c r="B86" t="s">
         <v>230</v>
       </c>
-      <c r="C86" s="4">
+      <c r="D86" s="4">
         <v>68</v>
       </c>
-      <c r="D86" s="4">
+      <c r="E86" s="4">
         <v>102</v>
       </c>
-      <c r="E86" s="4">
+      <c r="F86" s="4">
         <v>68</v>
       </c>
-      <c r="F86" s="4">
+      <c r="G86" s="4">
         <v>91</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H86" s="4" t="s">
         <v>16</v>
       </c>
@@ -4152,28 +4250,28 @@
       <c r="J86" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L86" s="4">
         <v>102</v>
       </c>
-      <c r="L86" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M86" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>238</v>
       </c>
       <c r="B88" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D88" s="4" t="s">
         <v>16</v>
       </c>
@@ -4183,35 +4281,35 @@
       <c r="F88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="4">
         <v>89</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="4">
         <v>80</v>
       </c>
-      <c r="K88" s="4">
+      <c r="L88" s="4">
         <v>89</v>
       </c>
-      <c r="L88" s="4">
+      <c r="M88" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>239</v>
       </c>
       <c r="B89" t="s">
         <v>241</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D89" s="4" t="s">
         <v>16</v>
       </c>
@@ -4222,72 +4320,72 @@
         <v>16</v>
       </c>
       <c r="G89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I89" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="4">
         <v>88</v>
       </c>
-      <c r="K89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="4">
+      <c r="L89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>242</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="4">
         <v>79</v>
       </c>
-      <c r="K90" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="L90" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M90" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>245</v>
       </c>
       <c r="B91" t="s">
         <v>243</v>
       </c>
-      <c r="C91" s="4">
+      <c r="D91" s="4">
         <v>42</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="4">
+      <c r="E91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="4">
         <v>86</v>
       </c>
-      <c r="F91" s="4">
+      <c r="G91" s="4">
         <v>44</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H91" s="4" t="s">
         <v>16</v>
       </c>
@@ -4297,35 +4395,38 @@
       <c r="J91" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="4">
         <v>86</v>
       </c>
-      <c r="L91" s="4">
+      <c r="M91" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>252</v>
       </c>
       <c r="B92" t="s">
         <v>247</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92">
+        <v>371</v>
+      </c>
+      <c r="D92" s="4">
         <v>93</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E92" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H92" s="4" t="s">
         <v>16</v>
       </c>
@@ -4341,26 +4442,29 @@
       <c r="L92" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M92" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>253</v>
       </c>
       <c r="B93" t="s">
         <v>249</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93">
+        <v>372</v>
+      </c>
+      <c r="D93" s="4">
         <v>94</v>
       </c>
-      <c r="D93" s="4">
+      <c r="E93" s="4">
         <v>92</v>
       </c>
-      <c r="E93" s="4">
+      <c r="F93" s="4">
         <v>95</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G93" s="4" t="s">
         <v>16</v>
       </c>
@@ -4379,16 +4483,19 @@
       <c r="L93" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M93" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>260</v>
       </c>
       <c r="B94" t="s">
         <v>250</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>16</v>
+      <c r="C94">
+        <v>375</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>16</v>
@@ -4402,44 +4509,44 @@
       <c r="G94" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="4">
         <v>93</v>
       </c>
-      <c r="I94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="4">
+      <c r="J94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="4">
         <v>97</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="L94" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M94" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>255</v>
       </c>
       <c r="B95" t="s">
         <v>254</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="4">
+      <c r="D95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="4">
         <v>96</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" s="4">
+      <c r="F95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="4">
         <v>93</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H95" s="4" t="s">
         <v>16</v>
       </c>
@@ -4455,20 +4562,20 @@
       <c r="L95" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M95" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>259</v>
       </c>
       <c r="B96" t="s">
         <v>256</v>
       </c>
-      <c r="C96" s="4">
+      <c r="D96" s="4">
         <v>95</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E96" s="4" t="s">
         <v>16</v>
       </c>
@@ -4493,29 +4600,32 @@
       <c r="L96" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M96" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>262</v>
       </c>
       <c r="B97" t="s">
         <v>261</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>16</v>
+      <c r="C97">
+        <v>376</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>16</v>
+        <v>337</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="4">
         <v>94</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H97" s="4" t="s">
         <v>16</v>
       </c>
@@ -4528,19 +4638,22 @@
       <c r="K97" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L97" s="4">
+      <c r="L97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M97" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>268</v>
       </c>
       <c r="B98" t="s">
         <v>263</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>16</v>
+      <c r="C98">
+        <v>377</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>16</v>
@@ -4548,52 +4661,70 @@
       <c r="E98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K98" s="4">
+      <c r="F98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="4">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" s="4">
+        <v>97</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>271</v>
       </c>
       <c r="B99" t="s">
         <v>270</v>
       </c>
-      <c r="F99" s="4">
+      <c r="G99" s="4">
         <v>100</v>
       </c>
-      <c r="I99" s="4">
+      <c r="J99" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>273</v>
       </c>
       <c r="B100" t="s">
         <v>272</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D100" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="4">
         <v>99</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G100" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="4">
         <v>101</v>
       </c>
-      <c r="I100" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J100" s="4" t="s">
         <v>16</v>
       </c>
@@ -4603,17 +4734,17 @@
       <c r="L100" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M100" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>279</v>
       </c>
       <c r="B101" t="s">
         <v>274</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D101" s="4" t="s">
         <v>16</v>
       </c>
@@ -4629,40 +4760,40 @@
       <c r="H101" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="4">
         <v>100</v>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="K101" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M101" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>282</v>
       </c>
       <c r="B102" t="s">
         <v>281</v>
       </c>
-      <c r="C102" s="4">
+      <c r="D102" s="4">
         <v>102</v>
       </c>
-      <c r="D102" s="4">
+      <c r="E102" s="4">
         <v>103</v>
       </c>
-      <c r="E102" s="4">
+      <c r="F102" s="4">
         <v>104</v>
       </c>
-      <c r="F102" s="4">
+      <c r="G102" s="4">
         <v>111</v>
-      </c>
-      <c r="G102" s="4">
-        <v>102</v>
       </c>
       <c r="H102" s="4">
         <v>102</v>
@@ -4673,60 +4804,60 @@
       <c r="J102" s="4">
         <v>102</v>
       </c>
-      <c r="K102" s="5">
+      <c r="K102" s="4">
+        <v>102</v>
+      </c>
+      <c r="L102" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>284</v>
       </c>
       <c r="B103" t="s">
         <v>281</v>
       </c>
-      <c r="C103" s="4">
+      <c r="D103" s="4">
         <v>104</v>
       </c>
-      <c r="D103" s="4">
+      <c r="E103" s="4">
         <v>107</v>
       </c>
-      <c r="E103" s="4">
+      <c r="F103" s="4">
         <v>108</v>
       </c>
-      <c r="F103" s="4">
+      <c r="G103" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>283</v>
       </c>
       <c r="B104" t="s">
         <v>281</v>
       </c>
-      <c r="C104" s="4">
+      <c r="D104" s="4">
         <v>104</v>
       </c>
-      <c r="D104" s="4">
+      <c r="E104" s="4">
         <v>106</v>
       </c>
-      <c r="E104" s="4">
+      <c r="F104" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>285</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="4">
+      <c r="D105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="4">
         <v>106</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F105" s="4" t="s">
         <v>16</v>
       </c>
@@ -4748,37 +4879,37 @@
       <c r="L105" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M105" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>280</v>
       </c>
       <c r="B106" t="s">
         <v>281</v>
       </c>
-      <c r="C106" s="4">
+      <c r="D106" s="4">
         <v>105</v>
       </c>
-      <c r="D106" s="4">
+      <c r="E106" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>287</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D107" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="4">
         <v>103</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G107" s="4" t="s">
         <v>16</v>
       </c>
@@ -4797,26 +4928,26 @@
       <c r="L107" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M107" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>288</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D108" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="4">
         <v>103</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H108" s="4" t="s">
         <v>16</v>
       </c>
@@ -4832,22 +4963,25 @@
       <c r="L108" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M108" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>289</v>
       </c>
       <c r="B109" t="s">
         <v>281</v>
       </c>
-      <c r="C109" s="4">
+      <c r="D109" s="4">
         <v>109</v>
       </c>
-      <c r="D109" s="4">
+      <c r="E109" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>286</v>
       </c>
@@ -4855,33 +4989,30 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>290</v>
       </c>
       <c r="B111" t="s">
         <v>281</v>
       </c>
-      <c r="C111" s="4">
+      <c r="D111" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>291</v>
       </c>
       <c r="B112" t="s">
         <v>291</v>
       </c>
-      <c r="C112" s="4">
+      <c r="D112" s="4">
         <v>75</v>
       </c>
-      <c r="D112" s="4">
+      <c r="E112" s="4">
         <v>113</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F112" s="4" t="s">
         <v>16</v>
       </c>
@@ -4903,20 +5034,20 @@
       <c r="L112" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M112" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>292</v>
       </c>
       <c r="B113" t="s">
         <v>292</v>
       </c>
-      <c r="C113" s="4">
+      <c r="D113" s="4">
         <v>112</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E113" s="4" t="s">
         <v>16</v>
       </c>
@@ -4941,23 +5072,23 @@
       <c r="L113" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M113" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>294</v>
       </c>
       <c r="B114" t="s">
         <v>293</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" s="4">
+      <c r="D114" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="4">
         <v>75</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F114" s="4" t="s">
         <v>16</v>
       </c>
@@ -4979,84 +5110,84 @@
       <c r="L114" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M114" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>329</v>
       </c>
       <c r="B115" t="s">
         <v>327</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" s="4">
-        <v>67</v>
+      <c r="D115" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E115" s="4">
         <v>67</v>
       </c>
       <c r="F115" s="4">
+        <v>67</v>
+      </c>
+      <c r="G115" s="4">
         <v>116</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H115" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I115" s="4">
+      <c r="I115" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="4">
         <v>67</v>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="K115" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L115" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M115" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>333</v>
       </c>
       <c r="B116" t="s">
         <v>330</v>
       </c>
-      <c r="C116" s="4">
-        <v>117</v>
-      </c>
       <c r="D116" s="4">
         <v>117</v>
       </c>
       <c r="E116" s="4">
+        <v>117</v>
+      </c>
+      <c r="F116" s="4">
         <v>115</v>
       </c>
-      <c r="F116" s="4">
+      <c r="G116" s="4">
         <v>117</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H116" s="4">
+      <c r="H116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="4">
         <v>117</v>
       </c>
-      <c r="I116" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J116" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>332</v>
       </c>
       <c r="B117" t="s">
         <v>331</v>
       </c>
-      <c r="C117" s="4">
-        <v>117</v>
-      </c>
       <c r="D117" s="4">
         <v>117</v>
       </c>
@@ -5067,6 +5198,9 @@
         <v>117</v>
       </c>
       <c r="G117" s="4">
+        <v>117</v>
+      </c>
+      <c r="H117" s="4">
         <v>116</v>
       </c>
     </row>
@@ -5084,14 +5218,14 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="49.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -5105,7 +5239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5116,7 +5250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -5127,7 +5261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -5138,7 +5272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -5149,7 +5283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5163,7 +5297,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>52</v>
       </c>
@@ -5171,7 +5305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -5182,7 +5316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -5193,7 +5327,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>77</v>
       </c>
@@ -5201,7 +5335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -5215,7 +5349,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -5229,7 +5363,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -5240,7 +5374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>118</v>
       </c>
@@ -5251,7 +5385,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -5262,7 +5396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -5273,7 +5407,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -5284,7 +5418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>161</v>
       </c>
@@ -5295,7 +5429,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>163</v>
       </c>
@@ -5306,7 +5440,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -5320,7 +5454,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>174</v>
       </c>
@@ -5331,7 +5465,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>183</v>
       </c>
@@ -5342,7 +5476,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -5353,7 +5487,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -5364,7 +5498,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -5375,7 +5509,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -5386,7 +5520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>258</v>
       </c>
@@ -5397,7 +5531,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>265</v>
       </c>
@@ -5408,7 +5542,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>269</v>
       </c>
@@ -5419,7 +5553,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>278</v>
       </c>
@@ -5430,7 +5564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>276</v>
       </c>
@@ -5455,12 +5589,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="73.9296875" customWidth="1"/>
+    <col min="2" max="2" width="73.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -5471,7 +5605,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -5482,7 +5616,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -5496,7 +5630,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -5504,7 +5638,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -5515,7 +5649,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -5523,7 +5657,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -5534,7 +5668,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -5559,9 +5693,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>298</v>
       </c>
@@ -5572,7 +5706,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -5583,7 +5717,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>304</v>
       </c>
@@ -5594,7 +5728,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>306</v>
       </c>
@@ -5602,7 +5736,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>307</v>
       </c>
@@ -5610,7 +5744,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>308</v>
       </c>
@@ -5618,7 +5752,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>309</v>
       </c>
@@ -5626,7 +5760,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>311</v>
       </c>
@@ -5634,7 +5768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>312</v>
       </c>
@@ -5642,7 +5776,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -5650,7 +5784,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>316</v>
       </c>
@@ -5658,7 +5792,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -5666,7 +5800,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>319</v>
       </c>
@@ -5674,7 +5808,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>321</v>
       </c>
@@ -5682,7 +5816,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>323</v>
       </c>
@@ -5690,7 +5824,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>324</v>
       </c>
@@ -5698,7 +5832,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>325</v>
       </c>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B2396-B1FC-4A83-AEBE-1606A25DA8F4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874A9B19-A8C5-4143-97B9-F6372E4C0359}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="351">
   <si>
     <t>Long description</t>
   </si>
@@ -1042,6 +1042,45 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>You are in an open forest north of the building.</t>
+  </si>
+  <si>
+    <t>You  are  in  an  open  sunlit  forest  growing  denser and darker in the northern direction.</t>
+  </si>
+  <si>
+    <t>You are in an open forest south of the building.</t>
+  </si>
+  <si>
+    <t>You  are  in  an  open  forest,  east of a deep valley.  To southeast the forest seems to grow gloomier and denser.</t>
+  </si>
+  <si>
+    <t>You are in an open sunlit forest rapidly growing denser and darker to the east and south.</t>
+  </si>
+  <si>
+    <t>You  are  in  an open sunlit forest which seems to get rather gloomier to southeast.</t>
+  </si>
+  <si>
+    <t>You are in an open forest east of the building.</t>
+  </si>
+  <si>
+    <t>You are in an open sunlit forest becoming rather gloomier to northeast.</t>
+  </si>
+  <si>
+    <t>You  are in an open sunlit forest which appears to grow denser and darker to the north and east.</t>
+  </si>
+  <si>
+    <t>You  are  in an open sunlit forest rapidly growing gloomy and dark to the east and south.</t>
+  </si>
+  <si>
+    <t>You are in an open sunlit forest which to the east appears to grow denser and darker.</t>
+  </si>
+  <si>
+    <t>You  are in an open sunlit forest which seems to become denser and darker in the northern and eastern directions.</t>
+  </si>
+  <si>
+    <t>You appear to be lost in a dark and gloomy forest.</t>
   </si>
 </sst>
 </file>
@@ -1421,11 +1460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1499,6 +1538,9 @@
       <c r="G2" s="4">
         <v>82</v>
       </c>
+      <c r="H2" s="4">
+        <v>118</v>
+      </c>
       <c r="I2" s="4">
         <v>84</v>
       </c>
@@ -1653,6 +1695,12 @@
       <c r="B10" t="s">
         <v>30</v>
       </c>
+      <c r="C10">
+        <v>455</v>
+      </c>
+      <c r="D10" s="4">
+        <v>121</v>
+      </c>
       <c r="G10" s="4">
         <v>9</v>
       </c>
@@ -5202,6 +5250,176 @@
       </c>
       <c r="H117" s="4">
         <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>338</v>
+      </c>
+      <c r="B118" t="s">
+        <v>338</v>
+      </c>
+      <c r="C118">
+        <v>458</v>
+      </c>
+      <c r="D118" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>339</v>
+      </c>
+      <c r="C119">
+        <v>442</v>
+      </c>
+      <c r="E119" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>340</v>
+      </c>
+      <c r="C120">
+        <v>460</v>
+      </c>
+      <c r="E120" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>341</v>
+      </c>
+      <c r="C121">
+        <v>454</v>
+      </c>
+      <c r="D121" s="4">
+        <v>120</v>
+      </c>
+      <c r="E121" s="4">
+        <v>10</v>
+      </c>
+      <c r="F121" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>342</v>
+      </c>
+      <c r="C122">
+        <v>449</v>
+      </c>
+      <c r="D122" s="4">
+        <v>123</v>
+      </c>
+      <c r="G122" s="4">
+        <v>121</v>
+      </c>
+      <c r="H122" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>343</v>
+      </c>
+      <c r="C123">
+        <v>447</v>
+      </c>
+      <c r="D123" s="4">
+        <v>124</v>
+      </c>
+      <c r="E123" s="4">
+        <v>122</v>
+      </c>
+      <c r="F123" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>344</v>
+      </c>
+      <c r="C124">
+        <v>459</v>
+      </c>
+      <c r="D124" s="4">
+        <v>125</v>
+      </c>
+      <c r="E124" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>345</v>
+      </c>
+      <c r="C125">
+        <v>444</v>
+      </c>
+      <c r="D125" s="4">
+        <v>126</v>
+      </c>
+      <c r="E125" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>346</v>
+      </c>
+      <c r="C126">
+        <v>443</v>
+      </c>
+      <c r="E126" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127">
+        <v>448</v>
+      </c>
+      <c r="D127" s="4">
+        <v>128</v>
+      </c>
+      <c r="G127" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128">
+        <v>446</v>
+      </c>
+      <c r="D128" s="4">
+        <v>129</v>
+      </c>
+      <c r="E128" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>349</v>
+      </c>
+      <c r="C129">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>350</v>
+      </c>
+      <c r="C130">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874A9B19-A8C5-4143-97B9-F6372E4C0359}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39530E3-E482-4DAF-9385-C1AAD07BEA0E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" activeTab="4" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
     <sheet name="Objects" sheetId="2" r:id="rId2"/>
     <sheet name="Characters" sheetId="3" r:id="rId3"/>
     <sheet name="Magic words" sheetId="4" r:id="rId4"/>
+    <sheet name="verbs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="425">
   <si>
     <t>Long description</t>
   </si>
@@ -1081,6 +1082,228 @@
   </si>
   <si>
     <t>You appear to be lost in a dark and gloomy forest.</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>climb</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>dig</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>free, dr</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>extinguish</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>walk, run</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>g, take</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>hoot</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I </t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>l, examine, x</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>unlock</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>pour</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>retreat</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>rub</t>
+  </si>
+  <si>
+    <t>polish</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>scry</t>
+  </si>
+  <si>
+    <t>tame</t>
+  </si>
+  <si>
+    <t>placate</t>
+  </si>
+  <si>
+    <t>terse</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>translate</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>swing</t>
+  </si>
+  <si>
+    <t>wear</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
     </sheetView>
@@ -6062,4 +6285,521 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82045E9-E42F-446C-9E79-EEE8F9C54219}">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11">
+        <v>535</v>
+      </c>
+      <c r="C11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13">
+        <v>526</v>
+      </c>
+      <c r="C13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14">
+        <v>527</v>
+      </c>
+      <c r="C14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15">
+        <v>546</v>
+      </c>
+      <c r="C15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18">
+        <v>528</v>
+      </c>
+      <c r="C18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19">
+        <v>534</v>
+      </c>
+      <c r="C19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20">
+        <v>580</v>
+      </c>
+      <c r="C20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B24">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25">
+        <v>594</v>
+      </c>
+      <c r="C25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>385</v>
+      </c>
+      <c r="B27">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>387</v>
+      </c>
+      <c r="B29">
+        <v>545</v>
+      </c>
+      <c r="C29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31">
+        <v>571</v>
+      </c>
+      <c r="C31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>392</v>
+      </c>
+      <c r="B32">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>393</v>
+      </c>
+      <c r="B33">
+        <v>536</v>
+      </c>
+      <c r="C33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>395</v>
+      </c>
+      <c r="B34">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>396</v>
+      </c>
+      <c r="B35">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>397</v>
+      </c>
+      <c r="B36">
+        <v>572</v>
+      </c>
+      <c r="C36" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>399</v>
+      </c>
+      <c r="B37">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>401</v>
+      </c>
+      <c r="B39">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42">
+        <v>530</v>
+      </c>
+      <c r="C42" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>406</v>
+      </c>
+      <c r="B43">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>407</v>
+      </c>
+      <c r="B44">
+        <v>556</v>
+      </c>
+      <c r="C44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>409</v>
+      </c>
+      <c r="B45">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B46">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>411</v>
+      </c>
+      <c r="B47">
+        <v>595</v>
+      </c>
+      <c r="C47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>413</v>
+      </c>
+      <c r="B48">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>414</v>
+      </c>
+      <c r="B49">
+        <v>548</v>
+      </c>
+      <c r="C49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>416</v>
+      </c>
+      <c r="B50">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>417</v>
+      </c>
+      <c r="B51">
+        <v>557</v>
+      </c>
+      <c r="C51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>419</v>
+      </c>
+      <c r="B52">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>420</v>
+      </c>
+      <c r="B53">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>421</v>
+      </c>
+      <c r="B54">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>422</v>
+      </c>
+      <c r="B55">
+        <v>547</v>
+      </c>
+      <c r="C55" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>424</v>
+      </c>
+      <c r="B56">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39530E3-E482-4DAF-9385-C1AAD07BEA0E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019DBC50-D67B-4D28-A487-61AD4580EA63}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" activeTab="4" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" activeTab="5" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Characters" sheetId="3" r:id="rId3"/>
     <sheet name="Magic words" sheetId="4" r:id="rId4"/>
     <sheet name="verbs" sheetId="5" r:id="rId5"/>
+    <sheet name="nouns" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="543">
   <si>
     <t>Long description</t>
   </si>
@@ -1304,6 +1305,360 @@
   </si>
   <si>
     <t>wear</t>
+  </si>
+  <si>
+    <t>Command number</t>
+  </si>
+  <si>
+    <t>axe</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>basilisk</t>
+  </si>
+  <si>
+    <t>batteries</t>
+  </si>
+  <si>
+    <t>beads</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>bones</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>cage</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>chalice</t>
+  </si>
+  <si>
+    <t>chasm</t>
+  </si>
+  <si>
+    <t>chest (treasure)</t>
+  </si>
+  <si>
+    <t>clam</t>
+  </si>
+  <si>
+    <t>coins</t>
+  </si>
+  <si>
+    <t>crown</t>
+  </si>
+  <si>
+    <t>crucifix</t>
+  </si>
+  <si>
+    <t>curtains</t>
+  </si>
+  <si>
+    <t>diamonds</t>
+  </si>
+  <si>
+    <t>dinghy</t>
+  </si>
+  <si>
+    <t>djinn</t>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>drachma</t>
+  </si>
+  <si>
+    <t>dragon</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>dung</t>
+  </si>
+  <si>
+    <t>dwarf (dwarves)</t>
+  </si>
+  <si>
+    <t>eggs (nest)</t>
+  </si>
+  <si>
+    <t>emerald</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>flask</t>
+  </si>
+  <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>gate</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>goblins</t>
+  </si>
+  <si>
+    <t>gold (nugget)</t>
+  </si>
+  <si>
+    <t>gong</t>
+  </si>
+  <si>
+    <t>grate</t>
+  </si>
+  <si>
+    <t>grill</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>horn</t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>jewelry</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>machine (vending)</t>
+  </si>
+  <si>
+    <t>magazine (Spelunker)</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>mist</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>ogre</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>opals (casket)</t>
+  </si>
+  <si>
+    <t>orb (globe)</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>pearl</t>
+  </si>
+  <si>
+    <t>pillow</t>
+  </si>
+  <si>
+    <t>pirate</t>
+  </si>
+  <si>
+    <t>plant (beanstalk)</t>
+  </si>
+  <si>
+    <t>plaque</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>portcullis</t>
+  </si>
+  <si>
+    <t>pottery (shards)</t>
+  </si>
+  <si>
+    <t>pyramid</t>
+  </si>
+  <si>
+    <t>rags</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>rod</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>rug</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>sapphire</t>
+  </si>
+  <si>
+    <t>sceptre</t>
+  </si>
+  <si>
+    <t>sculpture</t>
+  </si>
+  <si>
+    <t>silver (bars)</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>slime</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>spices</t>
+  </si>
+  <si>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>spyglass</t>
+  </si>
+  <si>
+    <t>stalactite</t>
+  </si>
+  <si>
+    <t>starstone</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>teeth</t>
+  </si>
+  <si>
+    <t>throne</t>
+  </si>
+  <si>
+    <t>tortoise</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>trident</t>
+  </si>
+  <si>
+    <t>troll</t>
+  </si>
+  <si>
+    <t>tusk</t>
+  </si>
+  <si>
+    <t>unicorn</t>
+  </si>
+  <si>
+    <t>vase</t>
+  </si>
+  <si>
+    <t>vial</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>downstream</t>
+  </si>
+  <si>
+    <t>upstream</t>
+  </si>
+  <si>
+    <t>barren</t>
+  </si>
+  <si>
+    <t>bedquilt</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>pit</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>bracelet</t>
+  </si>
+  <si>
+    <t>drawings</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +2042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6128,15 +6483,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1146977B-5982-4F75-8FC3-2D107A05C329}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>298</v>
       </c>
@@ -6146,142 +6501,196 @@
       <c r="C1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>301</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>302</v>
-      </c>
-      <c r="C2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" t="s">
-        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>306</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B16" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="D16">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>321</v>
-      </c>
-      <c r="B14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>322</v>
       </c>
+      <c r="D17">
+        <v>511</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D17">
+    <sortCondition ref="D2:D17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6289,517 +6698,1450 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82045E9-E42F-446C-9E79-EEE8F9C54219}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="B1">
-        <v>597</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="B2">
-        <v>564</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="B3">
-        <v>574</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="B4">
-        <v>563</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B5">
-        <v>598</v>
+        <v>526</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B6">
-        <v>538</v>
+        <v>527</v>
+      </c>
+      <c r="C6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="B7">
-        <v>532</v>
+        <v>528</v>
+      </c>
+      <c r="C7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="B8">
-        <v>544</v>
+        <v>530</v>
+      </c>
+      <c r="C8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="B9">
-        <v>582</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B10">
-        <v>555</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B11">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B12">
-        <v>554</v>
+        <v>535</v>
+      </c>
+      <c r="C12" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="B13">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B14">
-        <v>527</v>
-      </c>
-      <c r="C14" t="s">
-        <v>367</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="B15">
-        <v>546</v>
-      </c>
-      <c r="C15" t="s">
-        <v>369</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="B16">
-        <v>559</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B17">
-        <v>560</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="B18">
-        <v>528</v>
-      </c>
-      <c r="C18" t="s">
-        <v>373</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B19">
-        <v>534</v>
-      </c>
-      <c r="C19" t="s">
-        <v>375</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B20">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B21">
-        <v>576</v>
+        <v>546</v>
+      </c>
+      <c r="C21" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="B22">
-        <v>550</v>
+        <v>547</v>
+      </c>
+      <c r="C22" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="B23">
-        <v>592</v>
+        <v>548</v>
+      </c>
+      <c r="C23" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B24">
-        <v>585</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B25">
-        <v>594</v>
-      </c>
-      <c r="C25" t="s">
-        <v>383</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B26">
-        <v>531</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B27">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B28">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="B29">
-        <v>545</v>
-      </c>
-      <c r="C29" t="s">
-        <v>388</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B30">
-        <v>541</v>
+        <v>556</v>
+      </c>
+      <c r="C30" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="B31">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="C31" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B32">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="B33">
-        <v>536</v>
-      </c>
-      <c r="C33" t="s">
-        <v>394</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B34">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B35">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="B36">
-        <v>572</v>
-      </c>
-      <c r="C36" t="s">
-        <v>398</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="B37">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B38">
-        <v>603</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B39">
-        <v>540</v>
+        <v>571</v>
+      </c>
+      <c r="C39" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B40">
-        <v>491</v>
+        <v>572</v>
+      </c>
+      <c r="C40" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="B41">
-        <v>490</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="B42">
-        <v>530</v>
-      </c>
-      <c r="C42" t="s">
-        <v>405</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B43">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="B44">
-        <v>556</v>
-      </c>
-      <c r="C44" t="s">
-        <v>408</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B45">
-        <v>489</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="B46">
-        <v>493</v>
+        <v>580</v>
+      </c>
+      <c r="C46" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="B47">
-        <v>595</v>
-      </c>
-      <c r="C47" t="s">
-        <v>412</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="B48">
-        <v>604</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="B49">
-        <v>548</v>
-      </c>
-      <c r="C49" t="s">
-        <v>415</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="B50">
-        <v>573</v>
+        <v>594</v>
+      </c>
+      <c r="C50" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B51">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>419</v>
+        <v>351</v>
       </c>
       <c r="B52">
-        <v>542</v>
+        <v>597</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="B53">
-        <v>575</v>
+        <v>598</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>421</v>
+        <v>532</v>
       </c>
       <c r="B54">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>422</v>
+        <v>531</v>
       </c>
       <c r="B55">
-        <v>547</v>
-      </c>
-      <c r="C55" t="s">
-        <v>423</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B56">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>413</v>
+      </c>
+      <c r="B57">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>421</v>
+      </c>
+      <c r="B58">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>539</v>
       </c>
     </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>540</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A1:C66">
+    <sortCondition ref="B1:B66"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAF7930-528F-46A7-AEFD-3A534C07F842}">
+  <dimension ref="A1:B107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>438</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>514</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>474</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>519</v>
+      </c>
+      <c r="B24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>505</v>
+      </c>
+      <c r="B25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>429</v>
+      </c>
+      <c r="B27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>446</v>
+      </c>
+      <c r="B28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>427</v>
+      </c>
+      <c r="B29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>445</v>
+      </c>
+      <c r="B32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>504</v>
+      </c>
+      <c r="B33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>471</v>
+      </c>
+      <c r="B34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>522</v>
+      </c>
+      <c r="B38">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>468</v>
+      </c>
+      <c r="B39">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>526</v>
+      </c>
+      <c r="B40">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>492</v>
+      </c>
+      <c r="B41">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>456</v>
+      </c>
+      <c r="B42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>502</v>
+      </c>
+      <c r="B43">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>530</v>
+      </c>
+      <c r="B44">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>493</v>
+      </c>
+      <c r="B45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>485</v>
+      </c>
+      <c r="B46">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>499</v>
+      </c>
+      <c r="B47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>508</v>
+      </c>
+      <c r="B48">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>430</v>
+      </c>
+      <c r="B49">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>436</v>
+      </c>
+      <c r="B50">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>496</v>
+      </c>
+      <c r="B51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>511</v>
+      </c>
+      <c r="B52">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>503</v>
+      </c>
+      <c r="B53">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>541</v>
+      </c>
+      <c r="B54">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>482</v>
+      </c>
+      <c r="B55">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>489</v>
+      </c>
+      <c r="B56">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>470</v>
+      </c>
+      <c r="B57">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>491</v>
+      </c>
+      <c r="B58">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>444</v>
+      </c>
+      <c r="B59">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>498</v>
+      </c>
+      <c r="B60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>452</v>
+      </c>
+      <c r="B62">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>483</v>
+      </c>
+      <c r="B63">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>524</v>
+      </c>
+      <c r="B64">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>437</v>
+      </c>
+      <c r="B65">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>525</v>
+      </c>
+      <c r="B66">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>501</v>
+      </c>
+      <c r="B67">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>453</v>
+      </c>
+      <c r="B68">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>484</v>
+      </c>
+      <c r="B69">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>529</v>
+      </c>
+      <c r="B70">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>509</v>
+      </c>
+      <c r="B71">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>448</v>
+      </c>
+      <c r="B72">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>510</v>
+      </c>
+      <c r="B73">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>469</v>
+      </c>
+      <c r="B74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>495</v>
+      </c>
+      <c r="B75">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>443</v>
+      </c>
+      <c r="B76">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>461</v>
+      </c>
+      <c r="B77">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>433</v>
+      </c>
+      <c r="B78">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>513</v>
+      </c>
+      <c r="B79">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>450</v>
+      </c>
+      <c r="B80">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>472</v>
+      </c>
+      <c r="B81">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>473</v>
+      </c>
+      <c r="B82">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>435</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>432</v>
+      </c>
+      <c r="B84">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>497</v>
+      </c>
+      <c r="B85">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>490</v>
+      </c>
+      <c r="B86">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>486</v>
+      </c>
+      <c r="B87">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>440</v>
+      </c>
+      <c r="B88">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>475</v>
+      </c>
+      <c r="B89">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>460</v>
+      </c>
+      <c r="B90">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>434</v>
+      </c>
+      <c r="B91">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>528</v>
+      </c>
+      <c r="B92">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>481</v>
+      </c>
+      <c r="B93">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>458</v>
+      </c>
+      <c r="B94">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>426</v>
+      </c>
+      <c r="B95">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>516</v>
+      </c>
+      <c r="B96">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>518</v>
+      </c>
+      <c r="B97">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>527</v>
+      </c>
+      <c r="B98">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>478</v>
+      </c>
+      <c r="B99">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>479</v>
+      </c>
+      <c r="B100">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>463</v>
+      </c>
+      <c r="B101">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>521</v>
+      </c>
+      <c r="B102">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>494</v>
+      </c>
+      <c r="B103">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>517</v>
+      </c>
+      <c r="B104">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>454</v>
+      </c>
+      <c r="B105">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>462</v>
+      </c>
+      <c r="B106">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>477</v>
+      </c>
+      <c r="B107">
+        <v>584</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B107">
+    <sortCondition ref="B1:B107"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019DBC50-D67B-4D28-A487-61AD4580EA63}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5A9B6A-DFE3-4C7D-B90E-95787ECFB072}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" activeTab="5" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="547">
   <si>
     <t>Long description</t>
   </si>
@@ -1082,9 +1082,6 @@
     <t>You  are in an open sunlit forest which seems to become denser and darker in the northern and eastern directions.</t>
   </si>
   <si>
-    <t>You appear to be lost in a dark and gloomy forest.</t>
-  </si>
-  <si>
     <t>blast</t>
   </si>
   <si>
@@ -1659,6 +1656,21 @@
   </si>
   <si>
     <t>drawings</t>
+  </si>
+  <si>
+    <t>Lost in the forest</t>
+  </si>
+  <si>
+    <t>You  are in an open forest, east of a deep valley.  To the east and south the forest appears to grow dark and gloomy.</t>
+  </si>
+  <si>
+    <t>You are in an open forest, west of a deep valley.  To the west the forest appears to become gloomy and dark.</t>
+  </si>
+  <si>
+    <t>You are in an open forest, west of a deep valley.  To the west the forest soon becomes denser and darker.</t>
+  </si>
+  <si>
+    <t>You  are in an open forest, west of a deep valley.  To the west and south the forest seems to grow denser and gloomier.</t>
   </si>
 </sst>
 </file>
@@ -2038,11 +2050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:O130"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2122,6 +2134,9 @@
       <c r="I2" s="4">
         <v>84</v>
       </c>
+      <c r="K2" s="4">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -2147,6 +2162,9 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4">
+        <v>441</v>
+      </c>
       <c r="D4" s="4">
         <v>5</v>
       </c>
@@ -2155,8 +2173,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>542</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
+      </c>
+      <c r="C5">
+        <v>461</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
@@ -2178,6 +2202,9 @@
       <c r="E6" s="4">
         <v>7</v>
       </c>
+      <c r="G6" s="4">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -2195,6 +2222,12 @@
       <c r="E7" s="4">
         <v>9</v>
       </c>
+      <c r="F7" s="4">
+        <v>121</v>
+      </c>
+      <c r="G7" s="4">
+        <v>131</v>
+      </c>
       <c r="M7" s="4" t="s">
         <v>16</v>
       </c>
@@ -2262,6 +2295,12 @@
       <c r="E9" s="4">
         <v>11</v>
       </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <v>132</v>
+      </c>
       <c r="L9" s="4">
         <v>10</v>
       </c>
@@ -2296,8 +2335,14 @@
       <c r="C11">
         <v>436</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <v>130</v>
+      </c>
+      <c r="G11" s="4">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -4796,6 +4841,9 @@
       <c r="B82" t="s">
         <v>219</v>
       </c>
+      <c r="C82">
+        <v>137</v>
+      </c>
       <c r="D82" s="4">
         <v>84</v>
       </c>
@@ -4813,8 +4861,17 @@
       <c r="B83" t="s">
         <v>222</v>
       </c>
+      <c r="C83">
+        <v>450</v>
+      </c>
       <c r="D83" s="4">
         <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>131</v>
+      </c>
+      <c r="F83" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
@@ -4824,6 +4881,9 @@
       <c r="B84" t="s">
         <v>223</v>
       </c>
+      <c r="C84">
+        <v>457</v>
+      </c>
       <c r="D84" s="4">
         <v>85</v>
       </c>
@@ -4841,6 +4901,9 @@
       <c r="B85" t="s">
         <v>225</v>
       </c>
+      <c r="C85">
+        <v>437</v>
+      </c>
       <c r="D85" s="4">
         <v>5</v>
       </c>
@@ -5862,6 +5925,9 @@
       <c r="C120">
         <v>460</v>
       </c>
+      <c r="D120" s="4">
+        <v>124</v>
+      </c>
       <c r="E120" s="4">
         <v>121</v>
       </c>
@@ -5882,6 +5948,9 @@
       <c r="F121" s="4">
         <v>122</v>
       </c>
+      <c r="G121" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
@@ -5984,7 +6053,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>349</v>
       </c>
@@ -5992,12 +6061,60 @@
         <v>445</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>350</v>
+        <v>543</v>
       </c>
       <c r="C130">
-        <v>461</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>544</v>
+      </c>
+      <c r="C131">
+        <v>451</v>
+      </c>
+      <c r="D131" s="4">
+        <v>83</v>
+      </c>
+      <c r="E131" s="4">
+        <v>132</v>
+      </c>
+      <c r="F131" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>545</v>
+      </c>
+      <c r="C132">
+        <v>452</v>
+      </c>
+      <c r="D132" s="4">
+        <v>131</v>
+      </c>
+      <c r="E132" s="4">
+        <v>133</v>
+      </c>
+      <c r="F132" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>546</v>
+      </c>
+      <c r="C133">
+        <v>453</v>
+      </c>
+      <c r="D133" s="4">
+        <v>132</v>
+      </c>
+      <c r="F133" s="4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -6502,7 +6619,7 @@
         <v>300</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -6708,7 +6825,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1">
         <v>489</v>
@@ -6716,7 +6833,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2">
         <v>490</v>
@@ -6724,7 +6841,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B3">
         <v>491</v>
@@ -6732,7 +6849,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4">
         <v>493</v>
@@ -6740,51 +6857,51 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5">
         <v>526</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6">
         <v>527</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7">
         <v>528</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B8">
         <v>530</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B9">
         <v>531</v>
@@ -6792,7 +6909,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10">
         <v>532</v>
@@ -6800,40 +6917,40 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B11">
         <v>534</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B12">
         <v>535</v>
       </c>
       <c r="C12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13">
         <v>536</v>
       </c>
       <c r="C13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B14">
         <v>538</v>
@@ -6841,7 +6958,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B15">
         <v>539</v>
@@ -6849,7 +6966,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B16">
         <v>540</v>
@@ -6857,7 +6974,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B17">
         <v>541</v>
@@ -6865,7 +6982,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B18">
         <v>542</v>
@@ -6873,7 +6990,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B19">
         <v>544</v>
@@ -6881,51 +6998,51 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B20">
         <v>545</v>
       </c>
       <c r="C20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B21">
         <v>546</v>
       </c>
       <c r="C21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B22">
         <v>547</v>
       </c>
       <c r="C22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B23">
         <v>548</v>
       </c>
       <c r="C23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B24">
         <v>549</v>
@@ -6933,7 +7050,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B25">
         <v>550</v>
@@ -6941,7 +7058,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B26">
         <v>552</v>
@@ -6949,7 +7066,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B27">
         <v>553</v>
@@ -6957,7 +7074,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28">
         <v>554</v>
@@ -6965,7 +7082,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B29">
         <v>555</v>
@@ -6973,29 +7090,29 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B30">
         <v>556</v>
       </c>
       <c r="C30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B31">
         <v>557</v>
       </c>
       <c r="C31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B32">
         <v>559</v>
@@ -7003,7 +7120,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B33">
         <v>560</v>
@@ -7011,7 +7128,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B34">
         <v>561</v>
@@ -7019,7 +7136,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B35">
         <v>562</v>
@@ -7027,7 +7144,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B36">
         <v>563</v>
@@ -7035,7 +7152,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B37">
         <v>564</v>
@@ -7043,7 +7160,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B38">
         <v>565</v>
@@ -7051,29 +7168,29 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B39">
         <v>571</v>
       </c>
       <c r="C39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B40">
         <v>572</v>
       </c>
       <c r="C40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B41">
         <v>573</v>
@@ -7081,7 +7198,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B42">
         <v>574</v>
@@ -7089,7 +7206,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B43">
         <v>575</v>
@@ -7097,7 +7214,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44">
         <v>576</v>
@@ -7105,7 +7222,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B45">
         <v>577</v>
@@ -7113,18 +7230,18 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B46">
         <v>580</v>
       </c>
       <c r="C46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47">
         <v>582</v>
@@ -7132,7 +7249,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48">
         <v>585</v>
@@ -7140,7 +7257,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49">
         <v>592</v>
@@ -7148,29 +7265,29 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B50">
         <v>594</v>
       </c>
       <c r="C50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B51">
         <v>595</v>
       </c>
       <c r="C51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B52">
         <v>597</v>
@@ -7178,7 +7295,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B53">
         <v>598</v>
@@ -7186,7 +7303,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B54">
         <v>599</v>
@@ -7194,7 +7311,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B55">
         <v>600</v>
@@ -7202,7 +7319,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B56">
         <v>603</v>
@@ -7210,7 +7327,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B57">
         <v>604</v>
@@ -7218,7 +7335,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B58">
         <v>610</v>
@@ -7226,42 +7343,42 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -7276,7 +7393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAF7930-528F-46A7-AEFD-3A534C07F842}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B107"/>
     </sheetView>
   </sheetViews>
@@ -7284,7 +7401,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -7292,7 +7409,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -7300,7 +7417,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -7308,7 +7425,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -7316,7 +7433,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -7324,7 +7441,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -7332,7 +7449,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -7340,7 +7457,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -7348,7 +7465,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -7356,7 +7473,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -7364,7 +7481,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -7372,7 +7489,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -7380,7 +7497,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -7388,7 +7505,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -7396,7 +7513,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B15">
         <v>24</v>
@@ -7404,7 +7521,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B16">
         <v>25</v>
@@ -7412,7 +7529,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B17">
         <v>26</v>
@@ -7420,7 +7537,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B18">
         <v>27</v>
@@ -7428,7 +7545,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B19">
         <v>28</v>
@@ -7436,7 +7553,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -7444,7 +7561,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B21">
         <v>33</v>
@@ -7452,7 +7569,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B22">
         <v>34</v>
@@ -7460,7 +7577,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -7468,7 +7585,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B24">
         <v>36</v>
@@ -7476,7 +7593,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B25">
         <v>37</v>
@@ -7484,7 +7601,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B26">
         <v>38</v>
@@ -7492,7 +7609,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B27">
         <v>39</v>
@@ -7500,7 +7617,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B28">
         <v>41</v>
@@ -7508,7 +7625,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B29">
         <v>42</v>
@@ -7516,7 +7633,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B30">
         <v>43</v>
@@ -7524,7 +7641,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B31">
         <v>44</v>
@@ -7532,7 +7649,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B32">
         <v>45</v>
@@ -7540,7 +7657,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B33">
         <v>46</v>
@@ -7548,7 +7665,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B34">
         <v>47</v>
@@ -7556,7 +7673,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B35">
         <v>48</v>
@@ -7564,7 +7681,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -7572,7 +7689,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B37">
         <v>50</v>
@@ -7580,7 +7697,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B38">
         <v>51</v>
@@ -7588,7 +7705,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B39">
         <v>52</v>
@@ -7596,7 +7713,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B40">
         <v>53</v>
@@ -7604,7 +7721,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B41">
         <v>54</v>
@@ -7612,7 +7729,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B42">
         <v>55</v>
@@ -7620,7 +7737,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B43">
         <v>56</v>
@@ -7628,7 +7745,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B44">
         <v>57</v>
@@ -7636,7 +7753,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B45">
         <v>58</v>
@@ -7644,7 +7761,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B46">
         <v>59</v>
@@ -7652,7 +7769,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B47">
         <v>60</v>
@@ -7660,7 +7777,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B48">
         <v>61</v>
@@ -7668,7 +7785,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B49">
         <v>62</v>
@@ -7676,7 +7793,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B50">
         <v>63</v>
@@ -7684,7 +7801,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B51">
         <v>64</v>
@@ -7692,7 +7809,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B52">
         <v>65</v>
@@ -7700,7 +7817,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B53">
         <v>66</v>
@@ -7708,7 +7825,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B54">
         <v>67</v>
@@ -7716,7 +7833,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B55">
         <v>68</v>
@@ -7724,7 +7841,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B56">
         <v>70</v>
@@ -7732,7 +7849,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B57">
         <v>71</v>
@@ -7740,7 +7857,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B58">
         <v>72</v>
@@ -7748,7 +7865,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B59">
         <v>73</v>
@@ -7756,7 +7873,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B60">
         <v>75</v>
@@ -7764,7 +7881,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B61">
         <v>76</v>
@@ -7772,7 +7889,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B62">
         <v>77</v>
@@ -7780,7 +7897,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B63">
         <v>78</v>
@@ -7788,7 +7905,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B64">
         <v>80</v>
@@ -7796,7 +7913,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65">
         <v>81</v>
@@ -7804,7 +7921,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B66">
         <v>82</v>
@@ -7812,7 +7929,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B67">
         <v>83</v>
@@ -7820,7 +7937,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B68">
         <v>84</v>
@@ -7828,7 +7945,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B69">
         <v>85</v>
@@ -7836,7 +7953,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B70">
         <v>86</v>
@@ -7844,7 +7961,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B71">
         <v>87</v>
@@ -7852,7 +7969,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B72">
         <v>88</v>
@@ -7860,7 +7977,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B73">
         <v>89</v>
@@ -7868,7 +7985,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B74">
         <v>90</v>
@@ -7876,7 +7993,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B75">
         <v>91</v>
@@ -7884,7 +8001,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B76">
         <v>92</v>
@@ -7892,7 +8009,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B77">
         <v>93</v>
@@ -7900,7 +8017,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B78">
         <v>94</v>
@@ -7908,7 +8025,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B79">
         <v>95</v>
@@ -7916,7 +8033,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B80">
         <v>97</v>
@@ -7924,7 +8041,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B81">
         <v>98</v>
@@ -7932,7 +8049,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B82">
         <v>99</v>
@@ -7940,7 +8057,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B83">
         <v>100</v>
@@ -7948,7 +8065,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B84">
         <v>101</v>
@@ -7956,7 +8073,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B85">
         <v>102</v>
@@ -7964,7 +8081,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B86">
         <v>103</v>
@@ -7972,7 +8089,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B87">
         <v>105</v>
@@ -7980,7 +8097,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B88">
         <v>106</v>
@@ -7988,7 +8105,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B89">
         <v>108</v>
@@ -7996,7 +8113,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B90">
         <v>110</v>
@@ -8004,7 +8121,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B91">
         <v>111</v>
@@ -8012,7 +8129,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B92">
         <v>112</v>
@@ -8020,7 +8137,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B93">
         <v>113</v>
@@ -8028,7 +8145,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B94">
         <v>114</v>
@@ -8036,7 +8153,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B95">
         <v>115</v>
@@ -8044,7 +8161,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B96">
         <v>116</v>
@@ -8052,7 +8169,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B97">
         <v>117</v>
@@ -8060,7 +8177,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B98">
         <v>118</v>
@@ -8068,7 +8185,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B99">
         <v>119</v>
@@ -8076,7 +8193,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B100">
         <v>120</v>
@@ -8084,7 +8201,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B101">
         <v>121</v>
@@ -8092,7 +8209,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B102">
         <v>122</v>
@@ -8100,7 +8217,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B103">
         <v>123</v>
@@ -8108,7 +8225,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B104">
         <v>124</v>
@@ -8116,7 +8233,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B105">
         <v>134</v>
@@ -8124,7 +8241,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B106">
         <v>135</v>
@@ -8132,7 +8249,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B107">
         <v>584</v>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5A9B6A-DFE3-4C7D-B90E-95787ECFB072}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B75477C-D2E4-4778-B6AF-6F34AC16842C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="547">
   <si>
     <t>Long description</t>
   </si>
@@ -2053,8 +2053,8 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2134,8 +2134,14 @@
       <c r="I2" s="4">
         <v>84</v>
       </c>
+      <c r="J2" s="4">
+        <v>120</v>
+      </c>
       <c r="K2" s="4">
         <v>83</v>
+      </c>
+      <c r="L2" s="4">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -2154,6 +2160,15 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
+      <c r="F3" s="4">
+        <v>118</v>
+      </c>
+      <c r="I3" s="4">
+        <v>85</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -2171,6 +2186,12 @@
       <c r="E4" s="4">
         <v>3</v>
       </c>
+      <c r="F4" s="4">
+        <v>119</v>
+      </c>
+      <c r="K4" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -2182,9 +2203,6 @@
       <c r="C5">
         <v>461</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -2202,7 +2220,19 @@
       <c r="E6" s="4">
         <v>7</v>
       </c>
+      <c r="F6" s="4">
+        <v>120</v>
+      </c>
       <c r="G6" s="4">
+        <v>83</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>131</v>
+      </c>
+      <c r="L6" s="4">
         <v>83</v>
       </c>
     </row>
@@ -2228,6 +2258,12 @@
       <c r="G7" s="4">
         <v>131</v>
       </c>
+      <c r="H7" s="4">
+        <v>120</v>
+      </c>
+      <c r="I7" s="4">
+        <v>83</v>
+      </c>
       <c r="M7" s="4" t="s">
         <v>16</v>
       </c>
@@ -4856,6 +4892,15 @@
       <c r="G82" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="H82" s="4">
+        <v>3</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
@@ -4873,6 +4918,18 @@
       <c r="F83" s="4">
         <v>6</v>
       </c>
+      <c r="G83" s="4">
+        <v>5</v>
+      </c>
+      <c r="I83" s="4">
+        <v>5</v>
+      </c>
+      <c r="J83" s="4">
+        <v>7</v>
+      </c>
+      <c r="M83" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -4890,8 +4947,14 @@
       <c r="E84" s="4">
         <v>82</v>
       </c>
+      <c r="H84" s="4">
+        <v>4</v>
+      </c>
       <c r="I84" s="4">
         <v>99</v>
+      </c>
+      <c r="J84" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -4910,6 +4973,9 @@
       <c r="E85" s="4">
         <v>84</v>
       </c>
+      <c r="J85" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -5382,11 +5448,38 @@
       <c r="B99" t="s">
         <v>270</v>
       </c>
+      <c r="C99">
+        <v>138</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G99" s="4">
         <v>100</v>
       </c>
+      <c r="H99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J99" s="4">
         <v>84</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
@@ -5906,6 +5999,12 @@
       <c r="D118" s="4">
         <v>119</v>
       </c>
+      <c r="E118" s="4">
+        <v>124</v>
+      </c>
+      <c r="F118" s="4">
+        <v>125</v>
+      </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
@@ -5917,6 +6016,12 @@
       <c r="E119" s="4">
         <v>118</v>
       </c>
+      <c r="F119" s="4">
+        <v>126</v>
+      </c>
+      <c r="G119" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
@@ -5931,6 +6036,27 @@
       <c r="E120" s="4">
         <v>121</v>
       </c>
+      <c r="F120" s="4">
+        <v>123</v>
+      </c>
+      <c r="G120" s="4">
+        <v>6</v>
+      </c>
+      <c r="I120" s="4">
+        <v>2</v>
+      </c>
+      <c r="J120" s="4">
+        <v>122</v>
+      </c>
+      <c r="K120" s="4">
+        <v>7</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
@@ -5951,6 +6077,9 @@
       <c r="G121" s="4">
         <v>7</v>
       </c>
+      <c r="H121" s="4">
+        <v>123</v>
+      </c>
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
@@ -5962,11 +6091,20 @@
       <c r="D122" s="4">
         <v>123</v>
       </c>
+      <c r="E122" s="4">
+        <v>5</v>
+      </c>
+      <c r="F122" s="4">
+        <v>5</v>
+      </c>
       <c r="G122" s="4">
         <v>121</v>
       </c>
       <c r="H122" s="4">
         <v>127</v>
+      </c>
+      <c r="I122" s="4">
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
@@ -5985,6 +6123,12 @@
       <c r="F123" s="4">
         <v>127</v>
       </c>
+      <c r="G123" s="4">
+        <v>120</v>
+      </c>
+      <c r="K123" s="4">
+        <v>121</v>
+      </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
@@ -5999,6 +6143,15 @@
       <c r="E124" s="4">
         <v>123</v>
       </c>
+      <c r="F124" s="4">
+        <v>128</v>
+      </c>
+      <c r="I124" s="4">
+        <v>118</v>
+      </c>
+      <c r="J124" s="4">
+        <v>127</v>
+      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
@@ -6013,6 +6166,12 @@
       <c r="E125" s="4">
         <v>124</v>
       </c>
+      <c r="F125" s="4">
+        <v>129</v>
+      </c>
+      <c r="G125" s="4">
+        <v>118</v>
+      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
@@ -6021,8 +6180,23 @@
       <c r="C126">
         <v>443</v>
       </c>
+      <c r="D126" s="4">
+        <v>5</v>
+      </c>
       <c r="E126" s="4">
         <v>125</v>
+      </c>
+      <c r="F126" s="4">
+        <v>5</v>
+      </c>
+      <c r="G126" s="4">
+        <v>119</v>
+      </c>
+      <c r="H126" s="4">
+        <v>5</v>
+      </c>
+      <c r="I126" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
@@ -6035,8 +6209,26 @@
       <c r="D127" s="4">
         <v>128</v>
       </c>
+      <c r="E127" s="4">
+        <v>5</v>
+      </c>
+      <c r="F127" s="4">
+        <v>5</v>
+      </c>
       <c r="G127" s="4">
         <v>123</v>
+      </c>
+      <c r="H127" s="4">
+        <v>5</v>
+      </c>
+      <c r="I127" s="4">
+        <v>124</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
@@ -6052,24 +6244,36 @@
       <c r="E128" s="4">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F128" s="4">
+        <v>5</v>
+      </c>
+      <c r="G128" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>349</v>
       </c>
       <c r="C129">
         <v>445</v>
       </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G129" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>543</v>
       </c>
       <c r="C130">
         <v>456</v>
       </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I130" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>544</v>
       </c>
@@ -6085,8 +6289,11 @@
       <c r="F131" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H131" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>545</v>
       </c>
@@ -6103,7 +6310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>546</v>
       </c>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B75477C-D2E4-4778-B6AF-6F34AC16842C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A77F148-2DA6-4AC6-B1CC-86DBE7B3F0A5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -2053,8 +2053,8 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2668,7 +2668,7 @@
         <v>229</v>
       </c>
       <c r="M18" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -3283,12 +3283,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>94</v>
       </c>
       <c r="B34" t="s">
         <v>92</v>
+      </c>
+      <c r="C34">
+        <v>312</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>16</v>
@@ -4293,6 +4296,9 @@
       <c r="B63" t="s">
         <v>172</v>
       </c>
+      <c r="C63">
+        <v>314</v>
+      </c>
       <c r="D63" s="4">
         <v>19</v>
       </c>
@@ -4331,6 +4337,9 @@
       <c r="B64" t="s">
         <v>176</v>
       </c>
+      <c r="C64">
+        <v>152</v>
+      </c>
       <c r="D64" s="4" t="s">
         <v>16</v>
       </c>
@@ -4483,6 +4492,9 @@
       <c r="B68" t="s">
         <v>187</v>
       </c>
+      <c r="C68">
+        <v>153</v>
+      </c>
       <c r="D68" s="4">
         <v>86</v>
       </c>
@@ -6224,6 +6236,12 @@
       <c r="I127" s="4">
         <v>124</v>
       </c>
+      <c r="J127" s="4">
+        <v>5</v>
+      </c>
+      <c r="K127" s="4">
+        <v>122</v>
+      </c>
       <c r="L127" s="4" t="s">
         <v>16</v>
       </c>
@@ -6250,19 +6268,46 @@
       <c r="G128" s="4">
         <v>124</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H128" s="4">
+        <v>5</v>
+      </c>
+      <c r="I128" s="4">
+        <v>125</v>
+      </c>
+      <c r="J128" s="4">
+        <v>5</v>
+      </c>
+      <c r="K128" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>349</v>
       </c>
       <c r="C129">
         <v>445</v>
       </c>
+      <c r="D129" s="4">
+        <v>5</v>
+      </c>
+      <c r="E129" s="4">
+        <v>128</v>
+      </c>
+      <c r="F129" s="4">
+        <v>5</v>
+      </c>
       <c r="G129" s="4">
         <v>125</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H129" s="4">
+        <v>5</v>
+      </c>
+      <c r="J129" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>543</v>
       </c>
@@ -6273,7 +6318,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>544</v>
       </c>
@@ -6293,7 +6338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>545</v>
       </c>
@@ -6310,7 +6355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>546</v>
       </c>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A77F148-2DA6-4AC6-B1CC-86DBE7B3F0A5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573787B0-C49E-42DB-8E72-2C80220FD38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="559">
   <si>
     <t>Long description</t>
   </si>
@@ -1671,6 +1671,42 @@
   </si>
   <si>
     <t>You  are in an open forest, west of a deep valley.  To the west and south the forest seems to grow denser and gloomier.</t>
+  </si>
+  <si>
+    <t>Dead end</t>
+  </si>
+  <si>
+    <t>You  are  in  a large low circular chamber whose floor is an immense slab fallen from the ceiling (Slab room).  It may be possible to climb one  of the  walls to reach the hole gaping above your head.  East and west there once were large passages, but they are now  filled  with  boulders.   Low small  passages  go north and south, and the south one quickly bends west around the boulders.</t>
+  </si>
+  <si>
+    <t>You're in Slab room.</t>
+  </si>
+  <si>
+    <t>You are at the west end of the Twopit room.  There is a large hole in the wall above the pit at this end of the room.</t>
+  </si>
+  <si>
+    <t>You're at west end of Twopit room.</t>
+  </si>
+  <si>
+    <t>You're in west pit.</t>
+  </si>
+  <si>
+    <t>You  are at the bottom of the western pit in the Twopit room.  There is a large hole in the wall about 25 feet above you.</t>
+  </si>
+  <si>
+    <t>You're at east end of Twopit room.</t>
+  </si>
+  <si>
+    <t>You  are at the bottom of the eastern pit in the Twopit room.  There is a small pool of oil in one corner of the pit.</t>
+  </si>
+  <si>
+    <t>You're in east pit.  There is a small pool of oil here.</t>
+  </si>
+  <si>
+    <t>78 (2/3 of time)</t>
+  </si>
+  <si>
+    <t>75 (2/3 of time)</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1735,6 +1771,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2050,11 +2089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3334,6 +3373,9 @@
       <c r="B35" t="s">
         <v>93</v>
       </c>
+      <c r="C35">
+        <v>320</v>
+      </c>
       <c r="D35" s="4" t="s">
         <v>16</v>
       </c>
@@ -3365,12 +3407,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>100</v>
       </c>
       <c r="B36" t="s">
         <v>96</v>
+      </c>
+      <c r="C36">
+        <v>319</v>
       </c>
       <c r="D36" s="4">
         <v>37</v>
@@ -3410,6 +3455,9 @@
       <c r="B37" t="s">
         <v>97</v>
       </c>
+      <c r="C37">
+        <v>321</v>
+      </c>
       <c r="D37" s="4">
         <v>36</v>
       </c>
@@ -3448,6 +3496,9 @@
       <c r="B38" t="s">
         <v>102</v>
       </c>
+      <c r="C38">
+        <v>161</v>
+      </c>
       <c r="D38" s="4">
         <v>19</v>
       </c>
@@ -3486,6 +3537,9 @@
       <c r="B39" t="s">
         <v>108</v>
       </c>
+      <c r="C39">
+        <v>395</v>
+      </c>
       <c r="D39" s="4" t="s">
         <v>16</v>
       </c>
@@ -3524,6 +3578,9 @@
       <c r="B40" t="s">
         <v>117</v>
       </c>
+      <c r="C40">
+        <v>394</v>
+      </c>
       <c r="D40" s="4" t="s">
         <v>16</v>
       </c>
@@ -3562,6 +3619,9 @@
       <c r="B41" t="s">
         <v>122</v>
       </c>
+      <c r="C41">
+        <v>162</v>
+      </c>
       <c r="D41" s="4" t="s">
         <v>16</v>
       </c>
@@ -3600,6 +3660,9 @@
       <c r="B42" t="s">
         <v>126</v>
       </c>
+      <c r="C42">
+        <v>196</v>
+      </c>
       <c r="D42" s="4">
         <v>43</v>
       </c>
@@ -3638,6 +3701,9 @@
       <c r="B43" t="s">
         <v>127</v>
       </c>
+      <c r="C43">
+        <v>197</v>
+      </c>
       <c r="D43" s="4" t="s">
         <v>16</v>
       </c>
@@ -3676,6 +3742,9 @@
       <c r="B44" t="s">
         <v>128</v>
       </c>
+      <c r="C44">
+        <v>195</v>
+      </c>
       <c r="D44" s="4">
         <v>42</v>
       </c>
@@ -3711,6 +3780,9 @@
       <c r="B45" t="s">
         <v>132</v>
       </c>
+      <c r="C45">
+        <v>300</v>
+      </c>
       <c r="D45" s="4">
         <v>46</v>
       </c>
@@ -3746,6 +3818,9 @@
       <c r="B46" t="s">
         <v>133</v>
       </c>
+      <c r="C46">
+        <v>310</v>
+      </c>
       <c r="D46" s="4">
         <v>47</v>
       </c>
@@ -3766,12 +3841,18 @@
       </c>
       <c r="J46" s="4">
         <v>51</v>
+      </c>
+      <c r="K46" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>134</v>
       </c>
+      <c r="C47">
+        <v>305</v>
+      </c>
       <c r="D47" s="4">
         <v>48</v>
       </c>
@@ -3801,6 +3882,9 @@
       <c r="B48" t="s">
         <v>135</v>
       </c>
+      <c r="C48">
+        <v>302</v>
+      </c>
       <c r="D48" s="4">
         <v>49</v>
       </c>
@@ -3833,6 +3917,9 @@
       <c r="B49" t="s">
         <v>136</v>
       </c>
+      <c r="C49">
+        <v>309</v>
+      </c>
       <c r="D49" s="4">
         <v>50</v>
       </c>
@@ -3853,12 +3940,18 @@
       </c>
       <c r="J49" s="4">
         <v>55</v>
+      </c>
+      <c r="K49" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>137</v>
       </c>
+      <c r="C50">
+        <v>306</v>
+      </c>
       <c r="D50" s="4">
         <v>45</v>
       </c>
@@ -3882,6 +3975,9 @@
       <c r="B51" t="s">
         <v>138</v>
       </c>
+      <c r="C51">
+        <v>307</v>
+      </c>
       <c r="D51" s="4">
         <v>52</v>
       </c>
@@ -3911,6 +4007,9 @@
       <c r="B52" t="s">
         <v>139</v>
       </c>
+      <c r="C52">
+        <v>301</v>
+      </c>
       <c r="D52" s="4">
         <v>53</v>
       </c>
@@ -3937,12 +4036,18 @@
       </c>
       <c r="L52" s="4">
         <v>46</v>
+      </c>
+      <c r="M52" s="4">
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>140</v>
       </c>
+      <c r="C53">
+        <v>303</v>
+      </c>
       <c r="D53" s="4">
         <v>54</v>
       </c>
@@ -3969,6 +4074,9 @@
       <c r="B54" t="s">
         <v>141</v>
       </c>
+      <c r="C54">
+        <v>304</v>
+      </c>
       <c r="D54" s="4">
         <v>55</v>
       </c>
@@ -3998,6 +4106,9 @@
       <c r="B55" t="s">
         <v>142</v>
       </c>
+      <c r="C55">
+        <v>308</v>
+      </c>
       <c r="D55" s="4">
         <v>51</v>
       </c>
@@ -4027,8 +4138,14 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>547</v>
+      </c>
       <c r="B56" t="s">
         <v>143</v>
+      </c>
+      <c r="C56">
+        <v>311</v>
       </c>
       <c r="D56" s="4">
         <v>52</v>
@@ -4068,6 +4185,9 @@
       <c r="B57" t="s">
         <v>144</v>
       </c>
+      <c r="C57">
+        <v>313</v>
+      </c>
       <c r="D57" s="4" t="s">
         <v>16</v>
       </c>
@@ -4106,6 +4226,9 @@
       <c r="B58" t="s">
         <v>148</v>
       </c>
+      <c r="C58">
+        <v>316</v>
+      </c>
       <c r="D58" s="4">
         <v>59</v>
       </c>
@@ -4144,6 +4267,9 @@
       <c r="B59" t="s">
         <v>149</v>
       </c>
+      <c r="C59">
+        <v>317</v>
+      </c>
       <c r="D59" s="4">
         <v>60</v>
       </c>
@@ -4182,6 +4308,9 @@
       <c r="B60" t="s">
         <v>151</v>
       </c>
+      <c r="C60">
+        <v>318</v>
+      </c>
       <c r="D60" s="4" t="s">
         <v>16</v>
       </c>
@@ -4220,6 +4349,9 @@
       <c r="B61" t="s">
         <v>155</v>
       </c>
+      <c r="C61">
+        <v>215</v>
+      </c>
       <c r="D61" s="4" t="s">
         <v>16</v>
       </c>
@@ -4258,6 +4390,9 @@
       <c r="B62" t="s">
         <v>157</v>
       </c>
+      <c r="C62">
+        <v>247</v>
+      </c>
       <c r="D62" s="4">
         <v>65</v>
       </c>
@@ -4381,6 +4516,9 @@
       <c r="B65" t="s">
         <v>178</v>
       </c>
+      <c r="C65">
+        <v>210</v>
+      </c>
       <c r="D65" s="4">
         <v>66</v>
       </c>
@@ -4407,6 +4545,9 @@
       </c>
       <c r="L65" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="M65" s="4">
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -4416,6 +4557,9 @@
       <c r="B66" t="s">
         <v>179</v>
       </c>
+      <c r="C66">
+        <v>237</v>
+      </c>
       <c r="D66" s="4">
         <v>67</v>
       </c>
@@ -4454,6 +4598,9 @@
       <c r="B67" t="s">
         <v>181</v>
       </c>
+      <c r="C67">
+        <v>239</v>
+      </c>
       <c r="D67" s="4" t="s">
         <v>328</v>
       </c>
@@ -4507,6 +4654,24 @@
       <c r="G68" s="4">
         <v>86</v>
       </c>
+      <c r="H68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
@@ -4523,6 +4688,9 @@
       <c r="B70" t="s">
         <v>194</v>
       </c>
+      <c r="C70">
+        <v>207</v>
+      </c>
       <c r="D70" s="4" t="s">
         <v>232</v>
       </c>
@@ -4564,11 +4732,14 @@
       <c r="B71" t="s">
         <v>196</v>
       </c>
+      <c r="C71">
+        <v>208</v>
+      </c>
       <c r="D71" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="4">
-        <v>75</v>
+      <c r="E71" s="6" t="s">
+        <v>558</v>
       </c>
       <c r="F71" s="4">
         <v>72</v>
@@ -4579,8 +4750,8 @@
       <c r="H71" s="4">
         <v>70</v>
       </c>
-      <c r="I71" s="4">
-        <v>78</v>
+      <c r="I71" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>16</v>
@@ -4602,6 +4773,9 @@
       <c r="B72" t="s">
         <v>197</v>
       </c>
+      <c r="C72">
+        <v>225</v>
+      </c>
       <c r="D72" s="4" t="s">
         <v>16</v>
       </c>
@@ -4732,11 +4906,44 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>554</v>
+      </c>
       <c r="B77" t="s">
         <v>210</v>
       </c>
+      <c r="C77">
+        <v>157</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F77" s="4">
         <v>71</v>
+      </c>
+      <c r="G77" s="4">
+        <v>135</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="4">
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -4746,6 +4953,9 @@
       <c r="B78" t="s">
         <v>211</v>
       </c>
+      <c r="C78">
+        <v>226</v>
+      </c>
       <c r="D78" s="4">
         <v>79</v>
       </c>
@@ -4816,6 +5026,9 @@
       <c r="B80" t="s">
         <v>217</v>
       </c>
+      <c r="C80">
+        <v>213</v>
+      </c>
       <c r="D80" s="4">
         <v>81</v>
       </c>
@@ -4996,6 +5209,9 @@
       <c r="B86" t="s">
         <v>230</v>
       </c>
+      <c r="C86">
+        <v>167</v>
+      </c>
       <c r="D86" s="4">
         <v>68</v>
       </c>
@@ -5141,6 +5357,9 @@
       <c r="B91" t="s">
         <v>243</v>
       </c>
+      <c r="C91">
+        <v>194</v>
+      </c>
       <c r="D91" s="4">
         <v>42</v>
       </c>
@@ -5577,6 +5796,9 @@
       <c r="B102" t="s">
         <v>281</v>
       </c>
+      <c r="C102">
+        <v>168</v>
+      </c>
       <c r="D102" s="4">
         <v>102</v>
       </c>
@@ -5612,6 +5834,9 @@
       <c r="B103" t="s">
         <v>281</v>
       </c>
+      <c r="C103">
+        <v>171</v>
+      </c>
       <c r="D103" s="4">
         <v>104</v>
       </c>
@@ -5632,6 +5857,9 @@
       <c r="B104" t="s">
         <v>281</v>
       </c>
+      <c r="C104">
+        <v>169</v>
+      </c>
       <c r="D104" s="4">
         <v>104</v>
       </c>
@@ -5646,6 +5874,9 @@
       <c r="B105" t="s">
         <v>285</v>
       </c>
+      <c r="C105">
+        <v>191</v>
+      </c>
       <c r="D105" s="4" t="s">
         <v>16</v>
       </c>
@@ -5684,6 +5915,9 @@
       <c r="B106" t="s">
         <v>281</v>
       </c>
+      <c r="C106">
+        <v>170</v>
+      </c>
       <c r="D106" s="4">
         <v>105</v>
       </c>
@@ -5768,11 +6002,17 @@
       <c r="B109" t="s">
         <v>281</v>
       </c>
+      <c r="C109">
+        <v>173</v>
+      </c>
       <c r="D109" s="4">
         <v>109</v>
       </c>
       <c r="E109" s="4">
         <v>110</v>
+      </c>
+      <c r="L109" s="4">
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
@@ -5782,6 +6022,9 @@
       <c r="B110" t="s">
         <v>281</v>
       </c>
+      <c r="C110">
+        <v>175</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -6281,7 +6524,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>349</v>
       </c>
@@ -6307,7 +6550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>543</v>
       </c>
@@ -6318,7 +6561,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>544</v>
       </c>
@@ -6338,7 +6581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>545</v>
       </c>
@@ -6355,7 +6598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>546</v>
       </c>
@@ -6367,6 +6610,170 @@
       </c>
       <c r="F133" s="4">
         <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>549</v>
+      </c>
+      <c r="B134" t="s">
+        <v>548</v>
+      </c>
+      <c r="C134">
+        <v>209</v>
+      </c>
+      <c r="D134" s="4">
+        <v>70</v>
+      </c>
+      <c r="E134" s="4">
+        <v>135</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L134" s="4">
+        <v>65</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>551</v>
+      </c>
+      <c r="B135" t="s">
+        <v>550</v>
+      </c>
+      <c r="C135">
+        <v>156</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="4">
+        <v>77</v>
+      </c>
+      <c r="G135" s="4">
+        <v>134</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M135" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>552</v>
+      </c>
+      <c r="B136" t="s">
+        <v>553</v>
+      </c>
+      <c r="C136">
+        <v>159</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L136" s="4">
+        <v>135</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>556</v>
+      </c>
+      <c r="B137" t="s">
+        <v>555</v>
+      </c>
+      <c r="C137">
+        <v>158</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L137" s="4">
+        <v>77</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6855,7 +7262,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D17"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573787B0-C49E-42DB-8E72-2C80220FD38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5C2314-DD11-470D-846D-B2C3891D2C4F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="571">
   <si>
     <t>Long description</t>
   </si>
@@ -1707,6 +1707,42 @@
   </si>
   <si>
     <t>75 (2/3 of time)</t>
+  </si>
+  <si>
+    <t>climb beanstalk -&gt; 138</t>
+  </si>
+  <si>
+    <t>You  are  in a long, narrow corridor stretching out of sight to the west.  At the eastern end is a hole through which you can  see  a  profusion  of leaves</t>
+  </si>
+  <si>
+    <t>You're in narrow corridor.</t>
+  </si>
+  <si>
+    <t>You're in Giant room.</t>
+  </si>
+  <si>
+    <t>You are in the Giant room.  The ceiling here is too high up for your lamp to show it.  Cavernous passages lead east, north, and south.  On the west wall is scrawled the inscription, "Fee Fie Foe Foo" {sic}.</t>
+  </si>
+  <si>
+    <t>You're in low tunnel with irregular ceiling.</t>
+  </si>
+  <si>
+    <t>You're in large room with glassy walls.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  low tunnel with an irregular ceiling.  To the north, the tunnel is partially blocked by a recent cave-in, but you can probably get past the blockage without too much trouble.</t>
+  </si>
+  <si>
+    <t>You're  standing  in a very large room (which however is smaller than the Giant room) which has smooth, glassy-looking walls.  Passages lead  north and south.</t>
+  </si>
+  <si>
+    <t>You are at one end of an immense north/south passage.</t>
+  </si>
+  <si>
+    <t>You're in cavern with waterfall.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  magnificent cavern with a rushing stream, which cascades over a sparkling waterfall into  a  roaring  whirlpool  which  disappears through a hole in the floor.  Passages exit to the south and west.</t>
   </si>
 </sst>
 </file>
@@ -2089,11 +2125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:O137"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M143" sqref="M143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6524,7 +6560,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>349</v>
       </c>
@@ -6550,7 +6586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>543</v>
       </c>
@@ -6561,7 +6597,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>544</v>
       </c>
@@ -6581,7 +6617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>545</v>
       </c>
@@ -6598,7 +6634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>546</v>
       </c>
@@ -6612,7 +6648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>549</v>
       </c>
@@ -6653,7 +6689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>551</v>
       </c>
@@ -6694,7 +6730,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>552</v>
       </c>
@@ -6734,8 +6770,11 @@
       <c r="M136" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N136" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>556</v>
       </c>
@@ -6773,6 +6812,207 @@
         <v>77</v>
       </c>
       <c r="M137" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>561</v>
+      </c>
+      <c r="B138" t="s">
+        <v>560</v>
+      </c>
+      <c r="C138">
+        <v>220</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="4">
+        <v>136</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M138" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>562</v>
+      </c>
+      <c r="B139" t="s">
+        <v>563</v>
+      </c>
+      <c r="C139">
+        <v>222</v>
+      </c>
+      <c r="D139" s="4">
+        <v>142</v>
+      </c>
+      <c r="F139" s="4">
+        <v>140</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>564</v>
+      </c>
+      <c r="B140" t="s">
+        <v>566</v>
+      </c>
+      <c r="C140">
+        <v>322</v>
+      </c>
+      <c r="D140" s="4">
+        <v>141</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>565</v>
+      </c>
+      <c r="B141" t="s">
+        <v>567</v>
+      </c>
+      <c r="C141">
+        <v>323</v>
+      </c>
+      <c r="E141" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>568</v>
+      </c>
+      <c r="B142" t="s">
+        <v>568</v>
+      </c>
+      <c r="C142">
+        <v>223</v>
+      </c>
+      <c r="D142" s="4">
+        <v>143</v>
+      </c>
+      <c r="E142" s="4">
+        <v>141</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M142" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>569</v>
+      </c>
+      <c r="B143" t="s">
+        <v>570</v>
+      </c>
+      <c r="C143">
+        <v>224</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L143" s="4" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5C2314-DD11-470D-846D-B2C3891D2C4F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909F50F-9C54-482E-8636-90C1C1B5E022}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="577">
   <si>
     <t>Long description</t>
   </si>
@@ -1743,6 +1743,24 @@
   </si>
   <si>
     <t>You  are  in  a  magnificent cavern with a rushing stream, which cascades over a sparkling waterfall into  a  roaring  whirlpool  which  disappears through a hole in the floor.  Passages exit to the south and west.</t>
+  </si>
+  <si>
+    <t>144 - you lose everything but the lamp - What, into the whirlpool?!? Yes You  plunge  into  the  water  and are sucked down by the whirlpool.  The current is incredibly strong, and you barely manage  to  hold  onto  your  lamp;  everything  else  is  pulled  from  your  grasp and is lost in the swirling waters. The swirling waters deposit you, fairly gently, on solid ground.</t>
+  </si>
+  <si>
+    <t>67 - hit gong, ride tortoise</t>
+  </si>
+  <si>
+    <t>You're by the rock in the mist.</t>
+  </si>
+  <si>
+    <t>The  mist  is  somewhat  less  dense  here.   It  curls and coils round a rectangular piece of rock covered with  intricate  swirling  designs  cut into the stone by some long dead master. Funny...  some of that pattern looks almost like an inscription…</t>
+  </si>
+  <si>
+    <t>117 80%, 145 20%</t>
+  </si>
+  <si>
+    <t>Read inscription: m...   It's  a  flowing sort of script...  Could be Elvish, I suppose… Now, let's see if I still remember any of it...(Kzan, Oma...  Phret...  eh...  Tres, Oma again...  hum... Noot perhaps?) OK, I think it transliterates as Z O R T O N...   Doesn't  seem  to  make much sense, does it?</t>
   </si>
 </sst>
 </file>
@@ -2125,11 +2143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M143" sqref="M143"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6194,6 +6212,9 @@
       <c r="B115" t="s">
         <v>327</v>
       </c>
+      <c r="C115">
+        <v>397</v>
+      </c>
       <c r="D115" s="4" t="s">
         <v>16</v>
       </c>
@@ -6232,6 +6253,9 @@
       <c r="B116" t="s">
         <v>330</v>
       </c>
+      <c r="C116">
+        <v>396</v>
+      </c>
       <c r="D116" s="4">
         <v>117</v>
       </c>
@@ -6252,6 +6276,15 @@
       </c>
       <c r="J116" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="K116" s="4">
+        <v>117</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
@@ -6261,17 +6294,20 @@
       <c r="B117" t="s">
         <v>331</v>
       </c>
+      <c r="C117">
+        <v>432</v>
+      </c>
       <c r="D117" s="4">
         <v>117</v>
       </c>
       <c r="E117" s="4">
         <v>117</v>
       </c>
-      <c r="F117" s="4">
-        <v>117</v>
-      </c>
-      <c r="G117" s="4">
-        <v>117</v>
+      <c r="F117" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="H117" s="4">
         <v>116</v>
@@ -7014,6 +7050,61 @@
       </c>
       <c r="L143" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C144">
+        <v>240</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>573</v>
+      </c>
+      <c r="B145" t="s">
+        <v>574</v>
+      </c>
+      <c r="C145">
+        <v>434</v>
+      </c>
+      <c r="D145" s="4">
+        <v>117</v>
+      </c>
+      <c r="E145" s="4">
+        <v>117</v>
+      </c>
+      <c r="F145" s="4">
+        <v>117</v>
+      </c>
+      <c r="G145" s="4">
+        <v>117</v>
+      </c>
+      <c r="H145" s="4">
+        <v>117</v>
+      </c>
+      <c r="I145" s="4">
+        <v>117</v>
+      </c>
+      <c r="J145" s="4">
+        <v>117</v>
+      </c>
+      <c r="K145" s="4">
+        <v>117</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N145" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909F50F-9C54-482E-8636-90C1C1B5E022}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F58468A-91F5-4351-A5E6-680A36369702}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="580">
   <si>
     <t>Long description</t>
   </si>
@@ -872,39 +872,18 @@
     <t>You're at the magnificent view.</t>
   </si>
   <si>
-    <t>&lt;rod&gt;</t>
-  </si>
-  <si>
     <t>You are in a maze of twisty little passages, all alike. Exits lead in all directions.</t>
   </si>
   <si>
-    <t>&lt;bird&gt;</t>
-  </si>
-  <si>
-    <t>&lt;cage&gt;</t>
-  </si>
-  <si>
-    <t>&lt;keys&gt;</t>
-  </si>
-  <si>
     <t>Dead end.  The only exit is south.</t>
   </si>
   <si>
-    <t>&lt;bottle&gt;</t>
-  </si>
-  <si>
     <t>Dead end.  The only exit is east.</t>
   </si>
   <si>
     <t>Dead end.  The only exit is west.</t>
   </si>
   <si>
-    <t>&lt;rags&gt;</t>
-  </si>
-  <si>
-    <t>&lt;pillow&gt;</t>
-  </si>
-  <si>
     <t>You are at a wide place in a very tight N/S canyon.</t>
   </si>
   <si>
@@ -1761,6 +1740,36 @@
   </si>
   <si>
     <t>Read inscription: m...   It's  a  flowing sort of script...  Could be Elvish, I suppose… Now, let's see if I still remember any of it...(Kzan, Oma...  Phret...  eh...  Tres, Oma again...  hum... Noot perhaps?) OK, I think it transliterates as Z O R T O N...   Doesn't  seem  to  make much sense, does it?</t>
+  </si>
+  <si>
+    <t>You're at steep incline above large room.</t>
+  </si>
+  <si>
+    <t>You're in the low bare cavern.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  low, long passage that appears to have been made by some subterranian water source.  The passage itself is of bare  rock  polished smooth  by  the  water that apparently flows no longer, for the floor and walls are quite dry.  It heads north, bending out of sight to the  right, and south, where it widens to a small cavern.</t>
+  </si>
+  <si>
+    <t>You're in the low, long passage.</t>
+  </si>
+  <si>
+    <t>You're in the large cavern.</t>
+  </si>
+  <si>
+    <t>Dead end.  The only exit is up.</t>
+  </si>
+  <si>
+    <t>You  are  on  the brink of a thirty foot pit with a massive orange column down one wall.  You could climb down here but you could not get back  up. The maze continues at this level.</t>
+  </si>
+  <si>
+    <t>You're at brink of pit.</t>
+  </si>
+  <si>
+    <t>Dead end.  The only exit is south-east.</t>
+  </si>
+  <si>
+    <t>pirate's chest</t>
   </si>
 </sst>
 </file>
@@ -2143,11 +2152,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:O162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117:XFD117"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2166,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -2204,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C2" s="1">
         <v>136</v>
@@ -2288,7 +2297,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4193,7 +4202,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
@@ -4647,7 +4656,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B67" t="s">
         <v>181</v>
@@ -4656,7 +4665,7 @@
         <v>239</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E67" s="4">
         <v>66</v>
@@ -4793,7 +4802,7 @@
         <v>16</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F71" s="4">
         <v>72</v>
@@ -4805,7 +4814,7 @@
         <v>70</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>16</v>
@@ -4870,11 +4879,44 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>571</v>
+      </c>
       <c r="B74" t="s">
         <v>201</v>
       </c>
+      <c r="C74">
+        <v>429</v>
+      </c>
+      <c r="D74" s="4">
+        <v>147</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G74" s="4">
         <v>72</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
@@ -4884,6 +4926,9 @@
       <c r="B75" t="s">
         <v>204</v>
       </c>
+      <c r="C75">
+        <v>218</v>
+      </c>
       <c r="D75" s="4">
         <v>71</v>
       </c>
@@ -4922,6 +4967,9 @@
       <c r="B76" t="s">
         <v>205</v>
       </c>
+      <c r="C76">
+        <v>483</v>
+      </c>
       <c r="D76" s="4">
         <v>75</v>
       </c>
@@ -4961,7 +5009,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B77" t="s">
         <v>210</v>
@@ -5301,6 +5349,39 @@
       <c r="B87" t="s">
         <v>231</v>
       </c>
+      <c r="C87">
+        <v>181</v>
+      </c>
+      <c r="D87" s="4">
+        <v>87</v>
+      </c>
+      <c r="E87" s="4">
+        <v>87</v>
+      </c>
+      <c r="F87" s="4">
+        <v>87</v>
+      </c>
+      <c r="G87" s="4">
+        <v>87</v>
+      </c>
+      <c r="H87" s="4">
+        <v>87</v>
+      </c>
+      <c r="I87" s="4">
+        <v>87</v>
+      </c>
+      <c r="J87" s="4">
+        <v>87</v>
+      </c>
+      <c r="K87" s="4">
+        <v>87</v>
+      </c>
+      <c r="L87" s="4">
+        <v>103</v>
+      </c>
+      <c r="M87" s="4">
+        <v>103</v>
+      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -5655,7 +5736,7 @@
         <v>376</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>16</v>
@@ -5844,11 +5925,8 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>282</v>
-      </c>
       <c r="B102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C102">
         <v>168</v>
@@ -5880,13 +5958,13 @@
       <c r="L102" s="5">
         <v>86</v>
       </c>
+      <c r="M102" s="4">
+        <v>102</v>
+      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>284</v>
-      </c>
       <c r="B103" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C103">
         <v>171</v>
@@ -5903,13 +5981,28 @@
       <c r="G103" s="4">
         <v>102</v>
       </c>
+      <c r="H103" s="4">
+        <v>103</v>
+      </c>
+      <c r="I103" s="4">
+        <v>103</v>
+      </c>
+      <c r="J103" s="4">
+        <v>103</v>
+      </c>
+      <c r="K103" s="4">
+        <v>103</v>
+      </c>
+      <c r="L103" s="4">
+        <v>87</v>
+      </c>
+      <c r="M103" s="4">
+        <v>87</v>
+      </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>283</v>
-      </c>
       <c r="B104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C104">
         <v>169</v>
@@ -5923,10 +6016,31 @@
       <c r="F104" s="4">
         <v>103</v>
       </c>
+      <c r="G104" s="4">
+        <v>102</v>
+      </c>
+      <c r="H104" s="4">
+        <v>104</v>
+      </c>
+      <c r="I104" s="4">
+        <v>104</v>
+      </c>
+      <c r="J104" s="4">
+        <v>104</v>
+      </c>
+      <c r="K104" s="4">
+        <v>104</v>
+      </c>
+      <c r="L104" s="4">
+        <v>104</v>
+      </c>
+      <c r="M104" s="4">
+        <v>104</v>
+      </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C105">
         <v>191</v>
@@ -5963,11 +6077,8 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
         <v>280</v>
-      </c>
-      <c r="B106" t="s">
-        <v>281</v>
       </c>
       <c r="C106">
         <v>170</v>
@@ -5978,10 +6089,37 @@
       <c r="E106" s="4">
         <v>109</v>
       </c>
+      <c r="F106" s="4">
+        <v>104</v>
+      </c>
+      <c r="G106" s="4">
+        <v>106</v>
+      </c>
+      <c r="H106" s="4">
+        <v>106</v>
+      </c>
+      <c r="I106" s="4">
+        <v>106</v>
+      </c>
+      <c r="J106" s="4">
+        <v>106</v>
+      </c>
+      <c r="K106" s="4">
+        <v>106</v>
+      </c>
+      <c r="L106" s="4">
+        <v>106</v>
+      </c>
+      <c r="M106" s="4">
+        <v>149</v>
+      </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>287</v>
+        <v>282</v>
+      </c>
+      <c r="C107">
+        <v>185</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>16</v>
@@ -6016,7 +6154,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="C108">
+        <v>182</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>16</v>
@@ -6050,11 +6191,8 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>289</v>
-      </c>
       <c r="B109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C109">
         <v>173</v>
@@ -6065,27 +6203,75 @@
       <c r="E109" s="4">
         <v>110</v>
       </c>
+      <c r="F109" s="4">
+        <v>106</v>
+      </c>
+      <c r="G109" s="4">
+        <v>150</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L109" s="4">
         <v>109</v>
       </c>
+      <c r="M109" s="4">
+        <v>151</v>
+      </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>286</v>
-      </c>
       <c r="B110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C110">
         <v>175</v>
       </c>
+      <c r="D110" s="4">
+        <v>153</v>
+      </c>
+      <c r="E110" s="4">
+        <v>110</v>
+      </c>
+      <c r="F110" s="4">
+        <v>151</v>
+      </c>
+      <c r="G110" s="4">
+        <v>109</v>
+      </c>
+      <c r="H110" s="4">
+        <v>110</v>
+      </c>
+      <c r="I110" s="4">
+        <v>110</v>
+      </c>
+      <c r="J110" s="4">
+        <v>110</v>
+      </c>
+      <c r="K110" s="4">
+        <v>110</v>
+      </c>
+      <c r="L110" s="4">
+        <v>152</v>
+      </c>
+      <c r="M110" s="4">
+        <v>159</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>290</v>
-      </c>
       <c r="B111" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="C111">
+        <v>178</v>
       </c>
       <c r="D111" s="4">
         <v>102</v>
@@ -6093,10 +6279,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>284</v>
+      </c>
+      <c r="C112">
+        <v>216</v>
       </c>
       <c r="D112" s="4">
         <v>75</v>
@@ -6131,10 +6320,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B113" t="s">
-        <v>292</v>
+        <v>285</v>
+      </c>
+      <c r="C113">
+        <v>217</v>
       </c>
       <c r="D113" s="4">
         <v>112</v>
@@ -6167,12 +6359,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B114" t="s">
-        <v>293</v>
+        <v>286</v>
+      </c>
+      <c r="C114">
+        <v>219</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>16</v>
@@ -6207,10 +6402,10 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B115" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C115">
         <v>397</v>
@@ -6243,15 +6438,15 @@
         <v>16</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B116" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C116">
         <v>396</v>
@@ -6284,15 +6479,15 @@
         <v>16</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C117">
         <v>432</v>
@@ -6304,10 +6499,10 @@
         <v>117</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="H117" s="4">
         <v>116</v>
@@ -6315,10 +6510,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C118">
         <v>458</v>
@@ -6335,7 +6530,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C119">
         <v>442</v>
@@ -6352,7 +6547,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C120">
         <v>460</v>
@@ -6387,7 +6582,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C121">
         <v>454</v>
@@ -6410,7 +6605,7 @@
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C122">
         <v>449</v>
@@ -6436,7 +6631,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C123">
         <v>447</v>
@@ -6459,7 +6654,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C124">
         <v>459</v>
@@ -6482,7 +6677,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C125">
         <v>444</v>
@@ -6502,7 +6697,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C126">
         <v>443</v>
@@ -6528,7 +6723,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C127">
         <v>448</v>
@@ -6566,7 +6761,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C128">
         <v>446</v>
@@ -6598,7 +6793,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C129">
         <v>445</v>
@@ -6624,7 +6819,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C130">
         <v>456</v>
@@ -6635,7 +6830,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C131">
         <v>451</v>
@@ -6655,7 +6850,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C132">
         <v>452</v>
@@ -6672,7 +6867,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C133">
         <v>453</v>
@@ -6686,10 +6881,10 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B134" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C134">
         <v>209</v>
@@ -6727,10 +6922,10 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B135" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C135">
         <v>156</v>
@@ -6768,10 +6963,10 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B136" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C136">
         <v>159</v>
@@ -6807,15 +7002,15 @@
         <v>16</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B137" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C137">
         <v>158</v>
@@ -6853,10 +7048,10 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B138" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C138">
         <v>220</v>
@@ -6891,10 +7086,10 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B139" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C139">
         <v>222</v>
@@ -6902,6 +7097,9 @@
       <c r="D139" s="4">
         <v>142</v>
       </c>
+      <c r="E139" s="4">
+        <v>138</v>
+      </c>
       <c r="F139" s="4">
         <v>140</v>
       </c>
@@ -6929,10 +7127,10 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B140" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C140">
         <v>322</v>
@@ -6967,10 +7165,10 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B141" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C141">
         <v>323</v>
@@ -6981,10 +7179,10 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B142" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C142">
         <v>223</v>
@@ -7022,10 +7220,10 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B143" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C143">
         <v>224</v>
@@ -7033,9 +7231,15 @@
       <c r="D143" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E143" s="4">
+        <v>142</v>
+      </c>
       <c r="F143" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="G143" s="4">
+        <v>146</v>
+      </c>
       <c r="H143" s="4" t="s">
         <v>16</v>
       </c>
@@ -7052,7 +7256,7 @@
         <v>16</v>
       </c>
       <c r="M143" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
@@ -7060,15 +7264,15 @@
         <v>240</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B145" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C145">
         <v>434</v>
@@ -7104,7 +7308,644 @@
         <v>16</v>
       </c>
       <c r="N145" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>570</v>
+      </c>
+      <c r="C146">
+        <v>221</v>
+      </c>
+      <c r="D146" s="4">
+        <v>143</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>573</v>
+      </c>
+      <c r="B147" t="s">
+        <v>572</v>
+      </c>
+      <c r="C147">
+        <v>430</v>
+      </c>
+      <c r="D147" s="4">
+        <v>148</v>
+      </c>
+      <c r="E147" s="4">
+        <v>74</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M147" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>574</v>
+      </c>
+      <c r="C148">
+        <v>431</v>
+      </c>
+      <c r="D148" s="4">
+        <v>117</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M148" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>575</v>
+      </c>
+      <c r="C149">
+        <v>189</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L149" s="4">
+        <v>106</v>
+      </c>
+      <c r="M149" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>280</v>
+      </c>
+      <c r="C150">
+        <v>172</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" s="4">
+        <v>109</v>
+      </c>
+      <c r="G150" s="4">
+        <v>151</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M150" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>280</v>
+      </c>
+      <c r="C151">
+        <v>174</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" s="4">
+        <v>152</v>
+      </c>
+      <c r="F151" s="4">
+        <v>110</v>
+      </c>
+      <c r="G151" s="4">
+        <v>150</v>
+      </c>
+      <c r="H151" s="4">
+        <v>151</v>
+      </c>
+      <c r="I151" s="4">
+        <v>151</v>
+      </c>
+      <c r="J151" s="4">
+        <v>151</v>
+      </c>
+      <c r="K151" s="4">
+        <v>151</v>
+      </c>
+      <c r="L151" s="4">
+        <v>109</v>
+      </c>
+      <c r="M151" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>280</v>
+      </c>
+      <c r="C152">
+        <v>176</v>
+      </c>
+      <c r="D152" s="4">
+        <v>110</v>
+      </c>
+      <c r="E152" s="4">
+        <v>158</v>
+      </c>
+      <c r="F152" s="4">
+        <v>152</v>
+      </c>
+      <c r="G152" s="4">
+        <v>151</v>
+      </c>
+      <c r="H152" s="4">
+        <v>152</v>
+      </c>
+      <c r="I152" s="4">
+        <v>152</v>
+      </c>
+      <c r="J152" s="4">
+        <v>152</v>
+      </c>
+      <c r="K152" s="4">
+        <v>152</v>
+      </c>
+      <c r="L152" s="4">
+        <v>152</v>
+      </c>
+      <c r="M152" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153">
+        <v>177</v>
+      </c>
+      <c r="D153" s="4">
+        <v>153</v>
+      </c>
+      <c r="E153" s="4">
+        <v>153</v>
+      </c>
+      <c r="F153" s="4">
+        <v>154</v>
+      </c>
+      <c r="G153" s="4">
+        <v>110</v>
+      </c>
+      <c r="H153" s="4">
+        <v>153</v>
+      </c>
+      <c r="I153" s="4">
+        <v>153</v>
+      </c>
+      <c r="J153" s="4">
+        <v>153</v>
+      </c>
+      <c r="K153" s="4">
+        <v>153</v>
+      </c>
+      <c r="L153" s="4">
+        <v>153</v>
+      </c>
+      <c r="M153" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>577</v>
+      </c>
+      <c r="B154" t="s">
         <v>576</v>
+      </c>
+      <c r="C154">
+        <v>193</v>
+      </c>
+      <c r="D154" s="4">
+        <v>155</v>
+      </c>
+      <c r="E154" s="4">
+        <v>156</v>
+      </c>
+      <c r="F154" s="4">
+        <v>157</v>
+      </c>
+      <c r="G154" s="4">
+        <v>153</v>
+      </c>
+      <c r="H154" s="4">
+        <v>154</v>
+      </c>
+      <c r="I154" s="4">
+        <v>154</v>
+      </c>
+      <c r="J154" s="4">
+        <v>154</v>
+      </c>
+      <c r="K154" s="4">
+        <v>154</v>
+      </c>
+      <c r="L154" s="4">
+        <v>154</v>
+      </c>
+      <c r="M154" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>280</v>
+      </c>
+      <c r="C155">
+        <v>179</v>
+      </c>
+      <c r="D155" s="4">
+        <v>155</v>
+      </c>
+      <c r="E155" s="4">
+        <v>154</v>
+      </c>
+      <c r="F155" s="4">
+        <v>157</v>
+      </c>
+      <c r="G155" s="4">
+        <v>161</v>
+      </c>
+      <c r="H155" s="4">
+        <v>155</v>
+      </c>
+      <c r="I155" s="4">
+        <v>155</v>
+      </c>
+      <c r="J155" s="4">
+        <v>155</v>
+      </c>
+      <c r="K155" s="4">
+        <v>155</v>
+      </c>
+      <c r="L155" s="4">
+        <v>155</v>
+      </c>
+      <c r="M155" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>282</v>
+      </c>
+      <c r="C156">
+        <v>186</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="4">
+        <v>154</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M156" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157">
+        <v>180</v>
+      </c>
+      <c r="D157" s="4">
+        <v>154</v>
+      </c>
+      <c r="E157" s="4">
+        <v>157</v>
+      </c>
+      <c r="F157" s="4">
+        <v>157</v>
+      </c>
+      <c r="G157" s="4">
+        <v>155</v>
+      </c>
+      <c r="H157" s="4">
+        <v>157</v>
+      </c>
+      <c r="I157" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>283</v>
+      </c>
+      <c r="C158">
+        <v>183</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="4">
+        <v>152</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M158" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>575</v>
+      </c>
+      <c r="C159">
+        <v>188</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L159" s="4">
+        <v>110</v>
+      </c>
+      <c r="M159" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>575</v>
+      </c>
+      <c r="C160">
+        <v>190</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L160" s="4">
+        <v>153</v>
+      </c>
+      <c r="M160" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>282</v>
+      </c>
+      <c r="C161">
+        <v>187</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" s="4">
+        <v>155</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M161" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>579</v>
+      </c>
+      <c r="B162" t="s">
+        <v>578</v>
+      </c>
+      <c r="C162">
+        <v>192</v>
+      </c>
+      <c r="D162" s="4">
+        <v>162</v>
+      </c>
+      <c r="E162" s="4">
+        <v>162</v>
+      </c>
+      <c r="F162" s="4">
+        <v>162</v>
+      </c>
+      <c r="G162" s="4">
+        <v>162</v>
+      </c>
+      <c r="H162" s="4">
+        <v>162</v>
+      </c>
+      <c r="I162" s="4">
+        <v>162</v>
+      </c>
+      <c r="J162" s="4">
+        <v>157</v>
+      </c>
+      <c r="K162" s="4">
+        <v>162</v>
+      </c>
+      <c r="L162" s="4">
+        <v>162</v>
+      </c>
+      <c r="M162" s="4">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -7573,13 +8414,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -7600,24 +8441,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D2">
         <v>496</v>
@@ -7625,13 +8466,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D3">
         <v>497</v>
@@ -7639,10 +8480,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D4">
         <v>498</v>
@@ -7650,10 +8491,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D5">
         <v>499</v>
@@ -7661,10 +8502,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D6">
         <v>500</v>
@@ -7672,13 +8513,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D7">
         <v>501</v>
@@ -7686,10 +8527,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D8">
         <v>502</v>
@@ -7697,10 +8538,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D9">
         <v>503</v>
@@ -7708,7 +8549,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -7719,10 +8560,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D11">
         <v>505</v>
@@ -7730,10 +8571,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D12">
         <v>506</v>
@@ -7741,10 +8582,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D13">
         <v>507</v>
@@ -7752,10 +8593,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D14">
         <v>508</v>
@@ -7763,10 +8604,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D15">
         <v>509</v>
@@ -7774,10 +8615,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D16">
         <v>510</v>
@@ -7785,10 +8626,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D17">
         <v>511</v>
@@ -7815,7 +8656,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B1">
         <v>489</v>
@@ -7823,7 +8664,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B2">
         <v>490</v>
@@ -7831,7 +8672,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B3">
         <v>491</v>
@@ -7839,7 +8680,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B4">
         <v>493</v>
@@ -7847,51 +8688,51 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B5">
         <v>526</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B6">
         <v>527</v>
       </c>
       <c r="C6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B7">
         <v>528</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B8">
         <v>530</v>
       </c>
       <c r="C8" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B9">
         <v>531</v>
@@ -7899,7 +8740,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B10">
         <v>532</v>
@@ -7907,40 +8748,40 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B11">
         <v>534</v>
       </c>
       <c r="C11" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B12">
         <v>535</v>
       </c>
       <c r="C12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B13">
         <v>536</v>
       </c>
       <c r="C13" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B14">
         <v>538</v>
@@ -7948,7 +8789,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B15">
         <v>539</v>
@@ -7956,7 +8797,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B16">
         <v>540</v>
@@ -7964,7 +8805,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B17">
         <v>541</v>
@@ -7972,7 +8813,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B18">
         <v>542</v>
@@ -7980,7 +8821,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B19">
         <v>544</v>
@@ -7988,51 +8829,51 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B20">
         <v>545</v>
       </c>
       <c r="C20" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B21">
         <v>546</v>
       </c>
       <c r="C21" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B22">
         <v>547</v>
       </c>
       <c r="C22" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B23">
         <v>548</v>
       </c>
       <c r="C23" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B24">
         <v>549</v>
@@ -8040,7 +8881,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B25">
         <v>550</v>
@@ -8048,7 +8889,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B26">
         <v>552</v>
@@ -8056,7 +8897,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B27">
         <v>553</v>
@@ -8064,7 +8905,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B28">
         <v>554</v>
@@ -8072,7 +8913,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B29">
         <v>555</v>
@@ -8080,29 +8921,29 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B30">
         <v>556</v>
       </c>
       <c r="C30" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B31">
         <v>557</v>
       </c>
       <c r="C31" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B32">
         <v>559</v>
@@ -8110,7 +8951,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B33">
         <v>560</v>
@@ -8118,7 +8959,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B34">
         <v>561</v>
@@ -8126,7 +8967,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B35">
         <v>562</v>
@@ -8134,7 +8975,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B36">
         <v>563</v>
@@ -8142,7 +8983,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B37">
         <v>564</v>
@@ -8150,7 +8991,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B38">
         <v>565</v>
@@ -8158,29 +8999,29 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B39">
         <v>571</v>
       </c>
       <c r="C39" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B40">
         <v>572</v>
       </c>
       <c r="C40" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B41">
         <v>573</v>
@@ -8188,7 +9029,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B42">
         <v>574</v>
@@ -8196,7 +9037,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B43">
         <v>575</v>
@@ -8204,7 +9045,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B44">
         <v>576</v>
@@ -8212,7 +9053,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B45">
         <v>577</v>
@@ -8220,18 +9061,18 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B46">
         <v>580</v>
       </c>
       <c r="C46" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B47">
         <v>582</v>
@@ -8239,7 +9080,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B48">
         <v>585</v>
@@ -8247,7 +9088,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B49">
         <v>592</v>
@@ -8255,29 +9096,29 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B50">
         <v>594</v>
       </c>
       <c r="C50" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B51">
         <v>595</v>
       </c>
       <c r="C51" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B52">
         <v>597</v>
@@ -8285,7 +9126,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B53">
         <v>598</v>
@@ -8293,7 +9134,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B54">
         <v>599</v>
@@ -8301,7 +9142,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B55">
         <v>600</v>
@@ -8309,7 +9150,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B56">
         <v>603</v>
@@ -8317,7 +9158,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B57">
         <v>604</v>
@@ -8325,7 +9166,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B58">
         <v>610</v>
@@ -8333,42 +9174,42 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -8391,7 +9232,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -8399,7 +9240,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -8407,7 +9248,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -8415,7 +9256,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -8423,7 +9264,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -8431,7 +9272,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -8439,7 +9280,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -8447,7 +9288,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -8455,7 +9296,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -8463,7 +9304,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -8471,7 +9312,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -8479,7 +9320,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -8487,7 +9328,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -8495,7 +9336,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -8503,7 +9344,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B15">
         <v>24</v>
@@ -8511,7 +9352,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B16">
         <v>25</v>
@@ -8519,7 +9360,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B17">
         <v>26</v>
@@ -8527,7 +9368,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B18">
         <v>27</v>
@@ -8535,7 +9376,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B19">
         <v>28</v>
@@ -8543,7 +9384,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -8551,7 +9392,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B21">
         <v>33</v>
@@ -8559,7 +9400,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B22">
         <v>34</v>
@@ -8567,7 +9408,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -8575,7 +9416,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B24">
         <v>36</v>
@@ -8583,7 +9424,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B25">
         <v>37</v>
@@ -8591,7 +9432,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B26">
         <v>38</v>
@@ -8599,7 +9440,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B27">
         <v>39</v>
@@ -8607,7 +9448,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B28">
         <v>41</v>
@@ -8615,7 +9456,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B29">
         <v>42</v>
@@ -8623,7 +9464,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B30">
         <v>43</v>
@@ -8631,7 +9472,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B31">
         <v>44</v>
@@ -8639,7 +9480,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B32">
         <v>45</v>
@@ -8647,7 +9488,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B33">
         <v>46</v>
@@ -8655,7 +9496,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B34">
         <v>47</v>
@@ -8663,7 +9504,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B35">
         <v>48</v>
@@ -8671,7 +9512,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -8679,7 +9520,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B37">
         <v>50</v>
@@ -8687,7 +9528,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B38">
         <v>51</v>
@@ -8695,7 +9536,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B39">
         <v>52</v>
@@ -8703,7 +9544,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B40">
         <v>53</v>
@@ -8711,7 +9552,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B41">
         <v>54</v>
@@ -8719,7 +9560,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B42">
         <v>55</v>
@@ -8727,7 +9568,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B43">
         <v>56</v>
@@ -8735,7 +9576,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B44">
         <v>57</v>
@@ -8743,7 +9584,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B45">
         <v>58</v>
@@ -8751,7 +9592,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B46">
         <v>59</v>
@@ -8759,7 +9600,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B47">
         <v>60</v>
@@ -8767,7 +9608,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B48">
         <v>61</v>
@@ -8775,7 +9616,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B49">
         <v>62</v>
@@ -8783,7 +9624,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B50">
         <v>63</v>
@@ -8791,7 +9632,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B51">
         <v>64</v>
@@ -8799,7 +9640,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B52">
         <v>65</v>
@@ -8807,7 +9648,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B53">
         <v>66</v>
@@ -8815,7 +9656,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B54">
         <v>67</v>
@@ -8823,7 +9664,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B55">
         <v>68</v>
@@ -8831,7 +9672,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B56">
         <v>70</v>
@@ -8839,7 +9680,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B57">
         <v>71</v>
@@ -8847,7 +9688,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B58">
         <v>72</v>
@@ -8855,7 +9696,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B59">
         <v>73</v>
@@ -8863,7 +9704,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B60">
         <v>75</v>
@@ -8871,7 +9712,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B61">
         <v>76</v>
@@ -8879,7 +9720,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B62">
         <v>77</v>
@@ -8887,7 +9728,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B63">
         <v>78</v>
@@ -8895,7 +9736,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B64">
         <v>80</v>
@@ -8903,7 +9744,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B65">
         <v>81</v>
@@ -8911,7 +9752,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B66">
         <v>82</v>
@@ -8919,7 +9760,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B67">
         <v>83</v>
@@ -8927,7 +9768,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B68">
         <v>84</v>
@@ -8935,7 +9776,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B69">
         <v>85</v>
@@ -8943,7 +9784,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B70">
         <v>86</v>
@@ -8951,7 +9792,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B71">
         <v>87</v>
@@ -8959,7 +9800,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B72">
         <v>88</v>
@@ -8967,7 +9808,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B73">
         <v>89</v>
@@ -8975,7 +9816,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B74">
         <v>90</v>
@@ -8983,7 +9824,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B75">
         <v>91</v>
@@ -8991,7 +9832,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B76">
         <v>92</v>
@@ -8999,7 +9840,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B77">
         <v>93</v>
@@ -9007,7 +9848,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B78">
         <v>94</v>
@@ -9015,7 +9856,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B79">
         <v>95</v>
@@ -9023,7 +9864,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B80">
         <v>97</v>
@@ -9031,7 +9872,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B81">
         <v>98</v>
@@ -9039,7 +9880,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B82">
         <v>99</v>
@@ -9047,7 +9888,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B83">
         <v>100</v>
@@ -9055,7 +9896,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B84">
         <v>101</v>
@@ -9063,7 +9904,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B85">
         <v>102</v>
@@ -9071,7 +9912,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B86">
         <v>103</v>
@@ -9079,7 +9920,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B87">
         <v>105</v>
@@ -9087,7 +9928,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B88">
         <v>106</v>
@@ -9095,7 +9936,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B89">
         <v>108</v>
@@ -9103,7 +9944,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B90">
         <v>110</v>
@@ -9111,7 +9952,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B91">
         <v>111</v>
@@ -9119,7 +9960,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B92">
         <v>112</v>
@@ -9127,7 +9968,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B93">
         <v>113</v>
@@ -9135,7 +9976,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B94">
         <v>114</v>
@@ -9143,7 +9984,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B95">
         <v>115</v>
@@ -9151,7 +9992,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B96">
         <v>116</v>
@@ -9159,7 +10000,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B97">
         <v>117</v>
@@ -9167,7 +10008,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B98">
         <v>118</v>
@@ -9175,7 +10016,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B99">
         <v>119</v>
@@ -9183,7 +10024,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B100">
         <v>120</v>
@@ -9191,7 +10032,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B101">
         <v>121</v>
@@ -9199,7 +10040,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B102">
         <v>122</v>
@@ -9207,7 +10048,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B103">
         <v>123</v>
@@ -9215,7 +10056,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B104">
         <v>124</v>
@@ -9223,7 +10064,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B105">
         <v>134</v>
@@ -9231,7 +10072,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B106">
         <v>135</v>
@@ -9239,7 +10080,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B107">
         <v>584</v>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F58468A-91F5-4351-A5E6-680A36369702}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A99E5-FE7E-45D1-8B90-DF84696E3890}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="10790" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="587">
   <si>
     <t>Long description</t>
   </si>
@@ -1022,9 +1022,6 @@
     <t>You  are  standing  at  the  end of a road before a small brick building. Around you is a forest.  A small stream flows out  of  the  building  and down a gully and a wide path leads northwest.</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>You are in an open forest north of the building.</t>
   </si>
   <si>
@@ -1770,6 +1767,30 @@
   </si>
   <si>
     <t>pirate's chest</t>
+  </si>
+  <si>
+    <t>You are in a cul-de-sac about eight feet across.</t>
+  </si>
+  <si>
+    <t>You're in anteroom.</t>
+  </si>
+  <si>
+    <t>You're in the chapel.</t>
+  </si>
+  <si>
+    <t>You are in a magnificently ornate room that looks like a place of worship for  some  old and mysterious religion.  There are exits to the north and west and a spiral staircase leading both up and  down.   The  ceiling  of this  chapel  seems to be made of large wooden beams. Hanging from one of these beams is a thick rope.</t>
+  </si>
+  <si>
+    <t>You're in the side chamber of the chapel.</t>
+  </si>
+  <si>
+    <t>You  are in a side chamber of the chapel.  The ceiling, rough rock though it is, arches high above you with a  vague  suggestion  of  the  arrogant gothic  spirituality.   Somehow it feels very peaceful in here.  The only exit leads east, back into the chapel.</t>
+  </si>
+  <si>
+    <t>You're in the crypt.</t>
+  </si>
+  <si>
+    <t>You  are  in  a crypt.  All around you are the tombs of people long dead. The dust on the vaults would seem to indicate that the  place  is  rarely used.   High  above  you  massive  cobwebs almost cover the ceiling.  The spiral staircase leading up is the only exit.  Brrr!  It is  *cold*  down here!</t>
   </si>
 </sst>
 </file>
@@ -2152,11 +2173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:O162"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2297,7 +2318,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3316,6 +3337,9 @@
       <c r="B32" t="s">
         <v>84</v>
       </c>
+      <c r="C32">
+        <v>233</v>
+      </c>
       <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
@@ -3342,6 +3366,9 @@
       </c>
       <c r="L32" s="4">
         <v>29</v>
+      </c>
+      <c r="M32" s="4">
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -4202,7 +4229,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
@@ -4737,8 +4764,17 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>580</v>
+      </c>
       <c r="B69" t="s">
         <v>193</v>
+      </c>
+      <c r="C69">
+        <v>235</v>
+      </c>
+      <c r="E69" s="4">
+        <v>164</v>
       </c>
       <c r="G69" s="4">
         <v>70</v>
@@ -4802,7 +4838,7 @@
         <v>16</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F71" s="4">
         <v>72</v>
@@ -4814,7 +4850,7 @@
         <v>70</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>16</v>
@@ -4880,7 +4916,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B74" t="s">
         <v>201</v>
@@ -5009,7 +5045,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B77" t="s">
         <v>210</v>
@@ -5567,7 +5603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -5656,6 +5692,9 @@
       <c r="B95" t="s">
         <v>254</v>
       </c>
+      <c r="C95">
+        <v>373</v>
+      </c>
       <c r="D95" s="4" t="s">
         <v>16</v>
       </c>
@@ -5694,6 +5733,9 @@
       <c r="B96" t="s">
         <v>256</v>
       </c>
+      <c r="C96">
+        <v>374</v>
+      </c>
       <c r="D96" s="4">
         <v>95</v>
       </c>
@@ -5736,7 +5778,7 @@
         <v>376</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>16</v>
@@ -6499,10 +6541,10 @@
         <v>117</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H117" s="4">
         <v>116</v>
@@ -6510,10 +6552,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C118">
         <v>458</v>
@@ -6530,7 +6572,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C119">
         <v>442</v>
@@ -6547,7 +6589,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C120">
         <v>460</v>
@@ -6582,7 +6624,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C121">
         <v>454</v>
@@ -6605,7 +6647,7 @@
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C122">
         <v>449</v>
@@ -6631,7 +6673,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C123">
         <v>447</v>
@@ -6654,7 +6696,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C124">
         <v>459</v>
@@ -6677,7 +6719,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C125">
         <v>444</v>
@@ -6697,7 +6739,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C126">
         <v>443</v>
@@ -6723,7 +6765,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C127">
         <v>448</v>
@@ -6761,7 +6803,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C128">
         <v>446</v>
@@ -6793,7 +6835,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C129">
         <v>445</v>
@@ -6819,7 +6861,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C130">
         <v>456</v>
@@ -6830,7 +6872,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C131">
         <v>451</v>
@@ -6850,7 +6892,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C132">
         <v>452</v>
@@ -6867,7 +6909,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C133">
         <v>453</v>
@@ -6881,10 +6923,10 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B134" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C134">
         <v>209</v>
@@ -6922,10 +6964,10 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B135" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C135">
         <v>156</v>
@@ -6963,10 +7005,10 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>544</v>
+      </c>
+      <c r="B136" t="s">
         <v>545</v>
-      </c>
-      <c r="B136" t="s">
-        <v>546</v>
       </c>
       <c r="C136">
         <v>159</v>
@@ -7002,15 +7044,15 @@
         <v>16</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B137" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C137">
         <v>158</v>
@@ -7048,10 +7090,10 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B138" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C138">
         <v>220</v>
@@ -7086,10 +7128,10 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>554</v>
+      </c>
+      <c r="B139" t="s">
         <v>555</v>
-      </c>
-      <c r="B139" t="s">
-        <v>556</v>
       </c>
       <c r="C139">
         <v>222</v>
@@ -7127,10 +7169,10 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B140" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C140">
         <v>322</v>
@@ -7165,10 +7207,10 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B141" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C141">
         <v>323</v>
@@ -7179,10 +7221,10 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B142" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C142">
         <v>223</v>
@@ -7220,10 +7262,10 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>561</v>
+      </c>
+      <c r="B143" t="s">
         <v>562</v>
-      </c>
-      <c r="B143" t="s">
-        <v>563</v>
       </c>
       <c r="C143">
         <v>224</v>
@@ -7256,7 +7298,7 @@
         <v>16</v>
       </c>
       <c r="M143" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
@@ -7264,15 +7306,15 @@
         <v>240</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>565</v>
+      </c>
+      <c r="B145" t="s">
         <v>566</v>
-      </c>
-      <c r="B145" t="s">
-        <v>567</v>
       </c>
       <c r="C145">
         <v>434</v>
@@ -7308,12 +7350,12 @@
         <v>16</v>
       </c>
       <c r="N145" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C146">
         <v>221</v>
@@ -7348,10 +7390,10 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B147" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C147">
         <v>430</v>
@@ -7389,7 +7431,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C148">
         <v>431</v>
@@ -7424,7 +7466,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C149">
         <v>189</v>
@@ -7614,10 +7656,10 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B154" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C154">
         <v>193</v>
@@ -7795,7 +7837,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C159">
         <v>188</v>
@@ -7833,7 +7875,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C160">
         <v>190</v>
@@ -7909,10 +7951,10 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C162">
         <v>192</v>
@@ -7946,6 +7988,140 @@
       </c>
       <c r="M162" s="4">
         <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>579</v>
+      </c>
+      <c r="B163" t="s">
+        <v>579</v>
+      </c>
+      <c r="C163">
+        <v>234</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L163" s="4">
+        <v>32</v>
+      </c>
+      <c r="M163" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>581</v>
+      </c>
+      <c r="B164" t="s">
+        <v>582</v>
+      </c>
+      <c r="C164">
+        <v>203</v>
+      </c>
+      <c r="D164" s="4">
+        <v>69</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="4">
+        <v>165</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>583</v>
+      </c>
+      <c r="B165" t="s">
+        <v>584</v>
+      </c>
+      <c r="C165">
+        <v>205</v>
+      </c>
+      <c r="F165" s="4">
+        <v>164</v>
+      </c>
+      <c r="M165" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>585</v>
+      </c>
+      <c r="B166" t="s">
+        <v>586</v>
+      </c>
+      <c r="C166">
+        <v>407</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L166" s="4">
+        <v>165</v>
+      </c>
+      <c r="M166" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -8450,7 +8626,7 @@
         <v>293</v>
       </c>
       <c r="D1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -8656,7 +8832,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B1">
         <v>489</v>
@@ -8664,7 +8840,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2">
         <v>490</v>
@@ -8672,7 +8848,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B3">
         <v>491</v>
@@ -8680,7 +8856,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4">
         <v>493</v>
@@ -8688,51 +8864,51 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5">
         <v>526</v>
       </c>
       <c r="C5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B6">
         <v>527</v>
       </c>
       <c r="C6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7">
         <v>528</v>
       </c>
       <c r="C7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B8">
         <v>530</v>
       </c>
       <c r="C8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B9">
         <v>531</v>
@@ -8740,7 +8916,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B10">
         <v>532</v>
@@ -8748,40 +8924,40 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11">
         <v>534</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B12">
         <v>535</v>
       </c>
       <c r="C12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B13">
         <v>536</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B14">
         <v>538</v>
@@ -8789,7 +8965,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B15">
         <v>539</v>
@@ -8797,7 +8973,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B16">
         <v>540</v>
@@ -8805,7 +8981,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B17">
         <v>541</v>
@@ -8813,7 +8989,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B18">
         <v>542</v>
@@ -8821,7 +8997,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B19">
         <v>544</v>
@@ -8829,51 +9005,51 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B20">
         <v>545</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21">
         <v>546</v>
       </c>
       <c r="C21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B22">
         <v>547</v>
       </c>
       <c r="C22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B23">
         <v>548</v>
       </c>
       <c r="C23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B24">
         <v>549</v>
@@ -8881,7 +9057,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B25">
         <v>550</v>
@@ -8889,7 +9065,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B26">
         <v>552</v>
@@ -8897,7 +9073,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B27">
         <v>553</v>
@@ -8905,7 +9081,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B28">
         <v>554</v>
@@ -8913,7 +9089,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B29">
         <v>555</v>
@@ -8921,29 +9097,29 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B30">
         <v>556</v>
       </c>
       <c r="C30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B31">
         <v>557</v>
       </c>
       <c r="C31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B32">
         <v>559</v>
@@ -8951,7 +9127,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B33">
         <v>560</v>
@@ -8959,7 +9135,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B34">
         <v>561</v>
@@ -8967,7 +9143,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B35">
         <v>562</v>
@@ -8975,7 +9151,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B36">
         <v>563</v>
@@ -8983,7 +9159,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B37">
         <v>564</v>
@@ -8991,7 +9167,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B38">
         <v>565</v>
@@ -8999,29 +9175,29 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B39">
         <v>571</v>
       </c>
       <c r="C39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B40">
         <v>572</v>
       </c>
       <c r="C40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B41">
         <v>573</v>
@@ -9029,7 +9205,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B42">
         <v>574</v>
@@ -9037,7 +9213,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B43">
         <v>575</v>
@@ -9045,7 +9221,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B44">
         <v>576</v>
@@ -9053,7 +9229,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B45">
         <v>577</v>
@@ -9061,18 +9237,18 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B46">
         <v>580</v>
       </c>
       <c r="C46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B47">
         <v>582</v>
@@ -9080,7 +9256,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48">
         <v>585</v>
@@ -9088,7 +9264,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B49">
         <v>592</v>
@@ -9096,29 +9272,29 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B50">
         <v>594</v>
       </c>
       <c r="C50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B51">
         <v>595</v>
       </c>
       <c r="C51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B52">
         <v>597</v>
@@ -9126,7 +9302,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B53">
         <v>598</v>
@@ -9134,7 +9310,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B54">
         <v>599</v>
@@ -9142,7 +9318,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B55">
         <v>600</v>
@@ -9150,7 +9326,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B56">
         <v>603</v>
@@ -9158,7 +9334,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B57">
         <v>604</v>
@@ -9166,7 +9342,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B58">
         <v>610</v>
@@ -9174,42 +9350,42 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -9232,7 +9408,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -9240,7 +9416,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -9248,7 +9424,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -9256,7 +9432,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -9264,7 +9440,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -9272,7 +9448,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -9280,7 +9456,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -9288,7 +9464,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -9296,7 +9472,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -9304,7 +9480,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -9312,7 +9488,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -9320,7 +9496,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -9328,7 +9504,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -9336,7 +9512,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -9344,7 +9520,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B15">
         <v>24</v>
@@ -9352,7 +9528,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16">
         <v>25</v>
@@ -9360,7 +9536,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B17">
         <v>26</v>
@@ -9368,7 +9544,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B18">
         <v>27</v>
@@ -9376,7 +9552,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B19">
         <v>28</v>
@@ -9384,7 +9560,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -9392,7 +9568,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B21">
         <v>33</v>
@@ -9400,7 +9576,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B22">
         <v>34</v>
@@ -9408,7 +9584,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -9416,7 +9592,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B24">
         <v>36</v>
@@ -9424,7 +9600,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B25">
         <v>37</v>
@@ -9432,7 +9608,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26">
         <v>38</v>
@@ -9440,7 +9616,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27">
         <v>39</v>
@@ -9448,7 +9624,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B28">
         <v>41</v>
@@ -9456,7 +9632,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B29">
         <v>42</v>
@@ -9464,7 +9640,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B30">
         <v>43</v>
@@ -9472,7 +9648,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B31">
         <v>44</v>
@@ -9480,7 +9656,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B32">
         <v>45</v>
@@ -9488,7 +9664,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B33">
         <v>46</v>
@@ -9496,7 +9672,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B34">
         <v>47</v>
@@ -9504,7 +9680,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B35">
         <v>48</v>
@@ -9512,7 +9688,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -9520,7 +9696,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B37">
         <v>50</v>
@@ -9528,7 +9704,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B38">
         <v>51</v>
@@ -9536,7 +9712,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B39">
         <v>52</v>
@@ -9544,7 +9720,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B40">
         <v>53</v>
@@ -9552,7 +9728,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B41">
         <v>54</v>
@@ -9560,7 +9736,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B42">
         <v>55</v>
@@ -9568,7 +9744,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B43">
         <v>56</v>
@@ -9576,7 +9752,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B44">
         <v>57</v>
@@ -9584,7 +9760,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B45">
         <v>58</v>
@@ -9592,7 +9768,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B46">
         <v>59</v>
@@ -9600,7 +9776,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B47">
         <v>60</v>
@@ -9608,7 +9784,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B48">
         <v>61</v>
@@ -9616,7 +9792,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B49">
         <v>62</v>
@@ -9624,7 +9800,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B50">
         <v>63</v>
@@ -9632,7 +9808,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B51">
         <v>64</v>
@@ -9640,7 +9816,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B52">
         <v>65</v>
@@ -9648,7 +9824,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B53">
         <v>66</v>
@@ -9656,7 +9832,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B54">
         <v>67</v>
@@ -9664,7 +9840,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B55">
         <v>68</v>
@@ -9672,7 +9848,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B56">
         <v>70</v>
@@ -9680,7 +9856,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B57">
         <v>71</v>
@@ -9688,7 +9864,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B58">
         <v>72</v>
@@ -9696,7 +9872,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B59">
         <v>73</v>
@@ -9704,7 +9880,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B60">
         <v>75</v>
@@ -9712,7 +9888,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B61">
         <v>76</v>
@@ -9720,7 +9896,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B62">
         <v>77</v>
@@ -9728,7 +9904,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B63">
         <v>78</v>
@@ -9736,7 +9912,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B64">
         <v>80</v>
@@ -9744,7 +9920,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B65">
         <v>81</v>
@@ -9752,7 +9928,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B66">
         <v>82</v>
@@ -9760,7 +9936,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B67">
         <v>83</v>
@@ -9768,7 +9944,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B68">
         <v>84</v>
@@ -9776,7 +9952,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B69">
         <v>85</v>
@@ -9784,7 +9960,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B70">
         <v>86</v>
@@ -9792,7 +9968,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B71">
         <v>87</v>
@@ -9800,7 +9976,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B72">
         <v>88</v>
@@ -9808,7 +9984,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B73">
         <v>89</v>
@@ -9816,7 +9992,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B74">
         <v>90</v>
@@ -9824,7 +10000,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B75">
         <v>91</v>
@@ -9832,7 +10008,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B76">
         <v>92</v>
@@ -9840,7 +10016,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B77">
         <v>93</v>
@@ -9848,7 +10024,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B78">
         <v>94</v>
@@ -9856,7 +10032,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B79">
         <v>95</v>
@@ -9864,7 +10040,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B80">
         <v>97</v>
@@ -9872,7 +10048,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B81">
         <v>98</v>
@@ -9880,7 +10056,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B82">
         <v>99</v>
@@ -9888,7 +10064,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B83">
         <v>100</v>
@@ -9896,7 +10072,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B84">
         <v>101</v>
@@ -9904,7 +10080,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B85">
         <v>102</v>
@@ -9912,7 +10088,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B86">
         <v>103</v>
@@ -9920,7 +10096,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B87">
         <v>105</v>
@@ -9928,7 +10104,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B88">
         <v>106</v>
@@ -9936,7 +10112,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B89">
         <v>108</v>
@@ -9944,7 +10120,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B90">
         <v>110</v>
@@ -9952,7 +10128,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B91">
         <v>111</v>
@@ -9960,7 +10136,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B92">
         <v>112</v>
@@ -9968,7 +10144,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B93">
         <v>113</v>
@@ -9976,7 +10152,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B94">
         <v>114</v>
@@ -9984,7 +10160,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B95">
         <v>115</v>
@@ -9992,7 +10168,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B96">
         <v>116</v>
@@ -10000,7 +10176,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B97">
         <v>117</v>
@@ -10008,7 +10184,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B98">
         <v>118</v>
@@ -10016,7 +10192,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B99">
         <v>119</v>
@@ -10024,7 +10200,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B100">
         <v>120</v>
@@ -10032,7 +10208,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B101">
         <v>121</v>
@@ -10040,7 +10216,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B102">
         <v>122</v>
@@ -10048,7 +10224,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B103">
         <v>123</v>
@@ -10056,7 +10232,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B104">
         <v>124</v>
@@ -10064,7 +10240,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B105">
         <v>134</v>
@@ -10072,7 +10248,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B106">
         <v>135</v>
@@ -10080,7 +10256,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B107">
         <v>584</v>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A99E5-FE7E-45D1-8B90-DF84696E3890}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E5A04-70C0-44DD-9358-368BAEF015E0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="615">
   <si>
     <t>Long description</t>
   </si>
@@ -1791,6 +1791,90 @@
   </si>
   <si>
     <t>You  are  in  a crypt.  All around you are the tombs of people long dead. The dust on the vaults would seem to indicate that the  place  is  rarely used.   High  above  you  massive  cobwebs almost cover the ceiling.  The spiral staircase leading up is the only exit.  Brrr!  It is  *cold*  down here!</t>
+  </si>
+  <si>
+    <t>You're in the chamber above the chapel.</t>
+  </si>
+  <si>
+    <t>You  are  in  the  chamber  above  the  entrance to the chapel.  A spiral staircase leads down, openings lead to the north and west and  an  arched door  leads  south.   A rough red drawing of a fish can be seen above the door.</t>
+  </si>
+  <si>
+    <t>You're at the south end of the long low attic.</t>
+  </si>
+  <si>
+    <t>You are at the south end of a long low attic.</t>
+  </si>
+  <si>
+    <t>You're at the north end of the long low attic.</t>
+  </si>
+  <si>
+    <t>You  are at the north and of a long low attic.  A passage leads on to the north.</t>
+  </si>
+  <si>
+    <t>This must be a thieves den!  There is a large shelf on one wall, labelled 'SWAG'.  A black mask is hanging out of reach above the shelf.</t>
+  </si>
+  <si>
+    <t>You're in the thieves den.</t>
+  </si>
+  <si>
+    <t>You're in the pantry.</t>
+  </si>
+  <si>
+    <t>You are in a room which shows signs of having been used as a pantry.  The dust  on  the  shelves would seem to indicate that it has had little use. The walls are damp and there is a stream of water running down the  walls in  one  corner.  Passages lead to the east, northeast and west.  From an archway to the north, stone steps lead down.</t>
+  </si>
+  <si>
+    <t>You're in the living quarters.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  chamber which is obviously some sort of living quarters.  The room is lit, although you cannot determine how.  At the far end is  a very large solidly built couch.</t>
+  </si>
+  <si>
+    <t>You're in the dungeon.</t>
+  </si>
+  <si>
+    <t>You  are  in a dungeon.  The walls and ceiling appear to be made of solid rock and the floor is made up of tightly fitting flagstones.  High on the walls are some stanchions for chains, but the chains  are  no  longer  in place.   The only sound, apart from your own breathing, is the occasional plop of water as it drips from the ceiling.  The atmosphere is  dank  and clammy and there is an unusual smell in the air.  A passage leads back to the south.</t>
+  </si>
+  <si>
+    <t>lift flagstone -&gt; 174</t>
+  </si>
+  <si>
+    <t>You are in a winding earthen passage which slopes down to the south.  The lower end of the passage becomes narrower and damp.</t>
+  </si>
+  <si>
+    <t>You're in the earthen passage.</t>
+  </si>
+  <si>
+    <t>You're in the disused well.</t>
+  </si>
+  <si>
+    <t>You  are  in a small circular chamber which appears to be a disused well. Looking up, you can  see  that  the  walls  of  the  well  are  damp  and crumbling,  but should be reasonably easy to climb.  However, there is no indication of an opening at the top of  the  well.   An  earthen  passage leads up and to the north.</t>
+  </si>
+  <si>
+    <t>climb -&gt; 8</t>
+  </si>
+  <si>
+    <t>You  are  in  a  tangled  web of intersecting passages.  Exits are north, east, west, up and down.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  tangled  web of intersecting passages.  Exits are north, east, south, west, up and down.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  tangled  web of intersecting passages.  Exits are north,east, south, west, up and down.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  tangled  web of intersecting passages.  Exits are north, east, west and up.</t>
+  </si>
+  <si>
+    <t>Spider / web / documents</t>
+  </si>
+  <si>
+    <t>181 - must kill spider &amp; cut web</t>
+  </si>
+  <si>
+    <t>You're in dank cave.</t>
+  </si>
+  <si>
+    <t>You are in a small dank cave.  The stale air smells of mould and the only exit leads north.</t>
   </si>
 </sst>
 </file>
@@ -2173,11 +2257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:O166"/>
+  <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7911,7 +7995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>282</v>
       </c>
@@ -7949,7 +8033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>578</v>
       </c>
@@ -7990,7 +8074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>579</v>
       </c>
@@ -8031,7 +8115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>581</v>
       </c>
@@ -8065,8 +8149,14 @@
       <c r="K164" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L164" s="4">
+        <v>167</v>
+      </c>
+      <c r="M164" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>583</v>
       </c>
@@ -8079,11 +8169,8 @@
       <c r="F165" s="4">
         <v>164</v>
       </c>
-      <c r="M165" s="4">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>585</v>
       </c>
@@ -8121,6 +8208,540 @@
         <v>165</v>
       </c>
       <c r="M166" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>587</v>
+      </c>
+      <c r="B167" t="s">
+        <v>588</v>
+      </c>
+      <c r="C167">
+        <v>408</v>
+      </c>
+      <c r="D167" s="4">
+        <v>168</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="4">
+        <v>171</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L167" s="4">
+        <v>164</v>
+      </c>
+      <c r="M167" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>589</v>
+      </c>
+      <c r="B168" t="s">
+        <v>590</v>
+      </c>
+      <c r="C168">
+        <v>409</v>
+      </c>
+      <c r="D168" s="4">
+        <v>169</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K168" s="4">
+        <v>171</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M168" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>591</v>
+      </c>
+      <c r="B169" t="s">
+        <v>592</v>
+      </c>
+      <c r="C169">
+        <v>410</v>
+      </c>
+      <c r="D169" s="4">
+        <v>170</v>
+      </c>
+      <c r="E169" s="4">
+        <v>168</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M169" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>594</v>
+      </c>
+      <c r="B170" t="s">
+        <v>593</v>
+      </c>
+      <c r="C170">
+        <v>411</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" s="4">
+        <v>169</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M170" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>595</v>
+      </c>
+      <c r="B171" t="s">
+        <v>596</v>
+      </c>
+      <c r="C171">
+        <v>412</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" s="4">
+        <v>167</v>
+      </c>
+      <c r="G171" s="4">
+        <v>172</v>
+      </c>
+      <c r="H171" s="4">
+        <v>168</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L171" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>597</v>
+      </c>
+      <c r="B172" t="s">
+        <v>598</v>
+      </c>
+      <c r="C172">
+        <v>383</v>
+      </c>
+      <c r="D172" s="4">
+        <v>173</v>
+      </c>
+      <c r="E172" s="4">
+        <v>175</v>
+      </c>
+      <c r="F172" s="4">
+        <v>171</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L172" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>599</v>
+      </c>
+      <c r="B173" t="s">
+        <v>600</v>
+      </c>
+      <c r="C173">
+        <v>384</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="4">
+        <v>172</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N173" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>603</v>
+      </c>
+      <c r="B174" t="s">
+        <v>602</v>
+      </c>
+      <c r="C174">
+        <v>405</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="4">
+        <v>175</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L174" s="4">
+        <v>173</v>
+      </c>
+      <c r="M174" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>604</v>
+      </c>
+      <c r="B175" t="s">
+        <v>605</v>
+      </c>
+      <c r="C175">
+        <v>406</v>
+      </c>
+      <c r="D175" s="4">
+        <v>174</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L175" s="4">
+        <v>174</v>
+      </c>
+      <c r="M175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N175" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>607</v>
+      </c>
+      <c r="C176">
+        <v>385</v>
+      </c>
+      <c r="D176" s="4">
+        <v>172</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" s="4">
+        <v>177</v>
+      </c>
+      <c r="G176" s="4">
+        <v>178</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>608</v>
+      </c>
+      <c r="C177">
+        <v>386</v>
+      </c>
+      <c r="D177" s="4">
+        <v>176</v>
+      </c>
+      <c r="G177" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B178" t="s">
+        <v>609</v>
+      </c>
+      <c r="C178">
+        <v>389</v>
+      </c>
+      <c r="D178" s="4">
+        <v>179</v>
+      </c>
+      <c r="E178" s="4">
+        <v>180</v>
+      </c>
+      <c r="F178" s="4">
+        <v>176</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
+        <v>608</v>
+      </c>
+      <c r="C179">
+        <v>390</v>
+      </c>
+      <c r="D179" s="4">
+        <v>178</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>611</v>
+      </c>
+      <c r="B180" t="s">
+        <v>610</v>
+      </c>
+      <c r="C180">
+        <v>388</v>
+      </c>
+      <c r="D180" s="4">
+        <v>177</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M180" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>613</v>
+      </c>
+      <c r="B181" t="s">
+        <v>614</v>
+      </c>
+      <c r="C181">
+        <v>433</v>
+      </c>
+      <c r="D181" s="4">
+        <v>180</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M181" s="4" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E5A04-70C0-44DD-9358-368BAEF015E0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7F42A3-D615-44E3-9D88-56CF5DC2E27D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9848" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="640">
   <si>
     <t>Long description</t>
   </si>
@@ -1679,9 +1679,6 @@
     <t>You're in east pit.  There is a small pool of oil here.</t>
   </si>
   <si>
-    <t>78 (2/3 of time)</t>
-  </si>
-  <si>
     <t>75 (2/3 of time)</t>
   </si>
   <si>
@@ -1875,6 +1872,84 @@
   </si>
   <si>
     <t>You are in a small dank cave.  The stale air smells of mould and the only exit leads north.</t>
+  </si>
+  <si>
+    <t>You're in alcove.</t>
+  </si>
+  <si>
+    <t>You are at the northern end of a large underground reservoir.  Across the water  to  the  south,  a dark passage is visible.  Another passage leads north from here.  Large, clawed tracks are visible in  the  damp  ground, leading from the passage into the water.</t>
+  </si>
+  <si>
+    <t>You are at the northern end of the reservoir.</t>
+  </si>
+  <si>
+    <t>You are in a small chamber with warm walls.  Mist drifts into the chamber from  a  passage  entering  from  the  south  and evaporates in the heat. Another passage leads out to the northeast.</t>
+  </si>
+  <si>
+    <t>You're in small, warm chamber.</t>
+  </si>
+  <si>
+    <t>You  are  in a high balcony carved out of solid rock overlooking a large, bare chamber lit by dozens of flickering torches.  A rushing stream pours into the chamber through a five-foot gap in the east wall and drains into a large pool along the north side of the chamber.  A small plaque riveted to the edge of the balcony reads, "You are looking at the Witt Company's main treasure room, constructed by the famous architect Ralph Witt  in  4004  B.C.,  and  dedicated  to  the proposition  that  all  adventurers  are created equal (although some are more equal than others).  NO ADMITTANCE VIA THIS ENTRANCE!" A small, dark tunnel leads out to the west.</t>
+  </si>
+  <si>
+    <t>You're on balcony above treasure chamber.</t>
+  </si>
+  <si>
+    <t>117 67%, 148 33%</t>
+  </si>
+  <si>
+    <t>You're at the curtain entrance.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  room  which  appears  to  be a basement for a very large building.  Stone steps lead upward.  Above an opening to the south  hangs a  slab  of  rock precisely balanced by counterweights suspended from the ceiling.  By the opening there is a notice carved in the rock, saying "WIZARDS ONLY, KEEP OUT".</t>
+  </si>
+  <si>
+    <t>You're in the basement.</t>
+  </si>
+  <si>
+    <t>You're in the cellar.</t>
+  </si>
+  <si>
+    <t>You are in a round cellar made completely of brick.  In the center of the floor  is a small circular drain, towards which the floor slopes.  Set in the south wall is a portcullis which is so rusty it  clearly  will  never move  again.   Through  the  portcullis  a  small  chamber  with a spiral staircase can be seen.  An entrance leads north but it is  blocked  by  a large stone slab.</t>
+  </si>
+  <si>
+    <t>drop anything, then: The  bottle  resides momentarily on the sloping surface, then slides down the drain and disappears.  Through the portcullis steps a tall wizard clothed in gray.  "BE OFF!" he commands    raising  an  arm.  As the scene fades, you can hear his distant voice adding "...DAMNED AMATEUR!..." -&gt; 168 (102) (all alike maze, up to exit)</t>
+  </si>
+  <si>
+    <t>You're in the Sorcerer's Lair.</t>
+  </si>
+  <si>
+    <t>This  is  the  Sorcerer's  Lair.  The walls are covered with exotic runes written in strange, indecipherable  scripts;  the  only  readable  phrase reads  "noside  samoht".   Strange  shadows  flit about on the walls, but there is nothing visible to cast them.  Iridescent blue light drips  from a  stalactite  far  above, falls towards the floor, and evaporates before touching the ground.  A deep, resonant chanting sound vibrates from  deep in  the  ground beneath your feet, and a whispering sound composed of the echoes of long-forgotten spells and cantrips seeps  from  the  walls  and fills the air.  Passages exit to the east and west.</t>
+  </si>
+  <si>
+    <t>You're at brink of bottomless pit.</t>
+  </si>
+  <si>
+    <t>187 - once ogre is dead</t>
+  </si>
+  <si>
+    <t>You're on southern edge of bottomless pit.</t>
+  </si>
+  <si>
+    <t>You  are  standing  on  the  brink of what appears to be a bottomless pit plunging down into the bowels of the earth.  Ledges run around the pit to the east and west, and a passage leads north.</t>
+  </si>
+  <si>
+    <t>You are standing at the south end of a ledge running around the west side of a bottomless pit.  The ledge once continued around to the east side of the  pit,  but  was  apparently obliterated by a rock-slide years ago.  A cold wind blows out of a tunnel leading to the southeast.</t>
+  </si>
+  <si>
+    <t>78 (1/2 of time)</t>
+  </si>
+  <si>
+    <t>69 1/3 of the time</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>0.75 134, 0.25 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75 80, 0.25 </t>
   </si>
 </sst>
 </file>
@@ -2257,22 +2332,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:O181"/>
+  <dimension ref="A1:P189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G178" sqref="G178"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="13" width="9.08984375" style="4"/>
+    <col min="1" max="1" width="34.796875" customWidth="1"/>
+    <col min="2" max="2" width="40.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="14" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2282,38 +2358,41 @@
       <c r="C1" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2323,35 +2402,38 @@
       <c r="C2" s="1">
         <v>136</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>6</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>82</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>118</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>84</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>120</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>83</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2361,23 +2443,26 @@
       <c r="C3">
         <v>440</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>118</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>85</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2387,20 +2472,23 @@
       <c r="C4">
         <v>441</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>119</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>534</v>
       </c>
@@ -2410,8 +2498,11 @@
       <c r="C5">
         <v>461</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2421,29 +2512,32 @@
       <c r="C6">
         <v>142</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>120</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>83</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>131</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2453,29 +2547,32 @@
       <c r="C7">
         <v>143</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>121</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>131</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>120</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>83</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2485,8 +2582,8 @@
       <c r="C8">
         <v>141</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -2494,12 +2591,12 @@
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2516,13 +2613,16 @@
         <v>16</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2532,43 +2632,49 @@
       <c r="C9">
         <v>144</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>11</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>132</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>10</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10">
         <v>455</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>121</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>9</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2578,17 +2684,20 @@
       <c r="C11">
         <v>436</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>9</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>130</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2598,8 +2707,8 @@
       <c r="C12">
         <v>145</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
@@ -2607,12 +2716,12 @@
       <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4">
         <v>13</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2622,14 +2731,17 @@
       <c r="K12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="4">
         <v>9</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2639,21 +2751,21 @@
       <c r="C13">
         <v>146</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4">
         <v>12</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>14</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I13" s="4" t="s">
         <v>16</v>
       </c>
@@ -2669,8 +2781,11 @@
       <c r="M13" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2680,21 +2795,21 @@
       <c r="C14">
         <v>147</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4">
         <v>13</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>15</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I14" s="4" t="s">
         <v>16</v>
       </c>
@@ -2704,17 +2819,20 @@
       <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="4">
         <v>15</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="N14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2724,19 +2842,19 @@
       <c r="C15">
         <v>148</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4">
         <v>14</v>
       </c>
-      <c r="G15" s="4">
-        <v>16</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="4">
         <v>16</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -2748,14 +2866,17 @@
       <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M15" s="4">
+        <v>16</v>
+      </c>
+      <c r="N15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2765,21 +2886,21 @@
       <c r="C16">
         <v>149</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4">
         <v>15</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>17</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I16" s="4" t="s">
         <v>16</v>
       </c>
@@ -2795,8 +2916,11 @@
       <c r="M16" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2806,16 +2930,16 @@
       <c r="C17">
         <v>150</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="4">
-        <v>16</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4">
         <v>16</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -2834,10 +2958,13 @@
         <v>16</v>
       </c>
       <c r="M17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2847,21 +2974,21 @@
       <c r="C18">
         <v>151</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
         <v>19</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>33</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>34</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>64</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2872,13 +2999,16 @@
         <v>16</v>
       </c>
       <c r="L18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2888,38 +3018,41 @@
       <c r="C19">
         <v>155</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4">
         <v>20</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>38</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>18</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>41</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>57</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>36</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>58</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>18</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2929,15 +3062,15 @@
       <c r="C20">
         <v>160</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
         <v>21</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>19</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
@@ -2956,11 +3089,14 @@
       <c r="L20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2970,21 +3106,21 @@
       <c r="C21">
         <v>163</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4">
         <v>20</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>23</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>22</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I21" s="4" t="s">
         <v>16</v>
       </c>
@@ -3001,10 +3137,13 @@
         <v>16</v>
       </c>
       <c r="N21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3014,18 +3153,18 @@
       <c r="C22">
         <v>165</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
+      <c r="D22">
+        <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4">
         <v>21</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H22" s="4" t="s">
         <v>16</v>
       </c>
@@ -3044,8 +3183,11 @@
       <c r="M22" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3055,8 +3197,8 @@
       <c r="C23">
         <v>164</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
+      <c r="D23">
+        <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>16</v>
@@ -3079,14 +3221,17 @@
       <c r="K23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="4">
         <v>18</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -3096,21 +3241,21 @@
       <c r="C24">
         <v>198</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
+      <c r="D24">
+        <v>5</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4">
         <v>25</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>27</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I24" s="4" t="s">
         <v>16</v>
       </c>
@@ -3120,14 +3265,17 @@
       <c r="K24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="4">
         <v>20</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -3137,8 +3285,8 @@
       <c r="C25">
         <v>199</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>16</v>
+      <c r="D25">
+        <v>5</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -3146,12 +3294,12 @@
       <c r="F25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="4">
         <v>24</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I25" s="4" t="s">
         <v>16</v>
       </c>
@@ -3164,11 +3312,14 @@
       <c r="L25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -3178,8 +3329,8 @@
       <c r="C26">
         <v>200</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>16</v>
+      <c r="D26">
+        <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
@@ -3202,14 +3353,17 @@
       <c r="K26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="4">
         <v>25</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -3219,18 +3373,18 @@
       <c r="C27">
         <v>201</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>16</v>
+      <c r="D27">
+        <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="4">
         <v>24</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H27" s="4" t="s">
         <v>16</v>
       </c>
@@ -3246,11 +3400,14 @@
       <c r="L27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -3260,21 +3417,21 @@
       <c r="C28">
         <v>202</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4">
         <v>29</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="F28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="4">
         <v>69</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>70</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I28" s="4" t="s">
         <v>16</v>
       </c>
@@ -3284,14 +3441,17 @@
       <c r="K28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="4">
         <v>27</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -3301,21 +3461,21 @@
       <c r="C29">
         <v>232</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="4">
         <v>28</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="G29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="4">
         <v>30</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I29" s="4" t="s">
         <v>16</v>
       </c>
@@ -3325,14 +3485,17 @@
       <c r="K29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="4">
         <v>30</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3342,18 +3505,18 @@
       <c r="C30">
         <v>231</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>16</v>
+      <c r="D30">
+        <v>5</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="4">
         <v>31</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H30" s="4" t="s">
         <v>16</v>
       </c>
@@ -3366,14 +3529,17 @@
       <c r="K30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="4">
         <v>31</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -3383,21 +3549,21 @@
       <c r="C31">
         <v>370</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>16</v>
+      <c r="D31">
+        <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>30</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I31" s="4" t="s">
         <v>16</v>
       </c>
@@ -3413,8 +3579,11 @@
       <c r="M31" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -3424,8 +3593,8 @@
       <c r="C32">
         <v>233</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
+      <c r="D32">
+        <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>16</v>
@@ -3448,14 +3617,17 @@
       <c r="K32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="4">
         <v>29</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -3465,12 +3637,12 @@
       <c r="C33">
         <v>154</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
         <v>18</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
@@ -3495,8 +3667,11 @@
       <c r="M33" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -3506,8 +3681,8 @@
       <c r="C34">
         <v>312</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>16</v>
+      <c r="D34">
+        <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>16</v>
@@ -3515,12 +3690,12 @@
       <c r="F34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="4">
         <v>18</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I34" s="4" t="s">
         <v>16</v>
       </c>
@@ -3533,14 +3708,17 @@
       <c r="L34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="4">
         <v>35</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -3550,18 +3728,18 @@
       <c r="C35">
         <v>320</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4">
         <v>36</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>34</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H35" s="4" t="s">
         <v>16</v>
       </c>
@@ -3574,14 +3752,17 @@
       <c r="K35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="4">
         <v>34</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -3591,18 +3772,18 @@
       <c r="C36">
         <v>319</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
         <v>37</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>19</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>35</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H36" s="4" t="s">
         <v>16</v>
       </c>
@@ -3621,8 +3802,11 @@
       <c r="M36" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -3632,12 +3816,12 @@
       <c r="C37">
         <v>321</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
         <v>36</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F37" s="4" t="s">
         <v>16</v>
       </c>
@@ -3662,8 +3846,11 @@
       <c r="M37" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -3673,12 +3860,12 @@
       <c r="C38">
         <v>161</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4">
         <v>19</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
@@ -3700,11 +3887,14 @@
       <c r="L38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -3714,8 +3904,8 @@
       <c r="C39">
         <v>395</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>16</v>
+      <c r="D39">
+        <v>3</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>16</v>
@@ -3738,14 +3928,17 @@
       <c r="K39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="4">
         <v>38</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -3755,8 +3948,8 @@
       <c r="C40">
         <v>394</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>16</v>
+      <c r="D40">
+        <v>3</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>16</v>
@@ -3779,14 +3972,17 @@
       <c r="K40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="4">
         <v>39</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N40" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3796,21 +3992,21 @@
       <c r="C41">
         <v>162</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>16</v>
+      <c r="D41">
+        <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="4">
         <v>19</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>42</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I41" s="4" t="s">
         <v>16</v>
       </c>
@@ -3820,14 +4016,17 @@
       <c r="K41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="4">
         <v>42</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -3837,21 +4036,21 @@
       <c r="C42">
         <v>196</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
         <v>43</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>44</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>41</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>91</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I42" s="4" t="s">
         <v>16</v>
       </c>
@@ -3867,8 +4066,11 @@
       <c r="M42" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -3878,15 +4080,15 @@
       <c r="C43">
         <v>197</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="4">
         <v>42</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G43" s="4" t="s">
         <v>16</v>
       </c>
@@ -3908,8 +4110,11 @@
       <c r="M43" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N43" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -3919,18 +4124,18 @@
       <c r="C44">
         <v>195</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4">
         <v>42</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>45</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>91</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H44" s="4" t="s">
         <v>16</v>
       </c>
@@ -3949,369 +4154,405 @@
       <c r="M44" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N44" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>132</v>
       </c>
       <c r="C45">
         <v>300</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
         <v>46</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>48</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>55</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>49</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>54</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>50</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>47</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>53</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>55</v>
       </c>
-      <c r="M45" s="5">
+      <c r="N45" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>133</v>
       </c>
       <c r="C46">
         <v>310</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
         <v>47</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>49</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>53</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>54</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>52</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>48</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>51</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>134</v>
       </c>
       <c r="C47">
         <v>305</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
         <v>48</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>55</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>50</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>46</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>49</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>53</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>54</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>135</v>
       </c>
       <c r="C48">
         <v>302</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4">
         <v>49</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>46</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>52</v>
-      </c>
-      <c r="G48" s="4">
-        <v>45</v>
       </c>
       <c r="H48" s="4">
         <v>45</v>
       </c>
       <c r="I48" s="4">
+        <v>45</v>
+      </c>
+      <c r="J48" s="4">
         <v>54</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>55</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>47</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>136</v>
       </c>
       <c r="C49">
         <v>309</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
         <v>50</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>51</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>48</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>47</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>53</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>52</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>55</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>137</v>
       </c>
       <c r="C50">
         <v>306</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
         <v>45</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>54</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>47</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>51</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
         <v>49</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>138</v>
       </c>
       <c r="C51">
         <v>307</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
         <v>52</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>50</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>45</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>48</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>46</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>55</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>49</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>139</v>
       </c>
       <c r="C52">
         <v>301</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
         <v>53</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F52" s="5">
         <v>56</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>54</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>55</v>
       </c>
-      <c r="H52" s="4">
+      <c r="I52" s="4">
         <v>51</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J52" s="4">
         <v>47</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K52" s="4">
         <v>50</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="4">
         <v>48</v>
       </c>
-      <c r="L52" s="4">
+      <c r="M52" s="4">
         <v>46</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N52" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>140</v>
       </c>
       <c r="C53">
         <v>303</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
         <v>54</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
         <v>47</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <v>49</v>
       </c>
-      <c r="G53" s="4">
+      <c r="H53" s="4">
         <v>50</v>
       </c>
-      <c r="H53" s="4">
+      <c r="I53" s="4">
         <v>55</v>
       </c>
-      <c r="I53" s="4">
+      <c r="J53" s="4">
         <v>45</v>
       </c>
-      <c r="J53" s="4">
+      <c r="K53" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>141</v>
       </c>
       <c r="C54">
         <v>304</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4">
         <v>55</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>52</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>51</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>53</v>
       </c>
-      <c r="H54" s="4">
+      <c r="I54" s="4">
         <v>47</v>
       </c>
-      <c r="I54" s="4">
+      <c r="J54" s="4">
         <v>49</v>
       </c>
-      <c r="J54" s="4">
+      <c r="K54" s="4">
         <v>45</v>
       </c>
-      <c r="K54" s="4">
+      <c r="L54" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>142</v>
       </c>
       <c r="C55">
         <v>308</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4">
         <v>51</v>
       </c>
-      <c r="E55" s="4">
+      <c r="F55" s="4">
         <v>53</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <v>46</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <v>52</v>
       </c>
-      <c r="H55" s="4">
+      <c r="I55" s="4">
         <v>48</v>
       </c>
-      <c r="I55" s="4">
+      <c r="J55" s="4">
         <v>50</v>
       </c>
-      <c r="J55" s="4">
+      <c r="K55" s="4">
         <v>45</v>
       </c>
-      <c r="K55" s="4">
+      <c r="L55" s="4">
         <v>49</v>
       </c>
-      <c r="L55" s="4">
+      <c r="M55" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>539</v>
       </c>
@@ -4321,12 +4562,12 @@
       <c r="C56">
         <v>311</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4">
         <v>52</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F56" s="4" t="s">
         <v>16</v>
       </c>
@@ -4351,8 +4592,11 @@
       <c r="M56" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N56" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -4362,15 +4606,15 @@
       <c r="C57">
         <v>313</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="4">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="4">
         <v>19</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G57" s="4" t="s">
         <v>16</v>
       </c>
@@ -4392,8 +4636,11 @@
       <c r="M57" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N57" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -4403,15 +4650,15 @@
       <c r="C58">
         <v>316</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4">
         <v>59</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <v>19</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G58" s="4" t="s">
         <v>16</v>
       </c>
@@ -4433,8 +4680,11 @@
       <c r="M58" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N58" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>150</v>
       </c>
@@ -4444,27 +4694,27 @@
       <c r="C59">
         <v>317</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" s="4">
         <v>60</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <v>58</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>60</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>58</v>
       </c>
-      <c r="H59" s="4">
+      <c r="I59" s="4">
         <v>60</v>
       </c>
-      <c r="I59" s="4">
+      <c r="J59" s="4">
         <v>58</v>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="K59" s="4" t="s">
         <v>16</v>
       </c>
@@ -4474,8 +4724,11 @@
       <c r="M59" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N59" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -4485,15 +4738,15 @@
       <c r="C60">
         <v>318</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="4">
         <v>59</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G60" s="4" t="s">
         <v>16</v>
       </c>
@@ -4515,8 +4768,11 @@
       <c r="M60" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N60" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -4526,21 +4782,21 @@
       <c r="C61">
         <v>215</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>16</v>
+      <c r="D61">
+        <v>3</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="4">
         <v>19</v>
       </c>
-      <c r="G61" s="4">
+      <c r="H61" s="4">
         <v>62</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I61" s="4" t="s">
         <v>16</v>
       </c>
@@ -4553,11 +4809,14 @@
       <c r="L61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" s="4">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -4567,18 +4826,18 @@
       <c r="C62">
         <v>247</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" s="4">
         <v>65</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="F62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="4">
         <v>61</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H62" s="4" t="s">
         <v>16</v>
       </c>
@@ -4597,8 +4856,11 @@
       <c r="M62" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N62" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -4608,12 +4870,12 @@
       <c r="C63">
         <v>314</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" s="4">
         <v>19</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
@@ -4632,14 +4894,17 @@
       <c r="K63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="4">
         <v>19</v>
       </c>
-      <c r="M63" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N63" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>177</v>
       </c>
@@ -4649,21 +4914,21 @@
       <c r="C64">
         <v>152</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>16</v>
+      <c r="D64">
+        <v>2</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="4">
         <v>18</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I64" s="4" t="s">
         <v>16</v>
       </c>
@@ -4680,10 +4945,13 @@
         <v>16</v>
       </c>
       <c r="N64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -4693,15 +4961,15 @@
       <c r="C65">
         <v>210</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" s="4">
         <v>66</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="4">
         <v>62</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G65" s="4" t="s">
         <v>16</v>
       </c>
@@ -4720,11 +4988,14 @@
       <c r="L65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N65" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -4734,15 +5005,15 @@
       <c r="C66">
         <v>237</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" s="4">
         <v>67</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66" s="4">
         <v>65</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G66" s="4" t="s">
         <v>16</v>
       </c>
@@ -4764,8 +5035,11 @@
       <c r="M66" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N66" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>319</v>
       </c>
@@ -4775,21 +5049,21 @@
       <c r="C67">
         <v>239</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
         <v>66</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="4">
+      <c r="G67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="4">
         <v>115</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I67" s="4" t="s">
         <v>16</v>
       </c>
@@ -4805,8 +5079,11 @@
       <c r="M67" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N67" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -4816,21 +5093,21 @@
       <c r="C68">
         <v>153</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4">
         <v>86</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="4">
+      <c r="F68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="4">
         <v>64</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H68" s="4">
         <v>86</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I68" s="4" t="s">
         <v>16</v>
       </c>
@@ -4846,10 +5123,13 @@
       <c r="M68" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N68" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B69" t="s">
         <v>193</v>
@@ -4857,14 +5137,17 @@
       <c r="C69">
         <v>235</v>
       </c>
-      <c r="E69" s="4">
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="F69" s="4">
         <v>164</v>
       </c>
-      <c r="G69" s="4">
+      <c r="H69" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>195</v>
       </c>
@@ -4874,41 +5157,44 @@
       <c r="C70">
         <v>207</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>232</v>
+      <c r="D70">
+        <v>4</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F70" s="4">
+        <v>639</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="G70" s="4">
         <v>28</v>
       </c>
-      <c r="G70" s="4">
+      <c r="H70" s="4">
         <v>71</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="4">
+      <c r="I70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="4">
         <v>78</v>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="K70" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="N70" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="O70" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -4918,26 +5204,26 @@
       <c r="C71">
         <v>208</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="F71" s="4">
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="G71" s="4">
         <v>72</v>
       </c>
-      <c r="G71" s="4">
+      <c r="H71" s="4">
         <v>77</v>
       </c>
-      <c r="H71" s="4">
+      <c r="I71" s="4">
         <v>70</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>16</v>
+      <c r="J71" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>16</v>
@@ -4948,8 +5234,11 @@
       <c r="M71" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N71" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -4959,48 +5248,87 @@
       <c r="C72">
         <v>225</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>16</v>
+      <c r="D72">
+        <v>4</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="4">
         <v>74</v>
       </c>
-      <c r="G72" s="4">
+      <c r="H72" s="4">
         <v>71</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="4">
         <v>73</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N72" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>622</v>
+      </c>
       <c r="B73" t="s">
         <v>200</v>
       </c>
-      <c r="I73" s="4">
+      <c r="C73">
+        <v>392</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="4">
+        <v>171</v>
+      </c>
+      <c r="N73" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B74" t="s">
         <v>201</v>
@@ -5008,21 +5336,18 @@
       <c r="C74">
         <v>429</v>
       </c>
-      <c r="D74" s="4">
+      <c r="E74" s="4">
         <v>147</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F74" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="4">
         <v>72</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I74" s="4" t="s">
         <v>16</v>
       </c>
@@ -5038,8 +5363,11 @@
       <c r="M74" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N74" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -5049,21 +5377,18 @@
       <c r="C75">
         <v>218</v>
       </c>
-      <c r="D75" s="4">
+      <c r="E75" s="4">
         <v>71</v>
       </c>
-      <c r="E75" s="4">
+      <c r="F75" s="4">
         <v>76</v>
       </c>
-      <c r="F75" s="4">
+      <c r="G75" s="4">
         <v>112</v>
       </c>
-      <c r="G75" s="4">
+      <c r="H75" s="4">
         <v>114</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I75" s="4" t="s">
         <v>16</v>
       </c>
@@ -5079,8 +5404,11 @@
       <c r="M75" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N75" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -5090,12 +5418,9 @@
       <c r="C76">
         <v>483</v>
       </c>
-      <c r="D76" s="4">
+      <c r="E76" s="4">
         <v>75</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F76" s="4" t="s">
         <v>16</v>
       </c>
@@ -5120,14 +5445,17 @@
       <c r="M76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N76" t="s">
+      <c r="N76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O76" t="s">
         <v>206</v>
       </c>
-      <c r="O76" s="4" t="s">
+      <c r="P76" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>546</v>
       </c>
@@ -5137,21 +5465,18 @@
       <c r="C77">
         <v>157</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E77" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="4">
         <v>71</v>
       </c>
-      <c r="G77" s="4">
+      <c r="H77" s="4">
         <v>135</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I77" s="4" t="s">
         <v>16</v>
       </c>
@@ -5164,11 +5489,14 @@
       <c r="L77" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N77" s="4">
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>215</v>
       </c>
@@ -5178,59 +5506,59 @@
       <c r="C78">
         <v>226</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E78" s="4">
         <v>79</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="4">
         <v>80</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="4">
         <v>71</v>
       </c>
-      <c r="K78" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L78" s="4">
+      <c r="L78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="4">
         <v>79</v>
       </c>
-      <c r="M78" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N78" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>216</v>
       </c>
       <c r="B79" t="s">
         <v>214</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="4">
+      <c r="C79">
+        <v>230</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="4">
         <v>78</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="4">
+      <c r="G79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="4">
         <v>90</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I79" s="4" t="s">
         <v>16</v>
       </c>
@@ -5240,8 +5568,17 @@
       <c r="K79" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>217</v>
       </c>
@@ -5251,12 +5588,9 @@
       <c r="C80">
         <v>213</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4">
         <v>81</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F80" s="4" t="s">
         <v>16</v>
       </c>
@@ -5269,32 +5603,41 @@
       <c r="I80" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="4">
         <v>78</v>
       </c>
-      <c r="K80" s="4">
+      <c r="L80" s="4">
         <v>88</v>
       </c>
-      <c r="L80" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="M80" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N80" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>218</v>
+      </c>
       <c r="B81" t="s">
         <v>218</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="4">
+      <c r="C81">
+        <v>214</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="4">
         <v>80</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G81" s="4" t="s">
         <v>16</v>
       </c>
@@ -5316,8 +5659,11 @@
       <c r="M81" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N81" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>220</v>
       </c>
@@ -5327,58 +5673,58 @@
       <c r="C82">
         <v>137</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>84</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82" s="4">
         <v>83</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G82" s="4">
         <v>1</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H82" s="4">
+      <c r="I82" s="4">
         <v>3</v>
       </c>
-      <c r="L82" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="M82" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N82" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>222</v>
       </c>
       <c r="C83">
         <v>450</v>
       </c>
-      <c r="D83" s="4">
+      <c r="E83" s="4">
         <v>1</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83" s="4">
         <v>131</v>
       </c>
-      <c r="F83" s="4">
+      <c r="G83" s="4">
         <v>6</v>
       </c>
-      <c r="G83" s="4">
+      <c r="H83" s="4">
         <v>5</v>
       </c>
-      <c r="I83" s="4">
+      <c r="J83" s="4">
         <v>5</v>
       </c>
-      <c r="J83" s="4">
+      <c r="K83" s="4">
         <v>7</v>
       </c>
-      <c r="M83" s="4">
+      <c r="N83" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>224</v>
       </c>
@@ -5388,23 +5734,23 @@
       <c r="C84">
         <v>457</v>
       </c>
-      <c r="D84" s="4">
+      <c r="E84" s="4">
         <v>85</v>
       </c>
-      <c r="E84" s="4">
+      <c r="F84" s="4">
         <v>82</v>
       </c>
-      <c r="H84" s="4">
+      <c r="I84" s="4">
         <v>4</v>
       </c>
-      <c r="I84" s="4">
+      <c r="J84" s="4">
         <v>99</v>
       </c>
-      <c r="J84" s="4">
+      <c r="K84" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>226</v>
       </c>
@@ -5414,17 +5760,17 @@
       <c r="C85">
         <v>437</v>
       </c>
-      <c r="D85" s="4">
+      <c r="E85" s="4">
         <v>5</v>
       </c>
-      <c r="E85" s="4">
+      <c r="F85" s="4">
         <v>84</v>
       </c>
-      <c r="J85" s="4">
+      <c r="K85" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>244</v>
       </c>
@@ -5434,21 +5780,18 @@
       <c r="C86">
         <v>167</v>
       </c>
-      <c r="D86" s="4">
+      <c r="E86" s="4">
         <v>68</v>
       </c>
-      <c r="E86" s="4">
+      <c r="F86" s="4">
         <v>102</v>
       </c>
-      <c r="F86" s="4">
+      <c r="G86" s="4">
         <v>68</v>
       </c>
-      <c r="G86" s="4">
+      <c r="H86" s="4">
         <v>91</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I86" s="4" t="s">
         <v>16</v>
       </c>
@@ -5458,23 +5801,23 @@
       <c r="K86" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" s="4">
         <v>102</v>
       </c>
-      <c r="M86" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N86" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>231</v>
       </c>
       <c r="C87">
         <v>181</v>
       </c>
-      <c r="D87" s="4">
-        <v>87</v>
-      </c>
       <c r="E87" s="4">
         <v>87</v>
       </c>
@@ -5497,21 +5840,24 @@
         <v>87</v>
       </c>
       <c r="L87" s="4">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M87" s="4">
         <v>103</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N87" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>238</v>
       </c>
       <c r="B88" t="s">
         <v>234</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>16</v>
+      <c r="C88">
+        <v>246</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>16</v>
@@ -5522,34 +5868,37 @@
       <c r="G88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="4">
         <v>89</v>
       </c>
-      <c r="I88" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" s="4">
         <v>80</v>
       </c>
-      <c r="L88" s="4">
+      <c r="M88" s="4">
         <v>89</v>
       </c>
-      <c r="M88" s="4">
+      <c r="N88" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>239</v>
       </c>
       <c r="B89" t="s">
         <v>241</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>16</v>
+      <c r="C89">
+        <v>244</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>16</v>
@@ -5561,51 +5910,60 @@
         <v>16</v>
       </c>
       <c r="H89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I89" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J89" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="4">
         <v>88</v>
       </c>
-      <c r="L89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M89" s="4">
+      <c r="M89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>614</v>
+      </c>
       <c r="B90" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>16</v>
+      <c r="C90">
+        <v>227</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="4">
         <v>79</v>
       </c>
-      <c r="L90" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="M90" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N90" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>245</v>
       </c>
@@ -5615,21 +5973,18 @@
       <c r="C91">
         <v>194</v>
       </c>
-      <c r="D91" s="4">
+      <c r="E91" s="4">
         <v>42</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="4">
+      <c r="F91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="4">
         <v>86</v>
       </c>
-      <c r="G91" s="4">
+      <c r="H91" s="4">
         <v>44</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I91" s="4" t="s">
         <v>16</v>
       </c>
@@ -5639,14 +5994,17 @@
       <c r="K91" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="4">
         <v>86</v>
       </c>
-      <c r="M91" s="4">
+      <c r="N91" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -5656,21 +6014,18 @@
       <c r="C92">
         <v>371</v>
       </c>
-      <c r="D92" s="4">
+      <c r="E92" s="4">
         <v>93</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F92" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I92" s="4" t="s">
         <v>16</v>
       </c>
@@ -5686,8 +6041,11 @@
       <c r="M92" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N92" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -5697,18 +6055,15 @@
       <c r="C93">
         <v>372</v>
       </c>
-      <c r="D93" s="4">
+      <c r="E93" s="4">
         <v>94</v>
       </c>
-      <c r="E93" s="4">
+      <c r="F93" s="4">
         <v>92</v>
       </c>
-      <c r="F93" s="4">
+      <c r="G93" s="4">
         <v>95</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H93" s="4" t="s">
         <v>16</v>
       </c>
@@ -5727,8 +6082,11 @@
       <c r="M93" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N93" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>260</v>
       </c>
@@ -5738,9 +6096,6 @@
       <c r="C94">
         <v>375</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E94" s="4" t="s">
         <v>16</v>
       </c>
@@ -5753,23 +6108,26 @@
       <c r="H94" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I94" s="4">
+      <c r="I94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="4">
         <v>93</v>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" s="4">
+      <c r="K94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="4">
         <v>97</v>
       </c>
-      <c r="L94" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="M94" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N94" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -5779,21 +6137,18 @@
       <c r="C95">
         <v>373</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="4">
+      <c r="E95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="4">
         <v>96</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="4">
+      <c r="G95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="4">
         <v>93</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I95" s="4" t="s">
         <v>16</v>
       </c>
@@ -5809,8 +6164,11 @@
       <c r="M95" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N95" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>259</v>
       </c>
@@ -5820,12 +6178,9 @@
       <c r="C96">
         <v>374</v>
       </c>
-      <c r="D96" s="4">
+      <c r="E96" s="4">
         <v>95</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F96" s="4" t="s">
         <v>16</v>
       </c>
@@ -5850,8 +6205,11 @@
       <c r="M96" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N96" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -5861,21 +6219,18 @@
       <c r="C97">
         <v>376</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E97" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="4">
         <v>94</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I97" s="4" t="s">
         <v>16</v>
       </c>
@@ -5888,11 +6243,14 @@
       <c r="L97" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M97" s="4">
+      <c r="M97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N97" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>268</v>
       </c>
@@ -5902,21 +6260,18 @@
       <c r="C98">
         <v>377</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E98" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="4">
         <v>97</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I98" s="4" t="s">
         <v>16</v>
       </c>
@@ -5926,14 +6281,17 @@
       <c r="K98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L98" s="4">
+      <c r="L98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M98" s="4">
         <v>97</v>
       </c>
-      <c r="M98" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N98" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>271</v>
       </c>
@@ -5943,65 +6301,62 @@
       <c r="C99">
         <v>138</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E99" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="4">
         <v>100</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="4">
         <v>84</v>
       </c>
-      <c r="K99" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="L99" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N99" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>273</v>
       </c>
       <c r="B100" t="s">
         <v>272</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E100" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="4">
         <v>99</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H100" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="4">
         <v>101</v>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="K100" s="4" t="s">
         <v>16</v>
       </c>
@@ -6011,17 +6366,17 @@
       <c r="M100" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N100" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>279</v>
       </c>
       <c r="B101" t="s">
         <v>274</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E101" s="4" t="s">
         <v>16</v>
       </c>
@@ -6037,40 +6392,40 @@
       <c r="I101" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J101" s="4">
+      <c r="J101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="4">
         <v>100</v>
       </c>
-      <c r="K101" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="L101" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N101" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>280</v>
       </c>
       <c r="C102">
         <v>168</v>
       </c>
-      <c r="D102" s="4">
+      <c r="E102" s="4">
         <v>102</v>
       </c>
-      <c r="E102" s="4">
+      <c r="F102" s="4">
         <v>103</v>
       </c>
-      <c r="F102" s="4">
+      <c r="G102" s="4">
         <v>104</v>
       </c>
-      <c r="G102" s="4">
+      <c r="H102" s="4">
         <v>111</v>
-      </c>
-      <c r="H102" s="4">
-        <v>102</v>
       </c>
       <c r="I102" s="4">
         <v>102</v>
@@ -6081,34 +6436,34 @@
       <c r="K102" s="4">
         <v>102</v>
       </c>
-      <c r="L102" s="5">
+      <c r="L102" s="4">
+        <v>102</v>
+      </c>
+      <c r="M102" s="5">
         <v>86</v>
       </c>
-      <c r="M102" s="4">
+      <c r="N102" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>280</v>
       </c>
       <c r="C103">
         <v>171</v>
       </c>
-      <c r="D103" s="4">
+      <c r="E103" s="4">
         <v>104</v>
       </c>
-      <c r="E103" s="4">
+      <c r="F103" s="4">
         <v>107</v>
       </c>
-      <c r="F103" s="4">
+      <c r="G103" s="4">
         <v>108</v>
       </c>
-      <c r="G103" s="4">
+      <c r="H103" s="4">
         <v>102</v>
-      </c>
-      <c r="H103" s="4">
-        <v>103</v>
       </c>
       <c r="I103" s="4">
         <v>103</v>
@@ -6120,33 +6475,33 @@
         <v>103</v>
       </c>
       <c r="L103" s="4">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="M103" s="4">
         <v>87</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N103" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>280</v>
       </c>
       <c r="C104">
         <v>169</v>
       </c>
-      <c r="D104" s="4">
+      <c r="E104" s="4">
         <v>104</v>
       </c>
-      <c r="E104" s="4">
+      <c r="F104" s="4">
         <v>106</v>
       </c>
-      <c r="F104" s="4">
+      <c r="G104" s="4">
         <v>103</v>
       </c>
-      <c r="G104" s="4">
+      <c r="H104" s="4">
         <v>102</v>
-      </c>
-      <c r="H104" s="4">
-        <v>104</v>
       </c>
       <c r="I104" s="4">
         <v>104</v>
@@ -6163,23 +6518,23 @@
       <c r="M104" s="4">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N104" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>281</v>
       </c>
       <c r="C105">
         <v>191</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" s="4">
+      <c r="E105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="4">
         <v>106</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G105" s="4" t="s">
         <v>16</v>
       </c>
@@ -6201,25 +6556,25 @@
       <c r="M105" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N105" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>280</v>
       </c>
       <c r="C106">
         <v>170</v>
       </c>
-      <c r="D106" s="4">
+      <c r="E106" s="4">
         <v>105</v>
       </c>
-      <c r="E106" s="4">
+      <c r="F106" s="4">
         <v>109</v>
       </c>
-      <c r="F106" s="4">
+      <c r="G106" s="4">
         <v>104</v>
-      </c>
-      <c r="G106" s="4">
-        <v>106</v>
       </c>
       <c r="H106" s="4">
         <v>106</v>
@@ -6237,28 +6592,28 @@
         <v>106</v>
       </c>
       <c r="M106" s="4">
+        <v>106</v>
+      </c>
+      <c r="N106" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>282</v>
       </c>
       <c r="C107">
         <v>185</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E107" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="4">
         <v>103</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H107" s="4" t="s">
         <v>16</v>
       </c>
@@ -6277,29 +6632,29 @@
       <c r="M107" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N107" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>283</v>
       </c>
       <c r="C108">
         <v>182</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E108" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="4">
         <v>103</v>
       </c>
-      <c r="H108" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I108" s="4" t="s">
         <v>16</v>
       </c>
@@ -6315,29 +6670,29 @@
       <c r="M108" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N108" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>280</v>
       </c>
       <c r="C109">
         <v>173</v>
       </c>
-      <c r="D109" s="4">
+      <c r="E109" s="4">
         <v>109</v>
       </c>
-      <c r="E109" s="4">
+      <c r="F109" s="4">
         <v>110</v>
       </c>
-      <c r="F109" s="4">
+      <c r="G109" s="4">
         <v>106</v>
       </c>
-      <c r="G109" s="4">
+      <c r="H109" s="4">
         <v>150</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I109" s="4" t="s">
         <v>16</v>
       </c>
@@ -6347,34 +6702,34 @@
       <c r="K109" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L109" s="4">
+      <c r="L109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M109" s="4">
         <v>109</v>
       </c>
-      <c r="M109" s="4">
+      <c r="N109" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>280</v>
       </c>
       <c r="C110">
         <v>175</v>
       </c>
-      <c r="D110" s="4">
+      <c r="E110" s="4">
         <v>153</v>
       </c>
-      <c r="E110" s="4">
+      <c r="F110" s="4">
         <v>110</v>
       </c>
-      <c r="F110" s="4">
+      <c r="G110" s="4">
         <v>151</v>
       </c>
-      <c r="G110" s="4">
+      <c r="H110" s="4">
         <v>109</v>
-      </c>
-      <c r="H110" s="4">
-        <v>110</v>
       </c>
       <c r="I110" s="4">
         <v>110</v>
@@ -6386,24 +6741,27 @@
         <v>110</v>
       </c>
       <c r="L110" s="4">
+        <v>110</v>
+      </c>
+      <c r="M110" s="4">
         <v>152</v>
       </c>
-      <c r="M110" s="4">
+      <c r="N110" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>280</v>
       </c>
       <c r="C111">
         <v>178</v>
       </c>
-      <c r="D111" s="4">
+      <c r="E111" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>284</v>
       </c>
@@ -6413,15 +6771,12 @@
       <c r="C112">
         <v>216</v>
       </c>
-      <c r="D112" s="4">
+      <c r="E112" s="4">
         <v>75</v>
       </c>
-      <c r="E112" s="4">
+      <c r="F112" s="4">
         <v>113</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G112" s="4" t="s">
         <v>16</v>
       </c>
@@ -6443,8 +6798,11 @@
       <c r="M112" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N112" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>285</v>
       </c>
@@ -6454,12 +6812,9 @@
       <c r="C113">
         <v>217</v>
       </c>
-      <c r="D113" s="4">
+      <c r="E113" s="4">
         <v>112</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
@@ -6484,8 +6839,11 @@
       <c r="M113" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N113" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>287</v>
       </c>
@@ -6495,15 +6853,12 @@
       <c r="C114">
         <v>219</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114" s="4">
+      <c r="E114" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="4">
         <v>75</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G114" s="4" t="s">
         <v>16</v>
       </c>
@@ -6525,8 +6880,11 @@
       <c r="M114" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N114" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>322</v>
       </c>
@@ -6536,38 +6894,38 @@
       <c r="C115">
         <v>397</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115" s="4">
-        <v>67</v>
+      <c r="E115" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F115" s="4">
         <v>67</v>
       </c>
       <c r="G115" s="4">
+        <v>67</v>
+      </c>
+      <c r="H115" s="4">
         <v>116</v>
       </c>
-      <c r="H115" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I115" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J115" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K115" s="4">
         <v>67</v>
       </c>
-      <c r="K115" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="L115" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M115" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N115" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>326</v>
       </c>
@@ -6577,38 +6935,38 @@
       <c r="C116">
         <v>396</v>
       </c>
-      <c r="D116" s="4">
-        <v>117</v>
-      </c>
       <c r="E116" s="4">
         <v>117</v>
       </c>
       <c r="F116" s="4">
+        <v>117</v>
+      </c>
+      <c r="G116" s="4">
         <v>115</v>
       </c>
-      <c r="G116" s="4">
+      <c r="H116" s="4">
         <v>117</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" s="4">
+      <c r="I116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" s="4">
         <v>117</v>
       </c>
-      <c r="J116" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K116" s="4">
+      <c r="K116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L116" s="4">
         <v>117</v>
       </c>
-      <c r="L116" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="M116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N116" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>325</v>
       </c>
@@ -6618,23 +6976,29 @@
       <c r="C117">
         <v>432</v>
       </c>
-      <c r="D117" s="4">
-        <v>117</v>
-      </c>
       <c r="E117" s="4">
         <v>117</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>567</v>
+        <v>621</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="H117" s="4">
+        <v>566</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="I117" s="4">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K117" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>330</v>
       </c>
@@ -6644,368 +7008,368 @@
       <c r="C118">
         <v>458</v>
       </c>
-      <c r="D118" s="4">
+      <c r="E118" s="4">
         <v>119</v>
       </c>
-      <c r="E118" s="4">
+      <c r="F118" s="4">
         <v>124</v>
       </c>
-      <c r="F118" s="4">
+      <c r="G118" s="4">
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>331</v>
       </c>
       <c r="C119">
         <v>442</v>
       </c>
-      <c r="E119" s="4">
+      <c r="F119" s="4">
         <v>118</v>
       </c>
-      <c r="F119" s="4">
+      <c r="G119" s="4">
         <v>126</v>
       </c>
-      <c r="G119" s="4">
+      <c r="H119" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>332</v>
       </c>
       <c r="C120">
         <v>460</v>
       </c>
-      <c r="D120" s="4">
+      <c r="E120" s="4">
         <v>124</v>
       </c>
-      <c r="E120" s="4">
+      <c r="F120" s="4">
         <v>121</v>
       </c>
-      <c r="F120" s="4">
+      <c r="G120" s="4">
         <v>123</v>
       </c>
-      <c r="G120" s="4">
+      <c r="H120" s="4">
         <v>6</v>
       </c>
-      <c r="I120" s="4">
+      <c r="J120" s="4">
         <v>2</v>
       </c>
-      <c r="J120" s="4">
+      <c r="K120" s="4">
         <v>122</v>
       </c>
-      <c r="K120" s="4">
+      <c r="L120" s="4">
         <v>7</v>
       </c>
-      <c r="L120" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="M120" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N120" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>333</v>
       </c>
       <c r="C121">
         <v>454</v>
       </c>
-      <c r="D121" s="4">
+      <c r="E121" s="4">
         <v>120</v>
       </c>
-      <c r="E121" s="4">
+      <c r="F121" s="4">
         <v>10</v>
       </c>
-      <c r="F121" s="4">
+      <c r="G121" s="4">
         <v>122</v>
       </c>
-      <c r="G121" s="4">
+      <c r="H121" s="4">
         <v>7</v>
       </c>
-      <c r="H121" s="4">
+      <c r="I121" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>334</v>
       </c>
       <c r="C122">
         <v>449</v>
       </c>
-      <c r="D122" s="4">
+      <c r="E122" s="4">
         <v>123</v>
-      </c>
-      <c r="E122" s="4">
-        <v>5</v>
       </c>
       <c r="F122" s="4">
         <v>5</v>
       </c>
       <c r="G122" s="4">
+        <v>5</v>
+      </c>
+      <c r="H122" s="4">
         <v>121</v>
       </c>
-      <c r="H122" s="4">
+      <c r="I122" s="4">
         <v>127</v>
       </c>
-      <c r="I122" s="4">
+      <c r="J122" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>335</v>
       </c>
       <c r="C123">
         <v>447</v>
       </c>
-      <c r="D123" s="4">
+      <c r="E123" s="4">
         <v>124</v>
       </c>
-      <c r="E123" s="4">
+      <c r="F123" s="4">
         <v>122</v>
       </c>
-      <c r="F123" s="4">
+      <c r="G123" s="4">
         <v>127</v>
       </c>
-      <c r="G123" s="4">
+      <c r="H123" s="4">
         <v>120</v>
       </c>
-      <c r="K123" s="4">
+      <c r="L123" s="4">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>336</v>
       </c>
       <c r="C124">
         <v>459</v>
       </c>
-      <c r="D124" s="4">
+      <c r="E124" s="4">
         <v>125</v>
       </c>
-      <c r="E124" s="4">
+      <c r="F124" s="4">
         <v>123</v>
       </c>
-      <c r="F124" s="4">
+      <c r="G124" s="4">
         <v>128</v>
       </c>
-      <c r="I124" s="4">
+      <c r="J124" s="4">
         <v>118</v>
       </c>
-      <c r="J124" s="4">
+      <c r="K124" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>337</v>
       </c>
       <c r="C125">
         <v>444</v>
       </c>
-      <c r="D125" s="4">
+      <c r="E125" s="4">
         <v>126</v>
       </c>
-      <c r="E125" s="4">
+      <c r="F125" s="4">
         <v>124</v>
       </c>
-      <c r="F125" s="4">
+      <c r="G125" s="4">
         <v>129</v>
       </c>
-      <c r="G125" s="4">
+      <c r="H125" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>338</v>
       </c>
       <c r="C126">
         <v>443</v>
       </c>
-      <c r="D126" s="4">
+      <c r="E126" s="4">
         <v>5</v>
       </c>
-      <c r="E126" s="4">
+      <c r="F126" s="4">
         <v>125</v>
       </c>
-      <c r="F126" s="4">
+      <c r="G126" s="4">
         <v>5</v>
       </c>
-      <c r="G126" s="4">
+      <c r="H126" s="4">
         <v>119</v>
-      </c>
-      <c r="H126" s="4">
-        <v>5</v>
       </c>
       <c r="I126" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J126" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>339</v>
       </c>
       <c r="C127">
         <v>448</v>
       </c>
-      <c r="D127" s="4">
+      <c r="E127" s="4">
         <v>128</v>
-      </c>
-      <c r="E127" s="4">
-        <v>5</v>
       </c>
       <c r="F127" s="4">
         <v>5</v>
       </c>
       <c r="G127" s="4">
+        <v>5</v>
+      </c>
+      <c r="H127" s="4">
         <v>123</v>
       </c>
-      <c r="H127" s="4">
+      <c r="I127" s="4">
         <v>5</v>
       </c>
-      <c r="I127" s="4">
+      <c r="J127" s="4">
         <v>124</v>
       </c>
-      <c r="J127" s="4">
+      <c r="K127" s="4">
         <v>5</v>
       </c>
-      <c r="K127" s="4">
+      <c r="L127" s="4">
         <v>122</v>
       </c>
-      <c r="L127" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="M127" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N127" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>340</v>
       </c>
       <c r="C128">
         <v>446</v>
       </c>
-      <c r="D128" s="4">
+      <c r="E128" s="4">
         <v>129</v>
       </c>
-      <c r="E128" s="4">
+      <c r="F128" s="4">
         <v>127</v>
       </c>
-      <c r="F128" s="4">
+      <c r="G128" s="4">
         <v>5</v>
       </c>
-      <c r="G128" s="4">
+      <c r="H128" s="4">
         <v>124</v>
       </c>
-      <c r="H128" s="4">
+      <c r="I128" s="4">
         <v>5</v>
       </c>
-      <c r="I128" s="4">
+      <c r="J128" s="4">
         <v>125</v>
       </c>
-      <c r="J128" s="4">
+      <c r="K128" s="4">
         <v>5</v>
       </c>
-      <c r="K128" s="4">
+      <c r="L128" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>341</v>
       </c>
       <c r="C129">
         <v>445</v>
       </c>
-      <c r="D129" s="4">
+      <c r="E129" s="4">
         <v>5</v>
       </c>
-      <c r="E129" s="4">
+      <c r="F129" s="4">
         <v>128</v>
       </c>
-      <c r="F129" s="4">
+      <c r="G129" s="4">
         <v>5</v>
       </c>
-      <c r="G129" s="4">
+      <c r="H129" s="4">
         <v>125</v>
       </c>
-      <c r="H129" s="4">
+      <c r="I129" s="4">
         <v>5</v>
       </c>
-      <c r="J129" s="4">
+      <c r="K129" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>535</v>
       </c>
       <c r="C130">
         <v>456</v>
       </c>
-      <c r="I130" s="4">
+      <c r="J130" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>536</v>
       </c>
       <c r="C131">
         <v>451</v>
       </c>
-      <c r="D131" s="4">
+      <c r="E131" s="4">
         <v>83</v>
       </c>
-      <c r="E131" s="4">
+      <c r="F131" s="4">
         <v>132</v>
       </c>
-      <c r="F131" s="4">
+      <c r="G131" s="4">
         <v>7</v>
       </c>
-      <c r="H131" s="4">
+      <c r="I131" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>537</v>
       </c>
       <c r="C132">
         <v>452</v>
       </c>
-      <c r="D132" s="4">
+      <c r="E132" s="4">
         <v>131</v>
       </c>
-      <c r="E132" s="4">
+      <c r="F132" s="4">
         <v>133</v>
       </c>
-      <c r="F132" s="4">
+      <c r="G132" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>538</v>
       </c>
       <c r="C133">
         <v>453</v>
       </c>
-      <c r="D133" s="4">
+      <c r="E133" s="4">
         <v>132</v>
       </c>
-      <c r="F133" s="4">
+      <c r="G133" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>541</v>
       </c>
@@ -7015,15 +7379,12 @@
       <c r="C134">
         <v>209</v>
       </c>
-      <c r="D134" s="4">
+      <c r="E134" s="4">
         <v>70</v>
       </c>
-      <c r="E134" s="4">
+      <c r="F134" s="4">
         <v>135</v>
       </c>
-      <c r="F134" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G134" s="4" t="s">
         <v>16</v>
       </c>
@@ -7039,14 +7400,17 @@
       <c r="K134" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L134" s="4">
+      <c r="L134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M134" s="4">
         <v>65</v>
       </c>
-      <c r="M134" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N134" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>543</v>
       </c>
@@ -7056,21 +7420,18 @@
       <c r="C135">
         <v>156</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E135" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="4">
         <v>77</v>
       </c>
-      <c r="G135" s="4">
+      <c r="H135" s="4">
         <v>134</v>
       </c>
-      <c r="H135" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I135" s="4" t="s">
         <v>16</v>
       </c>
@@ -7083,11 +7444,14 @@
       <c r="L135" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M135" s="4">
+      <c r="M135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N135" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>544</v>
       </c>
@@ -7097,9 +7461,6 @@
       <c r="C136">
         <v>159</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E136" s="4" t="s">
         <v>16</v>
       </c>
@@ -7121,17 +7482,20 @@
       <c r="K136" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L136" s="4">
+      <c r="L136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M136" s="4">
         <v>135</v>
       </c>
-      <c r="M136" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="N136" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>548</v>
       </c>
@@ -7141,9 +7505,6 @@
       <c r="C137">
         <v>158</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E137" s="4" t="s">
         <v>16</v>
       </c>
@@ -7165,35 +7526,35 @@
       <c r="K137" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L137" s="4">
+      <c r="L137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M137" s="4">
         <v>77</v>
       </c>
-      <c r="M137" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N137" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B138" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C138">
         <v>220</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E138" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" s="4">
         <v>136</v>
       </c>
-      <c r="H138" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I138" s="4" t="s">
         <v>16</v>
       </c>
@@ -7206,32 +7567,32 @@
       <c r="L138" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M138" s="4">
+      <c r="M138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N138" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
+        <v>553</v>
+      </c>
+      <c r="B139" t="s">
         <v>554</v>
-      </c>
-      <c r="B139" t="s">
-        <v>555</v>
       </c>
       <c r="C139">
         <v>222</v>
       </c>
-      <c r="D139" s="4">
+      <c r="E139" s="4">
         <v>142</v>
       </c>
-      <c r="E139" s="4">
+      <c r="F139" s="4">
         <v>138</v>
       </c>
-      <c r="F139" s="4">
+      <c r="G139" s="4">
         <v>140</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H139" s="4" t="s">
         <v>16</v>
       </c>
@@ -7250,23 +7611,23 @@
       <c r="M139" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N139" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B140" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C140">
         <v>322</v>
       </c>
-      <c r="D140" s="4">
+      <c r="E140" s="4">
         <v>141</v>
       </c>
-      <c r="F140" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G140" s="4" t="s">
         <v>16</v>
       </c>
@@ -7288,40 +7649,67 @@
       <c r="M140" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N140" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B141" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C141">
         <v>323</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="F141" s="4">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N141" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B142" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C142">
         <v>223</v>
       </c>
-      <c r="D142" s="4">
+      <c r="E142" s="4">
         <v>143</v>
       </c>
-      <c r="E142" s="4">
+      <c r="F142" s="4">
         <v>141</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G142" s="4" t="s">
         <v>16</v>
       </c>
@@ -7343,32 +7731,32 @@
       <c r="M142" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N142" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
+        <v>560</v>
+      </c>
+      <c r="B143" t="s">
         <v>561</v>
-      </c>
-      <c r="B143" t="s">
-        <v>562</v>
       </c>
       <c r="C143">
         <v>224</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" s="4">
+      <c r="E143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="4">
         <v>142</v>
       </c>
-      <c r="F143" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" s="4">
+      <c r="G143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="4">
         <v>146</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I143" s="4" t="s">
         <v>16</v>
       </c>
@@ -7381,31 +7769,64 @@
       <c r="L143" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M143" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>616</v>
+      </c>
+      <c r="B144" t="s">
+        <v>615</v>
+      </c>
       <c r="C144">
         <v>240</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="4">
+        <v>183</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
         <v>565</v>
-      </c>
-      <c r="B145" t="s">
-        <v>566</v>
       </c>
       <c r="C145">
         <v>434</v>
       </c>
-      <c r="D145" s="4">
-        <v>117</v>
-      </c>
       <c r="E145" s="4">
         <v>117</v>
       </c>
@@ -7427,29 +7848,29 @@
       <c r="K145" s="4">
         <v>117</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>16</v>
+      <c r="L145" s="4">
+        <v>117</v>
       </c>
       <c r="M145" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N145" t="s">
+      <c r="N145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O145" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>569</v>
       </c>
       <c r="C146">
         <v>221</v>
       </c>
-      <c r="D146" s="4">
+      <c r="E146" s="4">
         <v>143</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F146" s="4" t="s">
         <v>16</v>
       </c>
@@ -7471,26 +7892,26 @@
       <c r="L146" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M146" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B147" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C147">
         <v>430</v>
       </c>
-      <c r="D147" s="4">
+      <c r="E147" s="4">
         <v>148</v>
       </c>
-      <c r="E147" s="4">
+      <c r="F147" s="4">
         <v>74</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G147" s="4" t="s">
         <v>16</v>
       </c>
@@ -7512,20 +7933,20 @@
       <c r="M147" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N147" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C148">
         <v>431</v>
       </c>
-      <c r="D148" s="4">
+      <c r="E148" s="4">
         <v>117</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F148" s="4" t="s">
         <v>16</v>
       </c>
@@ -7541,23 +7962,23 @@
       <c r="J148" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L148" s="4" t="s">
+      <c r="K148" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M148" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N148" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C149">
         <v>189</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E149" s="4" t="s">
         <v>16</v>
       </c>
@@ -7579,35 +8000,35 @@
       <c r="K149" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L149" s="4">
+      <c r="L149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M149" s="4">
         <v>106</v>
       </c>
-      <c r="M149" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N149" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>280</v>
       </c>
       <c r="C150">
         <v>172</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E150" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F150" s="4">
+      <c r="F150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" s="4">
         <v>109</v>
       </c>
-      <c r="G150" s="4">
+      <c r="H150" s="4">
         <v>151</v>
       </c>
-      <c r="H150" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I150" s="4" t="s">
         <v>16</v>
       </c>
@@ -7623,28 +8044,28 @@
       <c r="M150" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N150" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
         <v>280</v>
       </c>
       <c r="C151">
         <v>174</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E151" s="4">
+      <c r="E151" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" s="4">
         <v>152</v>
       </c>
-      <c r="F151" s="4">
+      <c r="G151" s="4">
         <v>110</v>
       </c>
-      <c r="G151" s="4">
+      <c r="H151" s="4">
         <v>150</v>
-      </c>
-      <c r="H151" s="4">
-        <v>151</v>
       </c>
       <c r="I151" s="4">
         <v>151</v>
@@ -7656,33 +8077,33 @@
         <v>151</v>
       </c>
       <c r="L151" s="4">
+        <v>151</v>
+      </c>
+      <c r="M151" s="4">
         <v>109</v>
       </c>
-      <c r="M151" s="4">
+      <c r="N151" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>280</v>
       </c>
       <c r="C152">
         <v>176</v>
       </c>
-      <c r="D152" s="4">
+      <c r="E152" s="4">
         <v>110</v>
       </c>
-      <c r="E152" s="4">
+      <c r="F152" s="4">
         <v>158</v>
       </c>
-      <c r="F152" s="4">
+      <c r="G152" s="4">
         <v>152</v>
       </c>
-      <c r="G152" s="4">
+      <c r="H152" s="4">
         <v>151</v>
-      </c>
-      <c r="H152" s="4">
-        <v>152</v>
       </c>
       <c r="I152" s="4">
         <v>152</v>
@@ -7699,28 +8120,28 @@
       <c r="M152" s="4">
         <v>152</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N152" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
         <v>280</v>
       </c>
       <c r="C153">
         <v>177</v>
       </c>
-      <c r="D153" s="4">
-        <v>153</v>
-      </c>
       <c r="E153" s="4">
         <v>153</v>
       </c>
       <c r="F153" s="4">
+        <v>153</v>
+      </c>
+      <c r="G153" s="4">
         <v>154</v>
       </c>
-      <c r="G153" s="4">
+      <c r="H153" s="4">
         <v>110</v>
-      </c>
-      <c r="H153" s="4">
-        <v>153</v>
       </c>
       <c r="I153" s="4">
         <v>153</v>
@@ -7735,33 +8156,33 @@
         <v>153</v>
       </c>
       <c r="M153" s="4">
+        <v>153</v>
+      </c>
+      <c r="N153" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B154" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C154">
         <v>193</v>
       </c>
-      <c r="D154" s="4">
+      <c r="E154" s="4">
         <v>155</v>
       </c>
-      <c r="E154" s="4">
+      <c r="F154" s="4">
         <v>156</v>
       </c>
-      <c r="F154" s="4">
+      <c r="G154" s="4">
         <v>157</v>
       </c>
-      <c r="G154" s="4">
+      <c r="H154" s="4">
         <v>153</v>
-      </c>
-      <c r="H154" s="4">
-        <v>154</v>
       </c>
       <c r="I154" s="4">
         <v>154</v>
@@ -7776,30 +8197,30 @@
         <v>154</v>
       </c>
       <c r="M154" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="N154" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
         <v>280</v>
       </c>
       <c r="C155">
         <v>179</v>
       </c>
-      <c r="D155" s="4">
+      <c r="E155" s="4">
         <v>155</v>
       </c>
-      <c r="E155" s="4">
+      <c r="F155" s="4">
         <v>154</v>
       </c>
-      <c r="F155" s="4">
+      <c r="G155" s="4">
         <v>157</v>
       </c>
-      <c r="G155" s="4">
+      <c r="H155" s="4">
         <v>161</v>
-      </c>
-      <c r="H155" s="4">
-        <v>155</v>
       </c>
       <c r="I155" s="4">
         <v>155</v>
@@ -7816,26 +8237,26 @@
       <c r="M155" s="4">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N155" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
         <v>282</v>
       </c>
       <c r="C156">
         <v>186</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E156" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" s="4">
         <v>154</v>
       </c>
-      <c r="G156" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H156" s="4" t="s">
         <v>16</v>
       </c>
@@ -7854,55 +8275,55 @@
       <c r="M156" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N156" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B157" t="s">
         <v>280</v>
       </c>
       <c r="C157">
         <v>180</v>
       </c>
-      <c r="D157" s="4">
+      <c r="E157" s="4">
         <v>154</v>
-      </c>
-      <c r="E157" s="4">
-        <v>157</v>
       </c>
       <c r="F157" s="4">
         <v>157</v>
       </c>
       <c r="G157" s="4">
+        <v>157</v>
+      </c>
+      <c r="H157" s="4">
         <v>155</v>
       </c>
-      <c r="H157" s="4">
+      <c r="I157" s="4">
         <v>157</v>
       </c>
-      <c r="I157" s="4">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J157" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
         <v>283</v>
       </c>
       <c r="C158">
         <v>183</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E158" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G158" s="4">
+      <c r="G158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="4">
         <v>152</v>
       </c>
-      <c r="H158" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I158" s="4" t="s">
         <v>16</v>
       </c>
@@ -7918,17 +8339,17 @@
       <c r="M158" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N158" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C159">
         <v>188</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E159" s="4" t="s">
         <v>16</v>
       </c>
@@ -7950,23 +8371,23 @@
       <c r="K159" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L159" s="4">
+      <c r="L159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M159" s="4">
         <v>110</v>
       </c>
-      <c r="M159" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N159" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B160" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C160">
         <v>190</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E160" s="4" t="s">
         <v>16</v>
       </c>
@@ -7988,32 +8409,32 @@
       <c r="K160" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L160" s="4">
+      <c r="L160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M160" s="4">
         <v>153</v>
       </c>
-      <c r="M160" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N160" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B161" t="s">
         <v>282</v>
       </c>
       <c r="C161">
         <v>187</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E161" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F161" s="4">
+      <c r="F161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="4">
         <v>155</v>
       </c>
-      <c r="G161" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H161" s="4" t="s">
         <v>16</v>
       </c>
@@ -8032,20 +8453,20 @@
       <c r="M161" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N161" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B162" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C162">
         <v>192</v>
       </c>
-      <c r="D162" s="4">
-        <v>162</v>
-      </c>
       <c r="E162" s="4">
         <v>162</v>
       </c>
@@ -8062,10 +8483,10 @@
         <v>162</v>
       </c>
       <c r="J162" s="4">
+        <v>162</v>
+      </c>
+      <c r="K162" s="4">
         <v>157</v>
-      </c>
-      <c r="K162" s="4">
-        <v>162</v>
       </c>
       <c r="L162" s="4">
         <v>162</v>
@@ -8073,20 +8494,20 @@
       <c r="M162" s="4">
         <v>162</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N162" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B163" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C163">
         <v>234</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E163" s="4" t="s">
         <v>16</v>
       </c>
@@ -8108,38 +8529,38 @@
       <c r="K163" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L163" s="4">
+      <c r="L163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M163" s="4">
         <v>32</v>
       </c>
-      <c r="M163" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N163" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
+        <v>580</v>
+      </c>
+      <c r="B164" t="s">
         <v>581</v>
-      </c>
-      <c r="B164" t="s">
-        <v>582</v>
       </c>
       <c r="C164">
         <v>203</v>
       </c>
-      <c r="D164" s="4">
+      <c r="E164" s="4">
         <v>69</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F164" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164" s="4">
         <v>165</v>
       </c>
-      <c r="H164" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I164" s="4" t="s">
         <v>16</v>
       </c>
@@ -8149,40 +8570,40 @@
       <c r="K164" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L164" s="4">
+      <c r="L164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M164" s="4">
         <v>167</v>
       </c>
-      <c r="M164" s="4">
+      <c r="N164" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
+        <v>582</v>
+      </c>
+      <c r="B165" t="s">
         <v>583</v>
-      </c>
-      <c r="B165" t="s">
-        <v>584</v>
       </c>
       <c r="C165">
         <v>205</v>
       </c>
-      <c r="F165" s="4">
+      <c r="G165" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
+        <v>584</v>
+      </c>
+      <c r="B166" t="s">
         <v>585</v>
-      </c>
-      <c r="B166" t="s">
-        <v>586</v>
       </c>
       <c r="C166">
         <v>407</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E166" s="4" t="s">
         <v>16</v>
       </c>
@@ -8204,35 +8625,35 @@
       <c r="K166" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L166" s="4">
+      <c r="L166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M166" s="4">
         <v>165</v>
       </c>
-      <c r="M166" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N166" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
+        <v>586</v>
+      </c>
+      <c r="B167" t="s">
         <v>587</v>
-      </c>
-      <c r="B167" t="s">
-        <v>588</v>
       </c>
       <c r="C167">
         <v>408</v>
       </c>
-      <c r="D167" s="4">
+      <c r="E167" s="4">
         <v>168</v>
       </c>
-      <c r="F167" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" s="4">
+      <c r="G167" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H167" s="4">
         <v>171</v>
       </c>
-      <c r="H167" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I167" s="4" t="s">
         <v>16</v>
       </c>
@@ -8242,29 +8663,29 @@
       <c r="K167" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L167" s="4">
+      <c r="L167" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M167" s="4">
         <v>164</v>
       </c>
-      <c r="M167" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N167" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
+        <v>588</v>
+      </c>
+      <c r="B168" t="s">
         <v>589</v>
-      </c>
-      <c r="B168" t="s">
-        <v>590</v>
       </c>
       <c r="C168">
         <v>409</v>
       </c>
-      <c r="D168" s="4">
+      <c r="E168" s="4">
         <v>169</v>
       </c>
-      <c r="F168" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G168" s="4" t="s">
         <v>16</v>
       </c>
@@ -8277,35 +8698,35 @@
       <c r="J168" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K168" s="4">
+      <c r="K168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L168" s="4">
         <v>171</v>
       </c>
-      <c r="L168" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="M168" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N168" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
+        <v>590</v>
+      </c>
+      <c r="B169" t="s">
         <v>591</v>
-      </c>
-      <c r="B169" t="s">
-        <v>592</v>
       </c>
       <c r="C169">
         <v>410</v>
       </c>
-      <c r="D169" s="4">
+      <c r="E169" s="4">
         <v>170</v>
       </c>
-      <c r="E169" s="4">
+      <c r="F169" s="4">
         <v>168</v>
       </c>
-      <c r="F169" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G169" s="4" t="s">
         <v>16</v>
       </c>
@@ -8327,26 +8748,26 @@
       <c r="M169" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N169" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B170" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C170">
         <v>411</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E170" s="4">
+      <c r="E170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F170" s="4">
         <v>169</v>
       </c>
-      <c r="F170" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G170" s="4" t="s">
         <v>16</v>
       </c>
@@ -8368,32 +8789,32 @@
       <c r="M170" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N170" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
+        <v>594</v>
+      </c>
+      <c r="B171" t="s">
         <v>595</v>
-      </c>
-      <c r="B171" t="s">
-        <v>596</v>
       </c>
       <c r="C171">
         <v>412</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F171" s="4">
+      <c r="F171" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="4">
         <v>167</v>
       </c>
-      <c r="G171" s="4">
+      <c r="H171" s="4">
         <v>172</v>
       </c>
-      <c r="H171" s="4">
+      <c r="I171" s="4">
         <v>168</v>
       </c>
-      <c r="I171" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J171" s="4" t="s">
         <v>16</v>
       </c>
@@ -8403,29 +8824,32 @@
       <c r="L171" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M171" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N171" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
+        <v>596</v>
+      </c>
+      <c r="B172" t="s">
         <v>597</v>
-      </c>
-      <c r="B172" t="s">
-        <v>598</v>
       </c>
       <c r="C172">
         <v>383</v>
       </c>
-      <c r="D172" s="4">
+      <c r="E172" s="4">
         <v>173</v>
       </c>
-      <c r="E172" s="4">
+      <c r="F172" s="4">
         <v>175</v>
       </c>
-      <c r="F172" s="4">
+      <c r="G172" s="4">
         <v>171</v>
       </c>
-      <c r="G172" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H172" s="4" t="s">
         <v>16</v>
       </c>
@@ -8444,26 +8868,26 @@
       <c r="M172" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N172" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
+        <v>598</v>
+      </c>
+      <c r="B173" t="s">
         <v>599</v>
-      </c>
-      <c r="B173" t="s">
-        <v>600</v>
       </c>
       <c r="C173">
         <v>384</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E173" s="4">
+      <c r="E173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" s="4">
         <v>172</v>
       </c>
-      <c r="F173" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G173" s="4" t="s">
         <v>16</v>
       </c>
@@ -8485,29 +8909,29 @@
       <c r="M173" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N173" t="s">
+      <c r="N173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O173" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>602</v>
+      </c>
+      <c r="B174" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>603</v>
-      </c>
-      <c r="B174" t="s">
-        <v>602</v>
       </c>
       <c r="C174">
         <v>405</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E174" s="4">
+      <c r="E174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" s="4">
         <v>175</v>
       </c>
-      <c r="F174" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G174" s="4" t="s">
         <v>16</v>
       </c>
@@ -8523,29 +8947,29 @@
       <c r="K174" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L174" s="4">
+      <c r="L174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M174" s="4">
         <v>173</v>
       </c>
-      <c r="M174" s="4">
+      <c r="N174" s="4">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
+        <v>603</v>
+      </c>
+      <c r="B175" t="s">
         <v>604</v>
-      </c>
-      <c r="B175" t="s">
-        <v>605</v>
       </c>
       <c r="C175">
         <v>406</v>
       </c>
-      <c r="D175" s="4">
+      <c r="E175" s="4">
         <v>174</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F175" s="4" t="s">
         <v>16</v>
       </c>
@@ -8564,38 +8988,38 @@
       <c r="K175" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L175" s="4">
+      <c r="L175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M175" s="4">
         <v>174</v>
       </c>
-      <c r="M175" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="N175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O175" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B176" t="s">
         <v>606</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B176" t="s">
-        <v>607</v>
       </c>
       <c r="C176">
         <v>385</v>
       </c>
-      <c r="D176" s="4">
+      <c r="E176" s="4">
         <v>172</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F176" s="4">
+      <c r="F176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G176" s="4">
         <v>177</v>
       </c>
-      <c r="G176" s="4">
+      <c r="H176" s="4">
         <v>178</v>
       </c>
-      <c r="H176" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I176" s="4" t="s">
         <v>16</v>
       </c>
@@ -8605,39 +9029,72 @@
       <c r="K176" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M176" s="4">
+        <v>179</v>
+      </c>
+      <c r="N176" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B177" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C177">
         <v>386</v>
       </c>
-      <c r="D177" s="4">
+      <c r="E177" s="4">
         <v>176</v>
       </c>
+      <c r="F177" s="4">
+        <v>182</v>
+      </c>
       <c r="G177" s="4">
+        <v>177</v>
+      </c>
+      <c r="H177" s="4">
         <v>178</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I177" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L177" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M177" s="4">
+        <v>180</v>
+      </c>
+      <c r="N177" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C178">
         <v>389</v>
       </c>
-      <c r="D178" s="4">
+      <c r="E178" s="4">
         <v>179</v>
       </c>
-      <c r="E178" s="4">
+      <c r="F178" s="4">
         <v>180</v>
       </c>
-      <c r="F178" s="4">
+      <c r="G178" s="4">
         <v>176</v>
       </c>
-      <c r="H178" s="4" t="s">
-        <v>16</v>
+      <c r="H178" s="4">
+        <v>178</v>
       </c>
       <c r="I178" s="4" t="s">
         <v>16</v>
@@ -8648,19 +9105,34 @@
       <c r="K178" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L178" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M178" s="4">
+        <v>178</v>
+      </c>
+      <c r="N178" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C179">
         <v>390</v>
       </c>
-      <c r="D179" s="4">
+      <c r="E179" s="4">
         <v>178</v>
       </c>
-      <c r="H179" s="4" t="s">
-        <v>16</v>
+      <c r="F179" s="4">
+        <v>180</v>
+      </c>
+      <c r="G179" s="4">
+        <v>176</v>
+      </c>
+      <c r="H179" s="4">
+        <v>178</v>
       </c>
       <c r="I179" s="4" t="s">
         <v>16</v>
@@ -8671,55 +9143,70 @@
       <c r="K179" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L179" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M179" s="4">
+        <v>178</v>
+      </c>
+      <c r="N179" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B180" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C180">
         <v>388</v>
       </c>
-      <c r="D180" s="4">
+      <c r="E180" s="4">
         <v>177</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="F180" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="G180" s="4">
+        <v>182</v>
+      </c>
+      <c r="H180" s="4">
+        <v>179</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L180" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M180" s="4">
+        <v>178</v>
+      </c>
+      <c r="N180" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
         <v>612</v>
       </c>
-      <c r="H180" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I180" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J180" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K180" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M180" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="B181" t="s">
         <v>613</v>
-      </c>
-      <c r="B181" t="s">
-        <v>614</v>
       </c>
       <c r="C181">
         <v>433</v>
       </c>
-      <c r="D181" s="4">
+      <c r="E181" s="4">
         <v>180</v>
       </c>
-      <c r="E181" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F181" s="4" t="s">
         <v>16</v>
       </c>
@@ -8743,6 +9230,226 @@
       </c>
       <c r="M181" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="N181" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B182" t="s">
+        <v>607</v>
+      </c>
+      <c r="C182">
+        <v>387</v>
+      </c>
+      <c r="E182" s="4">
+        <v>177</v>
+      </c>
+      <c r="F182" s="4">
+        <v>180</v>
+      </c>
+      <c r="G182" s="4">
+        <v>182</v>
+      </c>
+      <c r="H182" s="4">
+        <v>176</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M182" s="4">
+        <v>178</v>
+      </c>
+      <c r="N182" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>618</v>
+      </c>
+      <c r="B183" t="s">
+        <v>617</v>
+      </c>
+      <c r="C183">
+        <v>241</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F183" s="4">
+        <v>144</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I183" s="4">
+        <v>184</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N183" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>620</v>
+      </c>
+      <c r="B184" t="s">
+        <v>619</v>
+      </c>
+      <c r="C184">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>624</v>
+      </c>
+      <c r="B185" t="s">
+        <v>623</v>
+      </c>
+      <c r="C185">
+        <v>391</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185" s="4">
+        <v>186</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M185" s="4">
+        <v>73</v>
+      </c>
+      <c r="N185" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>625</v>
+      </c>
+      <c r="B186" t="s">
+        <v>626</v>
+      </c>
+      <c r="C186">
+        <v>393</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O186" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>628</v>
+      </c>
+      <c r="B187" t="s">
+        <v>629</v>
+      </c>
+      <c r="C187">
+        <v>324</v>
+      </c>
+      <c r="G187" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>630</v>
+      </c>
+      <c r="B188" t="s">
+        <v>633</v>
+      </c>
+      <c r="C188">
+        <v>325</v>
+      </c>
+      <c r="E188" s="4">
+        <v>187</v>
+      </c>
+      <c r="H188" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>632</v>
+      </c>
+      <c r="B189" t="s">
+        <v>634</v>
+      </c>
+      <c r="C189">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -8759,14 +9466,14 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="49.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="2" max="2" width="49.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -8780,7 +9487,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -8791,7 +9498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -8802,7 +9509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -8813,7 +9520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -8824,7 +9531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -8838,7 +9545,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>52</v>
       </c>
@@ -8846,7 +9553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -8857,7 +9564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -8868,7 +9575,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>77</v>
       </c>
@@ -8876,7 +9583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -8890,7 +9597,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -8904,7 +9611,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -8915,7 +9622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>118</v>
       </c>
@@ -8926,7 +9633,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -8937,7 +9644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -8948,7 +9655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -8959,7 +9666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>161</v>
       </c>
@@ -8970,7 +9677,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>163</v>
       </c>
@@ -8981,7 +9688,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -8995,7 +9702,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>174</v>
       </c>
@@ -9006,7 +9713,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>183</v>
       </c>
@@ -9017,7 +9724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -9028,7 +9735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -9039,7 +9746,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -9050,7 +9757,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -9061,7 +9768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>258</v>
       </c>
@@ -9072,7 +9779,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>265</v>
       </c>
@@ -9083,7 +9790,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>269</v>
       </c>
@@ -9094,7 +9801,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>278</v>
       </c>
@@ -9105,7 +9812,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>276</v>
       </c>
@@ -9130,12 +9837,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="73.90625" customWidth="1"/>
+    <col min="2" max="2" width="73.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -9146,7 +9853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -9157,7 +9864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -9171,7 +9878,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9179,7 +9886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -9190,7 +9897,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -9198,7 +9905,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -9209,7 +9916,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>290</v>
       </c>
@@ -9234,9 +9941,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -9250,7 +9957,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>305</v>
       </c>
@@ -9261,7 +9968,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -9275,7 +9982,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -9286,7 +9993,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>316</v>
       </c>
@@ -9297,7 +10004,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>311</v>
       </c>
@@ -9308,7 +10015,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -9322,7 +10029,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>312</v>
       </c>
@@ -9333,7 +10040,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -9344,7 +10051,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>304</v>
       </c>
@@ -9355,7 +10062,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>318</v>
       </c>
@@ -9366,7 +10073,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>317</v>
       </c>
@@ -9377,7 +10084,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>302</v>
       </c>
@@ -9388,7 +10095,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -9399,7 +10106,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>300</v>
       </c>
@@ -9410,7 +10117,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>299</v>
       </c>
@@ -9421,7 +10128,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>314</v>
       </c>
@@ -9449,9 +10156,9 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -9459,7 +10166,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9467,7 +10174,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>393</v>
       </c>
@@ -9475,7 +10182,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>401</v>
       </c>
@@ -9483,7 +10190,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>355</v>
       </c>
@@ -9494,7 +10201,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>357</v>
       </c>
@@ -9505,7 +10212,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>363</v>
       </c>
@@ -9516,7 +10223,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>395</v>
       </c>
@@ -9527,7 +10234,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>375</v>
       </c>
@@ -9535,7 +10242,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>348</v>
       </c>
@@ -9543,7 +10250,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -9554,7 +10261,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>352</v>
       </c>
@@ -9565,7 +10272,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>384</v>
       </c>
@@ -9576,7 +10283,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>347</v>
       </c>
@@ -9584,7 +10291,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>415</v>
       </c>
@@ -9592,7 +10299,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>392</v>
       </c>
@@ -9600,7 +10307,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>380</v>
       </c>
@@ -9608,7 +10315,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>410</v>
       </c>
@@ -9616,7 +10323,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>349</v>
       </c>
@@ -9624,7 +10331,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>378</v>
       </c>
@@ -9635,7 +10342,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>359</v>
       </c>
@@ -9646,7 +10353,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>413</v>
       </c>
@@ -9657,7 +10364,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>405</v>
       </c>
@@ -9668,7 +10375,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>376</v>
       </c>
@@ -9676,7 +10383,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>370</v>
       </c>
@@ -9684,7 +10391,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>386</v>
       </c>
@@ -9692,7 +10399,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>387</v>
       </c>
@@ -9700,7 +10407,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>354</v>
       </c>
@@ -9708,7 +10415,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>351</v>
       </c>
@@ -9716,7 +10423,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>398</v>
       </c>
@@ -9727,7 +10434,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>408</v>
       </c>
@@ -9738,7 +10445,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>361</v>
       </c>
@@ -9746,7 +10453,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>362</v>
       </c>
@@ -9754,7 +10461,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>377</v>
       </c>
@@ -9762,7 +10469,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>390</v>
       </c>
@@ -9770,7 +10477,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>345</v>
       </c>
@@ -9778,7 +10485,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>343</v>
       </c>
@@ -9786,7 +10493,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>397</v>
       </c>
@@ -9794,7 +10501,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>381</v>
       </c>
@@ -9805,7 +10512,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>388</v>
       </c>
@@ -9816,7 +10523,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>407</v>
       </c>
@@ -9824,7 +10531,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>344</v>
       </c>
@@ -9832,7 +10539,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>411</v>
       </c>
@@ -9840,7 +10547,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>369</v>
       </c>
@@ -9848,7 +10555,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>383</v>
       </c>
@@ -9856,7 +10563,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>367</v>
       </c>
@@ -9867,7 +10574,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>350</v>
       </c>
@@ -9875,7 +10582,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>372</v>
       </c>
@@ -9883,7 +10590,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>371</v>
       </c>
@@ -9891,7 +10598,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>373</v>
       </c>
@@ -9902,7 +10609,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>402</v>
       </c>
@@ -9913,7 +10620,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>342</v>
       </c>
@@ -9921,7 +10628,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>346</v>
       </c>
@@ -9929,7 +10636,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>523</v>
       </c>
@@ -9937,7 +10644,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>522</v>
       </c>
@@ -9945,7 +10652,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>391</v>
       </c>
@@ -9953,7 +10660,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>404</v>
       </c>
@@ -9961,7 +10668,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>412</v>
       </c>
@@ -9969,42 +10676,42 @@
         <v>610</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>531</v>
       </c>
@@ -10014,6 +10721,7 @@
     <sortCondition ref="B1:B66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10025,9 +10733,9 @@
       <selection activeCell="A9" sqref="A9:B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>457</v>
       </c>
@@ -10035,7 +10743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>506</v>
       </c>
@@ -10043,7 +10751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>440</v>
       </c>
@@ -10051,7 +10759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -10059,7 +10767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -10067,7 +10775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>479</v>
       </c>
@@ -10075,7 +10783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>503</v>
       </c>
@@ -10083,7 +10791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>450</v>
       </c>
@@ -10091,7 +10799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>533</v>
       </c>
@@ -10099,7 +10807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>448</v>
       </c>
@@ -10107,7 +10815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>478</v>
       </c>
@@ -10115,7 +10823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>442</v>
       </c>
@@ -10123,7 +10831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -10131,7 +10839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>514</v>
       </c>
@@ -10139,7 +10847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>471</v>
       </c>
@@ -10147,7 +10855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>419</v>
       </c>
@@ -10155,7 +10863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>456</v>
       </c>
@@ -10163,7 +10871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>438</v>
       </c>
@@ -10171,7 +10879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>511</v>
       </c>
@@ -10179,7 +10887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>505</v>
       </c>
@@ -10187,7 +10895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>497</v>
       </c>
@@ -10195,7 +10903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>465</v>
       </c>
@@ -10203,7 +10911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>491</v>
       </c>
@@ -10211,7 +10919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -10219,7 +10927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>496</v>
       </c>
@@ -10227,7 +10935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>422</v>
       </c>
@@ -10235,7 +10943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>420</v>
       </c>
@@ -10243,7 +10951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>437</v>
       </c>
@@ -10251,7 +10959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>418</v>
       </c>
@@ -10259,7 +10967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>433</v>
       </c>
@@ -10267,7 +10975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>455</v>
       </c>
@@ -10275,7 +10983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>436</v>
       </c>
@@ -10283,7 +10991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>495</v>
       </c>
@@ -10291,7 +10999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>462</v>
       </c>
@@ -10299,7 +11007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>432</v>
       </c>
@@ -10307,7 +11015,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>430</v>
       </c>
@@ -10315,7 +11023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>446</v>
       </c>
@@ -10323,7 +11031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>513</v>
       </c>
@@ -10331,7 +11039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>459</v>
       </c>
@@ -10339,7 +11047,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>517</v>
       </c>
@@ -10347,7 +11055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>483</v>
       </c>
@@ -10355,7 +11063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>447</v>
       </c>
@@ -10363,7 +11071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>493</v>
       </c>
@@ -10371,7 +11079,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>521</v>
       </c>
@@ -10379,7 +11087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>484</v>
       </c>
@@ -10387,7 +11095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>476</v>
       </c>
@@ -10395,7 +11103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>490</v>
       </c>
@@ -10403,7 +11111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>499</v>
       </c>
@@ -10411,7 +11119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>421</v>
       </c>
@@ -10419,7 +11127,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>427</v>
       </c>
@@ -10427,7 +11135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>487</v>
       </c>
@@ -10435,7 +11143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>502</v>
       </c>
@@ -10443,7 +11151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>494</v>
       </c>
@@ -10451,7 +11159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>532</v>
       </c>
@@ -10459,7 +11167,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>473</v>
       </c>
@@ -10467,7 +11175,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>480</v>
       </c>
@@ -10475,7 +11183,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>461</v>
       </c>
@@ -10483,7 +11191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>482</v>
       </c>
@@ -10491,7 +11199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>435</v>
       </c>
@@ -10499,7 +11207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>489</v>
       </c>
@@ -10507,7 +11215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>458</v>
       </c>
@@ -10515,7 +11223,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>443</v>
       </c>
@@ -10523,7 +11231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>474</v>
       </c>
@@ -10531,7 +11239,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>515</v>
       </c>
@@ -10539,7 +11247,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>428</v>
       </c>
@@ -10547,7 +11255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>516</v>
       </c>
@@ -10555,7 +11263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>492</v>
       </c>
@@ -10563,7 +11271,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>444</v>
       </c>
@@ -10571,7 +11279,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>475</v>
       </c>
@@ -10579,7 +11287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>520</v>
       </c>
@@ -10587,7 +11295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>500</v>
       </c>
@@ -10595,7 +11303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>439</v>
       </c>
@@ -10603,7 +11311,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>501</v>
       </c>
@@ -10611,7 +11319,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>460</v>
       </c>
@@ -10619,7 +11327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>486</v>
       </c>
@@ -10627,7 +11335,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>434</v>
       </c>
@@ -10635,7 +11343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>452</v>
       </c>
@@ -10643,7 +11351,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>424</v>
       </c>
@@ -10651,7 +11359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>504</v>
       </c>
@@ -10659,7 +11367,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>441</v>
       </c>
@@ -10667,7 +11375,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>463</v>
       </c>
@@ -10675,7 +11383,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>464</v>
       </c>
@@ -10683,7 +11391,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>426</v>
       </c>
@@ -10691,7 +11399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>423</v>
       </c>
@@ -10699,7 +11407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>488</v>
       </c>
@@ -10707,7 +11415,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>481</v>
       </c>
@@ -10715,7 +11423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>477</v>
       </c>
@@ -10723,7 +11431,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>431</v>
       </c>
@@ -10731,7 +11439,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>466</v>
       </c>
@@ -10739,7 +11447,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>451</v>
       </c>
@@ -10747,7 +11455,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>425</v>
       </c>
@@ -10755,7 +11463,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>519</v>
       </c>
@@ -10763,7 +11471,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>472</v>
       </c>
@@ -10771,7 +11479,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>449</v>
       </c>
@@ -10779,7 +11487,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>417</v>
       </c>
@@ -10787,7 +11495,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>507</v>
       </c>
@@ -10795,7 +11503,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>509</v>
       </c>
@@ -10803,7 +11511,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>518</v>
       </c>
@@ -10811,7 +11519,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>469</v>
       </c>
@@ -10819,7 +11527,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>470</v>
       </c>
@@ -10827,7 +11535,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>454</v>
       </c>
@@ -10835,7 +11543,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>512</v>
       </c>
@@ -10843,7 +11551,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>485</v>
       </c>
@@ -10851,7 +11559,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>508</v>
       </c>
@@ -10859,7 +11567,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>445</v>
       </c>
@@ -10867,7 +11575,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>453</v>
       </c>
@@ -10875,7 +11583,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>468</v>
       </c>
@@ -10888,5 +11596,6 @@
     <sortCondition ref="B1:B107"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7F42A3-D615-44E3-9D88-56CF5DC2E27D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2B308-AC3C-4490-829F-236D995E0514}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9848" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="658">
   <si>
     <t>Long description</t>
   </si>
@@ -752,9 +752,6 @@
     <t>You're on SW side of chasm.</t>
   </si>
   <si>
-    <t>The troll refuses to let you cross</t>
-  </si>
-  <si>
     <t>You are on one side of a large, deep chasm.  A heavy white mist rising up from  below obscures all view of the far side.  A SW path leads away from the chasm into a winding corridor. A  rickety  wooden  bridge  extends  across the chasm, vanishing into the mist.  A sign posted on the bridge reads, "STOP!  Pay troll!"</t>
   </si>
   <si>
@@ -1950,6 +1947,63 @@
   </si>
   <si>
     <t xml:space="preserve">0.75 80, 0.25 </t>
+  </si>
+  <si>
+    <t>The troll refuses to let you cross - pay troll - 190</t>
+  </si>
+  <si>
+    <t>You're on NE side of chasm.</t>
+  </si>
+  <si>
+    <t>You  are  on  the  far  side of the chasm.  A NE path leads away from the chasm on this side.</t>
+  </si>
+  <si>
+    <t>88 - troll</t>
+  </si>
+  <si>
+    <t>You're in a long east/west corridor.  A faint rumbling noise can be heard in the distance.</t>
+  </si>
+  <si>
+    <t>You're in corridor.</t>
+  </si>
+  <si>
+    <t>The  path  forks  here.   The left fork leads northeast.  A dull rumbling seems to get louder in that direction.  The right  fork  leads  southeast down a gentle slope.  The main corridor enters from the west.</t>
+  </si>
+  <si>
+    <t>You're at fork in path.</t>
+  </si>
+  <si>
+    <t>You  are  walking  along  a gently sloping north/south passage lined with oddly shaped limestone formations.</t>
+  </si>
+  <si>
+    <t>You're in limestone passage.</t>
+  </si>
+  <si>
+    <t>You are at entrance of the barren room.</t>
+  </si>
+  <si>
+    <t>You  are standing at the entrance to a large, barren room.  A sign posted above the entrance reads: "Caution!  Bear in room!"</t>
+  </si>
+  <si>
+    <t>The  walls  are  quite  warm  here.  From the north can be heard a steady roar, so loud that the  entire  cave  seems  to  be  trembling.   Another passage leads south, and a low crawl goes east.</t>
+  </si>
+  <si>
+    <t>You're at junction with warm walls.</t>
+  </si>
+  <si>
+    <t>You're at breath-taking view.</t>
+  </si>
+  <si>
+    <t>You  are on the edge of a breath-taking view.  Far below you is an active volcano, from  which  great  gouts  of  molten  lava  come  surging  out, cascading back down into the depths.  The glowing rock fills the farthest reaches  of  the  cavern  with  a blood-red glare, giving every- thing an eerie, macabre appearance.  The air is filled with flickering  sparks  of ash  and a heavy smell of brimstone.  The walls are hot to the touch, and the thundering of the volcano drowns out all other sounds.   Embedded  in the  jagged  roof  far overhead are myriad twisted formations composed of pure white  alabaster,  which  scatter  the  murky  light  into  sinister apparitions  upon  the walls.  To one side is a deep gorge, filled with a bizarre chaos of tortured rock which seems to have been  crafted  by  the devil  himself.   An immense river of fire crashes out from the depths of the volcano, burns its  way  through  the  gorge,  and  plummets  into  a bottomless pit far off to your left.  Across the gorge, the entrance to a valley  is dimly visible.  To the right, an enormous geyser of blistering steam erupts continuously from  a  barren  island  in  the  center  of  a sulfurous  lake,  which  bubbles ominously.  The far right wall is aflame with an incandescence of its own,  which  lends  an  additional  infernal splendor  to the already hellish scene.  A dark, foreboding passage exits to the south.</t>
+  </si>
+  <si>
+    <t>You're in chamber of boulders.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  small chamber filled with large boulders.  The walls are very warm, causing the air in the room to be  almost  stifling  from  the heat.   The  only exit is a crawl heading west, through which is coming a low rumbling.</t>
+  </si>
+  <si>
+    <t>You are in the barren room.</t>
   </si>
 </sst>
 </file>
@@ -2332,23 +2386,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:P189"/>
+  <dimension ref="A1:P198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.796875" customWidth="1"/>
-    <col min="2" max="2" width="40.19921875" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="14" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" customWidth="1"/>
+    <col min="5" max="14" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2356,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -2392,12 +2446,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C2" s="1">
         <v>136</v>
@@ -2433,7 +2487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2462,7 +2516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2488,9 +2542,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -2502,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2537,7 +2591,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2572,7 +2626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2622,7 +2676,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2654,7 +2708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -2674,7 +2728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2697,7 +2751,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2741,7 +2795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2785,7 +2839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2832,7 +2886,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2876,7 +2930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2920,7 +2974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2961,10 +3015,10 @@
         <v>16</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3008,7 +3062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -3052,7 +3106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -3096,7 +3150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -3143,7 +3197,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3187,7 +3241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3231,7 +3285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -3275,7 +3329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -3319,7 +3373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -3363,7 +3417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -3407,7 +3461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -3451,7 +3505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -3495,7 +3549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3539,7 +3593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -3559,7 +3613,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H31" s="4">
         <v>30</v>
@@ -3583,7 +3637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -3627,7 +3681,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -3671,7 +3725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -3718,7 +3772,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -3762,7 +3816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -3806,7 +3860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -3850,7 +3904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -3894,7 +3948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -3938,7 +3992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -3982,7 +4036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -4026,7 +4080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -4070,7 +4124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -4114,7 +4168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -4158,7 +4212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>132</v>
       </c>
@@ -4199,7 +4253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>133</v>
       </c>
@@ -4234,7 +4288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>134</v>
       </c>
@@ -4269,7 +4323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>135</v>
       </c>
@@ -4307,7 +4361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>136</v>
       </c>
@@ -4342,7 +4396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -4371,7 +4425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>138</v>
       </c>
@@ -4406,7 +4460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>139</v>
       </c>
@@ -4447,7 +4501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>140</v>
       </c>
@@ -4479,7 +4533,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>141</v>
       </c>
@@ -4514,7 +4568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>142</v>
       </c>
@@ -4552,9 +4606,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
@@ -4596,7 +4650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -4640,7 +4694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -4684,7 +4738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>150</v>
       </c>
@@ -4728,7 +4782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -4772,7 +4826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -4816,7 +4870,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -4860,7 +4914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -4904,7 +4958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>177</v>
       </c>
@@ -4951,7 +5005,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -4995,7 +5049,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -5039,9 +5093,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B67" t="s">
         <v>181</v>
@@ -5053,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F67" s="4">
         <v>66</v>
@@ -5083,7 +5137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -5127,9 +5181,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B69" t="s">
         <v>193</v>
@@ -5147,7 +5201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>195</v>
       </c>
@@ -5161,10 +5215,10 @@
         <v>4</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G70" s="4">
         <v>28</v>
@@ -5188,13 +5242,13 @@
         <v>232</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -5211,7 +5265,7 @@
         <v>16</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G71" s="4">
         <v>72</v>
@@ -5223,7 +5277,7 @@
         <v>70</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>16</v>
@@ -5238,7 +5292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -5282,9 +5336,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B73" t="s">
         <v>200</v>
@@ -5326,9 +5380,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B74" t="s">
         <v>201</v>
@@ -5367,7 +5421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -5408,7 +5462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -5455,9 +5509,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B77" t="s">
         <v>210</v>
@@ -5496,7 +5550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>215</v>
       </c>
@@ -5537,7 +5591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>216</v>
       </c>
@@ -5578,7 +5632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>217</v>
       </c>
@@ -5619,7 +5673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>218</v>
       </c>
@@ -5663,7 +5717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>220</v>
       </c>
@@ -5695,7 +5749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>222</v>
       </c>
@@ -5724,7 +5778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>224</v>
       </c>
@@ -5750,7 +5804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>226</v>
       </c>
@@ -5770,9 +5824,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
         <v>230</v>
@@ -5811,7 +5865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>231</v>
       </c>
@@ -5849,7 +5903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>238</v>
       </c>
@@ -5890,16 +5944,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>239</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C89">
         <v>244</v>
       </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
       <c r="E89" s="4" t="s">
         <v>16</v>
       </c>
@@ -5913,7 +5970,7 @@
         <v>16</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>240</v>
+        <v>639</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>16</v>
@@ -5931,12 +5988,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C90">
         <v>227</v>
@@ -5963,12 +6020,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C91">
         <v>194</v>
@@ -6004,12 +6061,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C92">
         <v>371</v>
@@ -6024,7 +6081,7 @@
         <v>16</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>16</v>
@@ -6045,12 +6102,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93">
         <v>372</v>
@@ -6086,12 +6143,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C94">
         <v>375</v>
@@ -6127,12 +6184,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C95">
         <v>373</v>
@@ -6168,12 +6225,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C96">
         <v>374</v>
@@ -6209,12 +6266,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C97">
         <v>376</v>
@@ -6250,12 +6307,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C98">
         <v>377</v>
@@ -6291,12 +6348,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C99">
         <v>138</v>
@@ -6332,12 +6389,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>16</v>
@@ -6370,12 +6427,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>16</v>
@@ -6408,9 +6465,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C102">
         <v>168</v>
@@ -6446,9 +6503,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C103">
         <v>171</v>
@@ -6484,9 +6541,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C104">
         <v>169</v>
@@ -6522,9 +6579,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C105">
         <v>191</v>
@@ -6560,9 +6617,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C106">
         <v>170</v>
@@ -6598,9 +6655,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C107">
         <v>185</v>
@@ -6636,9 +6693,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C108">
         <v>182</v>
@@ -6674,9 +6731,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C109">
         <v>173</v>
@@ -6712,9 +6769,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C110">
         <v>175</v>
@@ -6750,9 +6807,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C111">
         <v>178</v>
@@ -6761,12 +6818,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C112">
         <v>216</v>
@@ -6802,12 +6859,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B113" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C113">
         <v>217</v>
@@ -6843,12 +6900,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B114" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C114">
         <v>219</v>
@@ -6884,12 +6941,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C115">
         <v>397</v>
@@ -6922,15 +6979,15 @@
         <v>16</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B116" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C116">
         <v>396</v>
@@ -6963,15 +7020,15 @@
         <v>16</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C117">
         <v>432</v>
@@ -6980,30 +7037,30 @@
         <v>117</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I117" s="4">
         <v>116</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B118" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C118">
         <v>458</v>
@@ -7018,9 +7075,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C119">
         <v>442</v>
@@ -7035,9 +7092,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C120">
         <v>460</v>
@@ -7070,9 +7127,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C121">
         <v>454</v>
@@ -7093,9 +7150,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C122">
         <v>449</v>
@@ -7119,9 +7176,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C123">
         <v>447</v>
@@ -7142,9 +7199,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C124">
         <v>459</v>
@@ -7165,9 +7222,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C125">
         <v>444</v>
@@ -7185,9 +7242,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C126">
         <v>443</v>
@@ -7211,9 +7268,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C127">
         <v>448</v>
@@ -7249,9 +7306,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C128">
         <v>446</v>
@@ -7281,9 +7338,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C129">
         <v>445</v>
@@ -7307,9 +7364,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C130">
         <v>456</v>
@@ -7318,9 +7375,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C131">
         <v>451</v>
@@ -7338,9 +7395,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C132">
         <v>452</v>
@@ -7355,9 +7412,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C133">
         <v>453</v>
@@ -7369,12 +7426,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B134" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C134">
         <v>209</v>
@@ -7410,12 +7467,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B135" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C135">
         <v>156</v>
@@ -7451,12 +7508,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>543</v>
+      </c>
+      <c r="B136" t="s">
         <v>544</v>
-      </c>
-      <c r="B136" t="s">
-        <v>545</v>
       </c>
       <c r="C136">
         <v>159</v>
@@ -7492,15 +7549,15 @@
         <v>16</v>
       </c>
       <c r="O136" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B137" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C137">
         <v>158</v>
@@ -7536,12 +7593,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B138" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C138">
         <v>220</v>
@@ -7574,12 +7631,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>552</v>
+      </c>
+      <c r="B139" t="s">
         <v>553</v>
-      </c>
-      <c r="B139" t="s">
-        <v>554</v>
       </c>
       <c r="C139">
         <v>222</v>
@@ -7615,12 +7672,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B140" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C140">
         <v>322</v>
@@ -7653,18 +7710,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B141" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C141">
         <v>323</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F141" s="4">
         <v>140</v>
@@ -7694,12 +7751,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B142" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C142">
         <v>223</v>
@@ -7735,12 +7792,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>559</v>
+      </c>
+      <c r="B143" t="s">
         <v>560</v>
-      </c>
-      <c r="B143" t="s">
-        <v>561</v>
       </c>
       <c r="C143">
         <v>224</v>
@@ -7773,15 +7830,15 @@
         <v>16</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B144" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C144">
         <v>240</v>
@@ -7790,39 +7847,39 @@
         <v>183</v>
       </c>
       <c r="F144" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>563</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M144" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N144" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
         <v>564</v>
-      </c>
-      <c r="B145" t="s">
-        <v>565</v>
       </c>
       <c r="C145">
         <v>434</v>
@@ -7858,12 +7915,12 @@
         <v>16</v>
       </c>
       <c r="O145" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
-        <v>568</v>
       </c>
       <c r="C146">
         <v>221</v>
@@ -7896,12 +7953,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B147" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C147">
         <v>430</v>
@@ -7937,9 +7994,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C148">
         <v>431</v>
@@ -7972,9 +8029,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C149">
         <v>189</v>
@@ -8010,9 +8067,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C150">
         <v>172</v>
@@ -8048,9 +8105,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C151">
         <v>174</v>
@@ -8086,9 +8143,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C152">
         <v>176</v>
@@ -8124,9 +8181,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C153">
         <v>177</v>
@@ -8162,12 +8219,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B154" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C154">
         <v>193</v>
@@ -8203,9 +8260,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C155">
         <v>179</v>
@@ -8241,9 +8298,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C156">
         <v>186</v>
@@ -8279,9 +8336,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C157">
         <v>180</v>
@@ -8305,9 +8362,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C158">
         <v>183</v>
@@ -8343,9 +8400,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C159">
         <v>188</v>
@@ -8381,9 +8438,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C160">
         <v>190</v>
@@ -8419,9 +8476,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C161">
         <v>187</v>
@@ -8457,12 +8514,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B162" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C162">
         <v>192</v>
@@ -8498,12 +8555,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B163" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C163">
         <v>234</v>
@@ -8539,12 +8596,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>579</v>
+      </c>
+      <c r="B164" t="s">
         <v>580</v>
-      </c>
-      <c r="B164" t="s">
-        <v>581</v>
       </c>
       <c r="C164">
         <v>203</v>
@@ -8580,12 +8637,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>581</v>
+      </c>
+      <c r="B165" t="s">
         <v>582</v>
-      </c>
-      <c r="B165" t="s">
-        <v>583</v>
       </c>
       <c r="C165">
         <v>205</v>
@@ -8594,12 +8651,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>583</v>
+      </c>
+      <c r="B166" t="s">
         <v>584</v>
-      </c>
-      <c r="B166" t="s">
-        <v>585</v>
       </c>
       <c r="C166">
         <v>407</v>
@@ -8635,12 +8692,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>585</v>
+      </c>
+      <c r="B167" t="s">
         <v>586</v>
-      </c>
-      <c r="B167" t="s">
-        <v>587</v>
       </c>
       <c r="C167">
         <v>408</v>
@@ -8673,12 +8730,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>587</v>
+      </c>
+      <c r="B168" t="s">
         <v>588</v>
-      </c>
-      <c r="B168" t="s">
-        <v>589</v>
       </c>
       <c r="C168">
         <v>409</v>
@@ -8711,12 +8768,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>589</v>
+      </c>
+      <c r="B169" t="s">
         <v>590</v>
-      </c>
-      <c r="B169" t="s">
-        <v>591</v>
       </c>
       <c r="C169">
         <v>410</v>
@@ -8752,12 +8809,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B170" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C170">
         <v>411</v>
@@ -8793,12 +8850,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>593</v>
+      </c>
+      <c r="B171" t="s">
         <v>594</v>
-      </c>
-      <c r="B171" t="s">
-        <v>595</v>
       </c>
       <c r="C171">
         <v>412</v>
@@ -8831,12 +8888,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>595</v>
+      </c>
+      <c r="B172" t="s">
         <v>596</v>
-      </c>
-      <c r="B172" t="s">
-        <v>597</v>
       </c>
       <c r="C172">
         <v>383</v>
@@ -8845,7 +8902,7 @@
         <v>173</v>
       </c>
       <c r="F172" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G172" s="4">
         <v>171</v>
@@ -8872,12 +8929,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>597</v>
+      </c>
+      <c r="B173" t="s">
         <v>598</v>
-      </c>
-      <c r="B173" t="s">
-        <v>599</v>
       </c>
       <c r="C173">
         <v>384</v>
@@ -8913,15 +8970,15 @@
         <v>16</v>
       </c>
       <c r="O173" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>601</v>
+      </c>
+      <c r="B174" t="s">
         <v>600</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
-        <v>602</v>
-      </c>
-      <c r="B174" t="s">
-        <v>601</v>
       </c>
       <c r="C174">
         <v>405</v>
@@ -8957,12 +9014,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>602</v>
+      </c>
+      <c r="B175" t="s">
         <v>603</v>
-      </c>
-      <c r="B175" t="s">
-        <v>604</v>
       </c>
       <c r="C175">
         <v>406</v>
@@ -8998,12 +9055,12 @@
         <v>16</v>
       </c>
       <c r="O175" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B176" t="s">
-        <v>606</v>
       </c>
       <c r="C176">
         <v>385</v>
@@ -9039,9 +9096,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C177">
         <v>386</v>
@@ -9077,9 +9134,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C178">
         <v>389</v>
@@ -9115,9 +9172,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C179">
         <v>390</v>
@@ -9153,12 +9210,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B180" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C180">
         <v>388</v>
@@ -9167,7 +9224,7 @@
         <v>177</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G180" s="4">
         <v>182</v>
@@ -9194,12 +9251,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>611</v>
+      </c>
+      <c r="B181" t="s">
         <v>612</v>
-      </c>
-      <c r="B181" t="s">
-        <v>613</v>
       </c>
       <c r="C181">
         <v>433</v>
@@ -9235,9 +9292,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C182">
         <v>387</v>
@@ -9273,12 +9330,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B183" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C183">
         <v>241</v>
@@ -9314,23 +9371,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B184" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C184">
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B185" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C185">
         <v>391</v>
@@ -9366,12 +9423,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>624</v>
+      </c>
+      <c r="B186" t="s">
         <v>625</v>
-      </c>
-      <c r="B186" t="s">
-        <v>626</v>
       </c>
       <c r="C186">
         <v>393</v>
@@ -9407,15 +9464,15 @@
         <v>16</v>
       </c>
       <c r="O186" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
+      <c r="B187" t="s">
         <v>628</v>
-      </c>
-      <c r="B187" t="s">
-        <v>629</v>
       </c>
       <c r="C187">
         <v>324</v>
@@ -9424,12 +9481,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B188" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C188">
         <v>325</v>
@@ -9441,15 +9498,402 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B189" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C189">
         <v>326</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>640</v>
+      </c>
+      <c r="B190" t="s">
+        <v>641</v>
+      </c>
+      <c r="C190">
+        <v>245</v>
+      </c>
+      <c r="D190">
+        <v>4</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I190" s="4">
+        <v>191</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L190" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="M190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N190" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>644</v>
+      </c>
+      <c r="B191" t="s">
+        <v>643</v>
+      </c>
+      <c r="C191">
+        <v>249</v>
+      </c>
+      <c r="D191">
+        <v>4</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" s="4">
+        <v>192</v>
+      </c>
+      <c r="H191" s="4">
+        <v>190</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L191" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M191" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N191" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>646</v>
+      </c>
+      <c r="B192" t="s">
+        <v>645</v>
+      </c>
+      <c r="C192">
+        <v>250</v>
+      </c>
+      <c r="D192">
+        <v>4</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" s="4">
+        <v>191</v>
+      </c>
+      <c r="I192" s="4">
+        <v>195</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K192" s="4">
+        <v>193</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M192" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N192" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>648</v>
+      </c>
+      <c r="B193" t="s">
+        <v>647</v>
+      </c>
+      <c r="C193">
+        <v>297</v>
+      </c>
+      <c r="D193">
+        <v>4</v>
+      </c>
+      <c r="E193" s="4">
+        <v>192</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M193" s="4">
+        <v>192</v>
+      </c>
+      <c r="N193" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>649</v>
+      </c>
+      <c r="B194" t="s">
+        <v>650</v>
+      </c>
+      <c r="C194">
+        <v>298</v>
+      </c>
+      <c r="D194">
+        <v>4</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G194" s="4">
+        <v>198</v>
+      </c>
+      <c r="H194" s="4">
+        <v>193</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M194" s="4">
+        <v>193</v>
+      </c>
+      <c r="N194" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>652</v>
+      </c>
+      <c r="B195" t="s">
+        <v>651</v>
+      </c>
+      <c r="C195">
+        <v>251</v>
+      </c>
+      <c r="D195">
+        <v>4</v>
+      </c>
+      <c r="E195" s="4">
+        <v>196</v>
+      </c>
+      <c r="F195" s="4">
+        <v>192</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L195" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M195" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N195" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>653</v>
+      </c>
+      <c r="B196" t="s">
+        <v>654</v>
+      </c>
+      <c r="C196">
+        <v>252</v>
+      </c>
+      <c r="D196">
+        <v>4</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F196" s="4">
+        <v>195</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N196" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>655</v>
+      </c>
+      <c r="B197" t="s">
+        <v>656</v>
+      </c>
+      <c r="C197">
+        <v>296</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" s="4">
+        <v>195</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N197" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>657</v>
+      </c>
+      <c r="C198">
+        <v>299</v>
+      </c>
+      <c r="D198">
+        <v>4</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H198" s="4">
+        <v>194</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N198" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -9466,14 +9910,14 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" customWidth="1"/>
-    <col min="2" max="2" width="49.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="49.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -9487,7 +9931,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -9498,7 +9942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -9509,7 +9953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -9520,7 +9964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -9531,7 +9975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -9545,7 +9989,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>52</v>
       </c>
@@ -9553,7 +9997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -9564,7 +10008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -9575,7 +10019,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>77</v>
       </c>
@@ -9583,7 +10027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -9597,7 +10041,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -9611,7 +10055,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -9622,7 +10066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>118</v>
       </c>
@@ -9633,7 +10077,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -9644,7 +10088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -9655,7 +10099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -9666,7 +10110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>161</v>
       </c>
@@ -9677,7 +10121,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>163</v>
       </c>
@@ -9688,7 +10132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -9702,7 +10146,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>174</v>
       </c>
@@ -9713,7 +10157,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>183</v>
       </c>
@@ -9724,7 +10168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -9735,7 +10179,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -9746,7 +10190,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -9757,7 +10201,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -9768,59 +10212,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" t="s">
         <v>265</v>
-      </c>
-      <c r="B28" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>269</v>
-      </c>
-      <c r="B29" t="s">
-        <v>266</v>
       </c>
       <c r="C29" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" s="4">
         <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -9837,12 +10281,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="73.9296875" customWidth="1"/>
+    <col min="2" max="2" width="73.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -9853,7 +10297,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -9864,7 +10308,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -9878,7 +10322,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9886,7 +10330,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -9897,7 +10341,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -9905,7 +10349,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -9916,15 +10360,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" t="s">
         <v>288</v>
-      </c>
-      <c r="C8" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -9941,119 +10385,119 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" t="s">
         <v>291</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>292</v>
       </c>
-      <c r="C1" t="s">
-        <v>293</v>
-      </c>
       <c r="D1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" t="s">
         <v>305</v>
-      </c>
-      <c r="B2" t="s">
-        <v>306</v>
       </c>
       <c r="D2">
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
         <v>294</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>295</v>
-      </c>
-      <c r="C3" t="s">
-        <v>296</v>
       </c>
       <c r="D3">
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
         <v>307</v>
-      </c>
-      <c r="B4" t="s">
-        <v>308</v>
       </c>
       <c r="D4">
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D5">
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D6">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" t="s">
         <v>297</v>
       </c>
-      <c r="B7" t="s">
-        <v>298</v>
-      </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D7">
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" t="s">
         <v>312</v>
-      </c>
-      <c r="B8" t="s">
-        <v>313</v>
       </c>
       <c r="D8">
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" t="s">
         <v>309</v>
-      </c>
-      <c r="B9" t="s">
-        <v>310</v>
       </c>
       <c r="D9">
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -10062,78 +10506,78 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11">
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D12">
         <v>506</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" t="s">
         <v>302</v>
-      </c>
-      <c r="B13" t="s">
-        <v>303</v>
       </c>
       <c r="D13">
         <v>507</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D14">
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D15">
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D16">
         <v>510</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" t="s">
         <v>314</v>
-      </c>
-      <c r="B17" t="s">
-        <v>315</v>
       </c>
       <c r="D17">
         <v>511</v>
@@ -10156,564 +10600,564 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B1">
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B2">
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B3">
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B4">
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B5">
         <v>526</v>
       </c>
       <c r="C5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>357</v>
       </c>
       <c r="B6">
         <v>527</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7">
         <v>528</v>
       </c>
       <c r="C7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B8">
         <v>530</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B9">
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B10">
         <v>532</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B11">
         <v>534</v>
       </c>
       <c r="C11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B12">
         <v>535</v>
       </c>
       <c r="C12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B13">
         <v>536</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14">
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B15">
         <v>539</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B16">
         <v>540</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B17">
         <v>541</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B18">
         <v>542</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B19">
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B20">
         <v>545</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B21">
         <v>546</v>
       </c>
       <c r="C21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B22">
         <v>547</v>
       </c>
       <c r="C22" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B23">
         <v>548</v>
       </c>
       <c r="C23" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B24">
         <v>549</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B25">
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B26">
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B27">
         <v>553</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B28">
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B29">
         <v>555</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B30">
         <v>556</v>
       </c>
       <c r="C30" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B31">
         <v>557</v>
       </c>
       <c r="C31" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B32">
         <v>559</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B33">
         <v>560</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B34">
         <v>561</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B35">
         <v>562</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B36">
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B37">
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B38">
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B39">
         <v>571</v>
       </c>
       <c r="C39" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B40">
         <v>572</v>
       </c>
       <c r="C40" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B41">
         <v>573</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42">
         <v>574</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B43">
         <v>575</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B44">
         <v>576</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B45">
         <v>577</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B46">
         <v>580</v>
       </c>
       <c r="C46" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B47">
         <v>582</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B48">
         <v>585</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B49">
         <v>592</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B50">
         <v>594</v>
       </c>
       <c r="C50" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51">
         <v>595</v>
       </c>
       <c r="C51" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B52">
         <v>597</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B53">
         <v>598</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B54">
         <v>599</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B55">
         <v>600</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B56">
         <v>603</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B57">
         <v>604</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58">
         <v>610</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -10733,859 +11177,859 @@
       <selection activeCell="A9" sqref="A9:B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B11">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B13">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B14">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B15">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B17">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B18">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B19">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B20">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B21">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B22">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B23">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B24">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B25">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B26">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B27">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B28">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B29">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B30">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B31">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B32">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B33">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B34">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B35">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B36">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B37">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B38">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B39">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B40">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B41">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B42">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B43">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B44">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B45">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B46">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B47">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B48">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B49">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B50">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B51">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B52">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B53">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B54">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B55">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B56">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B57">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B58">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B59">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B60">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B61">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B63">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B64">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B65">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B66">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B67">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B68">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B69">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B70">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B71">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B72">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B73">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B74">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B75">
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B76">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B77">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B78">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B79">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B80">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B81">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B82">
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B83">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B84">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B85">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B86">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B87">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B88">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B89">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B90">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B91">
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B92">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B93">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B94">
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B95">
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B96">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B97">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B98">
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B99">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B100">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B101">
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B102">
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B103">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B104">
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B105">
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B106">
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B107">
         <v>584</v>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2B308-AC3C-4490-829F-236D995E0514}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27F538-9DDA-49C8-A70A-0DD0EC368B24}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="665">
   <si>
     <t>Long description</t>
   </si>
@@ -2004,6 +2004,27 @@
   </si>
   <si>
     <t>You are in the barren room.</t>
+  </si>
+  <si>
+    <t>You are at Witt's End.  Passages lead off in *all* directions.</t>
+  </si>
+  <si>
+    <t>You're at Witt's End.</t>
+  </si>
+  <si>
+    <t>Do you need help getting out of here? Yes I  can  give  you some advice that might help you solve your problem, but I'll have to charge you 20 points for it.  TANSTAAFL, y'know!  Do you want the hint? Yes Don't go west.</t>
+  </si>
+  <si>
+    <t>You're in the unsafe passage.</t>
+  </si>
+  <si>
+    <t>You  are  in a long north/south passage whose roof is supported in places by wooden props.  Some of the props have recently been replaced with  new timber,  but  fresh rock falls are also apparent.  One of these falls has exposed a fracture in the west wall which you  may  be  able  to  squeeze through.</t>
+  </si>
+  <si>
+    <t>You're at the end of the very unsafe tunnel.</t>
+  </si>
+  <si>
+    <t>A  smell of decaying timber fills this part of the passage.  To the north the passage is blocked by a larger than usual rock  fall  and  the  whole passage looks as if it could collapse at any moment.</t>
   </si>
 </sst>
 </file>
@@ -2386,11 +2407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:P198"/>
+  <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E180" sqref="E180"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3461,7 +3482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -5194,11 +5215,20 @@
       <c r="D69">
         <v>5</v>
       </c>
+      <c r="E69" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F69" s="4">
         <v>164</v>
       </c>
+      <c r="G69" s="4">
+        <v>199</v>
+      </c>
       <c r="H69" s="4">
         <v>70</v>
+      </c>
+      <c r="I69" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -9641,7 +9671,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>648</v>
       </c>
@@ -9682,7 +9712,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>649</v>
       </c>
@@ -9726,7 +9756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>652</v>
       </c>
@@ -9767,7 +9797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>653</v>
       </c>
@@ -9811,7 +9841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>655</v>
       </c>
@@ -9855,7 +9885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>657</v>
       </c>
@@ -9893,6 +9923,111 @@
         <v>16</v>
       </c>
       <c r="N198" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>659</v>
+      </c>
+      <c r="B199" t="s">
+        <v>658</v>
+      </c>
+      <c r="C199">
+        <v>236</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+      <c r="O199" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>661</v>
+      </c>
+      <c r="B200" t="s">
+        <v>662</v>
+      </c>
+      <c r="C200">
+        <v>413</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+      <c r="E200" s="4">
+        <v>201</v>
+      </c>
+      <c r="F200" s="4">
+        <v>69</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H200" s="4">
+        <v>202</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M200" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N200" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>663</v>
+      </c>
+      <c r="B201" t="s">
+        <v>664</v>
+      </c>
+      <c r="C201">
+        <v>414</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" s="4">
+        <v>200</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N201" s="4" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27F538-9DDA-49C8-A70A-0DD0EC368B24}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0793F6-997A-497F-A7B0-D738E7ED8A47}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="685">
   <si>
     <t>Long description</t>
   </si>
@@ -2025,6 +2025,66 @@
   </si>
   <si>
     <t>A  smell of decaying timber fills this part of the passage.  To the north the passage is blocked by a larger than usual rock  fall  and  the  whole passage looks as if it could collapse at any moment.</t>
+  </si>
+  <si>
+    <t>You're in the very low room.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  very  low  sloping room whose roof is barely 3' from the floor.  At the lower end the trickle of water enters from a tunnel in the west and runs down a shaft in the floor.   At  the  upper  end  the  roof nearly  meets the floor to give a narrow exit.  Water drips from the roof making everything damp and the floor slippery.  There are no  signs  that anyone has been this way before.</t>
+  </si>
+  <si>
+    <t>You're in the bones room.</t>
+  </si>
+  <si>
+    <t>The  passage  opens into a sizable cave which does not appear to have any other exit although a number of huge bones lie  here.   Close  inspection shows  that  they  are  very old and are covered with strange score marks which have been made recently.  There are also some droppings which might have been made by rats if they weren't so large.</t>
+  </si>
+  <si>
+    <t>You're in the inclined shaft.</t>
+  </si>
+  <si>
+    <t>You are in an inclined shaft which steepens at this point.  The walls are covered  in  a  thin layer of slime making them very slippery.  Below you the shaft is filled with dark water that surges rhythmically.  The  smell of the sea is mingled with an altogether more unpleasant odour.</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>204 (first time)/205 (subsequently)</t>
+  </si>
+  <si>
+    <t>You're in the inclined shaft above the north/south culvert.</t>
+  </si>
+  <si>
+    <t>You are in an inclined shaft which steepens at this point.  The walls are covered  in  a  thin layer of slime making them very slippery.  Below you the shaft steepens and enters a north/south culvert partially filled with a brackish evil smelling liquid.  You could slide down here but you could not climb back up.</t>
+  </si>
+  <si>
+    <t>You're in the north/south culvert.</t>
+  </si>
+  <si>
+    <t>206 ("Wheee…splash")</t>
+  </si>
+  <si>
+    <t>The brick culvert goes north and south and seems to narrow to the south.</t>
+  </si>
+  <si>
+    <t>You are at the south end of the culvert.</t>
+  </si>
+  <si>
+    <t>Sewage  pours into the culvert from a large number of sewage pipes of all sizes.  Those entering from the east, southeast, south,  southwest,  west and  northwest  are  large enough to crawl through.  The culvert exits to the north.</t>
+  </si>
+  <si>
+    <t>You  are at a junction of 3 sewer pipes which go southeast, southwest and north.</t>
+  </si>
+  <si>
+    <t>You're in the large sewer pipe.</t>
+  </si>
+  <si>
+    <t>The  large  diameter  pipe  from the north splits into 2 smaller diameter pipes going south and southeast.  You could get through  either  of  them but it does not look advisable.</t>
+  </si>
+  <si>
+    <t>Dead end.  The sewer pipe has become too narrow.</t>
+  </si>
+  <si>
+    <t>The sewer pipe has got too narrow, you'll have to go back.</t>
   </si>
 </sst>
 </file>
@@ -2407,11 +2467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:P201"/>
+  <dimension ref="A1:P210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I200" sqref="I200"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10029,6 +10089,276 @@
       </c>
       <c r="N201" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>665</v>
+      </c>
+      <c r="B202" t="s">
+        <v>666</v>
+      </c>
+      <c r="C202">
+        <v>415</v>
+      </c>
+      <c r="D202">
+        <v>5</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" s="4">
+        <v>200</v>
+      </c>
+      <c r="H202" s="4">
+        <v>203</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N202" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>667</v>
+      </c>
+      <c r="B203" t="s">
+        <v>668</v>
+      </c>
+      <c r="C203">
+        <v>416</v>
+      </c>
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" s="4">
+        <v>202</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N203" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>669</v>
+      </c>
+      <c r="B204" t="s">
+        <v>670</v>
+      </c>
+      <c r="C204">
+        <v>417</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K204" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L204" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N204" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>673</v>
+      </c>
+      <c r="B205" t="s">
+        <v>674</v>
+      </c>
+      <c r="C205">
+        <v>418</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M205" s="4">
+        <v>202</v>
+      </c>
+      <c r="N205" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>675</v>
+      </c>
+      <c r="B206" t="s">
+        <v>677</v>
+      </c>
+      <c r="C206">
+        <v>420</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N206" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>678</v>
+      </c>
+      <c r="B207" t="s">
+        <v>679</v>
+      </c>
+      <c r="C207">
+        <v>421</v>
+      </c>
+      <c r="D207">
+        <v>5</v>
+      </c>
+      <c r="G207" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>680</v>
+      </c>
+      <c r="B208" t="s">
+        <v>680</v>
+      </c>
+      <c r="C208">
+        <v>422</v>
+      </c>
+      <c r="D208">
+        <v>5</v>
+      </c>
+      <c r="K208" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>681</v>
+      </c>
+      <c r="B209" t="s">
+        <v>682</v>
+      </c>
+      <c r="C209">
+        <v>423</v>
+      </c>
+      <c r="D209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>683</v>
+      </c>
+      <c r="B210" t="s">
+        <v>684</v>
+      </c>
+      <c r="C210">
+        <v>424</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0793F6-997A-497F-A7B0-D738E7ED8A47}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89A080-B009-4BEB-93B7-07E1B8DD53D0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="691">
   <si>
     <t>Long description</t>
   </si>
@@ -2085,6 +2085,24 @@
   </si>
   <si>
     <t>The sewer pipe has got too narrow, you'll have to go back.</t>
+  </si>
+  <si>
+    <t>You're at the sea-view.</t>
+  </si>
+  <si>
+    <t>The  sea can be seen through a strong metal grill which spans the tunnel. A quantity of debris is stacked against the grill and  pieces  of  debris are caught in the grill nearly to the roof.  High on the opposite side of the  culvert  is  a  line  scored  into the brickwork with a faded ornate inscription above it which reads: "CAUTION - HIGH TIDE LEVEL!"</t>
+  </si>
+  <si>
+    <t>You're at the partially collapsed junction of 3 sewer pipes.</t>
+  </si>
+  <si>
+    <t>You  are  at  a  junction of 3 sewer pipes, which has partially collapsed where a stream enters the pipe.  You cannot get past but you could  crawl through the fracture in the pipe.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  maze of twisting passages through which streams cascade. Exits lead in all directions.</t>
+  </si>
+  <si>
+    <t>10% of the time to 214, else stay</t>
   </si>
 </sst>
 </file>
@@ -2467,11 +2485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:P210"/>
+  <dimension ref="A1:P215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E209" sqref="E209"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O215" sqref="O215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10274,6 +10292,12 @@
       <c r="D206">
         <v>5</v>
       </c>
+      <c r="E206" s="4">
+        <v>211</v>
+      </c>
+      <c r="F206" s="4">
+        <v>207</v>
+      </c>
       <c r="G206" s="4" t="s">
         <v>16</v>
       </c>
@@ -10312,8 +10336,17 @@
       <c r="D207">
         <v>5</v>
       </c>
+      <c r="E207" s="4">
+        <v>206</v>
+      </c>
       <c r="G207" s="4">
         <v>208</v>
+      </c>
+      <c r="H207" s="4">
+        <v>212</v>
+      </c>
+      <c r="L207" s="4">
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.35">
@@ -10333,7 +10366,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>681</v>
       </c>
@@ -10346,8 +10379,17 @@
       <c r="D209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E209" s="4">
+        <v>208</v>
+      </c>
+      <c r="F209" s="4">
+        <v>424</v>
+      </c>
+      <c r="K209" s="4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>683</v>
       </c>
@@ -10359,6 +10401,220 @@
       </c>
       <c r="D210">
         <v>5</v>
+      </c>
+      <c r="E210" s="4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>685</v>
+      </c>
+      <c r="B211" t="s">
+        <v>686</v>
+      </c>
+      <c r="C211">
+        <v>419</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F211" s="4">
+        <v>206</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N211" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>683</v>
+      </c>
+      <c r="B212" t="s">
+        <v>684</v>
+      </c>
+      <c r="C212">
+        <v>426</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="4">
+        <v>207</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N212" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>687</v>
+      </c>
+      <c r="B213" t="s">
+        <v>688</v>
+      </c>
+      <c r="C213">
+        <v>425</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I213" s="4">
+        <v>207</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K213" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L213" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M213" s="4">
+        <v>214</v>
+      </c>
+      <c r="N213" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
+        <v>689</v>
+      </c>
+      <c r="C214">
+        <v>427</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214" s="4">
+        <v>215</v>
+      </c>
+      <c r="F214" s="4">
+        <v>215</v>
+      </c>
+      <c r="G214" s="4">
+        <v>215</v>
+      </c>
+      <c r="H214" s="4">
+        <v>215</v>
+      </c>
+      <c r="I214" s="4">
+        <v>215</v>
+      </c>
+      <c r="J214" s="4">
+        <v>215</v>
+      </c>
+      <c r="K214" s="4">
+        <v>215</v>
+      </c>
+      <c r="L214" s="4">
+        <v>215</v>
+      </c>
+      <c r="M214" s="4">
+        <v>215</v>
+      </c>
+      <c r="N214" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B215" t="s">
+        <v>689</v>
+      </c>
+      <c r="C215">
+        <v>428</v>
+      </c>
+      <c r="D215">
+        <v>5</v>
+      </c>
+      <c r="E215" s="4">
+        <v>215</v>
+      </c>
+      <c r="F215" s="4">
+        <v>215</v>
+      </c>
+      <c r="G215" s="4">
+        <v>215</v>
+      </c>
+      <c r="H215" s="4">
+        <v>215</v>
+      </c>
+      <c r="I215" s="4">
+        <v>215</v>
+      </c>
+      <c r="J215" s="4">
+        <v>215</v>
+      </c>
+      <c r="K215" s="4">
+        <v>215</v>
+      </c>
+      <c r="L215" s="4">
+        <v>215</v>
+      </c>
+      <c r="N215" s="4" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89A080-B009-4BEB-93B7-07E1B8DD53D0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264BA46C-B83F-4519-8FC7-8CBAD53182D1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="718">
   <si>
     <t>Long description</t>
   </si>
@@ -2103,6 +2103,87 @@
   </si>
   <si>
     <t>10% of the time to 214, else stay</t>
+  </si>
+  <si>
+    <t>You're on eastern side of bottomless pit.</t>
+  </si>
+  <si>
+    <t>You are standing on the eastern side of a bottomless pit.  A narrow ledge runs  north  towards  a  dimly-visible  passage; the ledge once continued south of this point but has been shattered by  falling  rock.   A  narrow crack in the rock leads northeast.</t>
+  </si>
+  <si>
+    <t>You're in narrow, twisting crack.</t>
+  </si>
+  <si>
+    <t>You are in a twisty narrow crack exiting southwest and southeast.</t>
+  </si>
+  <si>
+    <t>You're at north end of tight passage.</t>
+  </si>
+  <si>
+    <t>You are standing at the northern end of a rather tight passage.  A narrow crack in the rock leads west.</t>
+  </si>
+  <si>
+    <t>219 - unless slime is still there, in which case die</t>
+  </si>
+  <si>
+    <t>You're at south end of tight passage.</t>
+  </si>
+  <si>
+    <t>You  are at the southern end of a tight passage.  A hands-and-knees crawl leads to the south.</t>
+  </si>
+  <si>
+    <t>You're in very small chamber.</t>
+  </si>
+  <si>
+    <t>You are in a very small chamber.  A narrow crawl leads north.</t>
+  </si>
+  <si>
+    <t>You  are  in  the  Ice  room.  The walls and ceiling here are composed of clear blue glacial ice; the floor is fortunately made of rock and is easy to walk upon.  There is a passage leading to the northwest, and  a  slide of polished ice leading downwards to the east - if you were to slide down it you probably couldn't get back up.</t>
+  </si>
+  <si>
+    <t>You're in Ice room.</t>
+  </si>
+  <si>
+    <t>You're at bottom of icy slide.</t>
+  </si>
+  <si>
+    <t>You're  at  the entrance to an extensive and intricate network of tunnels carved out of solid ice.  A slippery slope leads upwards and  north,  but you  cannot  possibly  climb  up  it.   Two  other  exits  lead south and northwest.</t>
+  </si>
+  <si>
+    <t>You  are  in  an  intricate  network of ice tunnels.  Exits lead east and west.</t>
+  </si>
+  <si>
+    <t>You  are  in  an  intricate network of ice tunnels.  Exits lead north and</t>
+  </si>
+  <si>
+    <t>You  are  in  an  intricate network of ice tunnels.  Exits lead north and south.</t>
+  </si>
+  <si>
+    <t>You  are  in an intricate network of ice tunnels.  Exits lead north, east and west</t>
+  </si>
+  <si>
+    <t>You  are  in  an  intricate network of ice tunnels.  Exits lead north and west.</t>
+  </si>
+  <si>
+    <t>You are in an intricate network of ice tunnels.  The only exit is south.</t>
+  </si>
+  <si>
+    <t>You are in an intricate network of ice tunnels.  The only exit is south</t>
+  </si>
+  <si>
+    <t>You are in an intricate network of ice tunnels.  Exits lead northeast and south</t>
+  </si>
+  <si>
+    <t>You  are in an intricate network of ice tunnels.  Exits lead north, south and west</t>
+  </si>
+  <si>
+    <t>You are in an intricate network of ice tunnels.  The only exit is north.</t>
+  </si>
+  <si>
+    <t>You  are  in an intricate network of ice tunnels.  Exits lead north, east and south.</t>
+  </si>
+  <si>
+    <t>You  are  in  an  intricate network of ice tunnels.  Exits lead south and northwest</t>
   </si>
 </sst>
 </file>
@@ -2485,11 +2566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:P215"/>
+  <dimension ref="A1:P235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O215" sqref="O215"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J234" sqref="J234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7544,6 +7625,9 @@
       <c r="C134">
         <v>209</v>
       </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
       <c r="E134" s="4">
         <v>70</v>
       </c>
@@ -7585,6 +7669,9 @@
       <c r="C135">
         <v>156</v>
       </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
       <c r="E135" s="4" t="s">
         <v>16</v>
       </c>
@@ -7626,6 +7713,9 @@
       <c r="C136">
         <v>159</v>
       </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
       <c r="E136" s="4" t="s">
         <v>16</v>
       </c>
@@ -7670,6 +7760,9 @@
       <c r="C137">
         <v>158</v>
       </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
       <c r="E137" s="4" t="s">
         <v>16</v>
       </c>
@@ -7711,6 +7804,9 @@
       <c r="C138">
         <v>220</v>
       </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
       <c r="E138" s="4" t="s">
         <v>16</v>
       </c>
@@ -7749,6 +7845,9 @@
       <c r="C139">
         <v>222</v>
       </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
       <c r="E139" s="4">
         <v>142</v>
       </c>
@@ -7790,6 +7889,9 @@
       <c r="C140">
         <v>322</v>
       </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
       <c r="E140" s="4">
         <v>141</v>
       </c>
@@ -7828,6 +7930,9 @@
       <c r="C141">
         <v>323</v>
       </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
       <c r="E141" s="6" t="s">
         <v>630</v>
       </c>
@@ -9585,6 +9690,9 @@
       <c r="C187">
         <v>324</v>
       </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
       <c r="G187" s="4">
         <v>188</v>
       </c>
@@ -9599,11 +9707,38 @@
       <c r="C188">
         <v>325</v>
       </c>
+      <c r="D188">
+        <v>4</v>
+      </c>
       <c r="E188" s="4">
         <v>187</v>
       </c>
+      <c r="F188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" s="4">
+        <v>216</v>
+      </c>
       <c r="H188" s="4">
         <v>189</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N188" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.35">
@@ -9616,6 +9751,39 @@
       <c r="C189">
         <v>326</v>
       </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189" s="4">
+        <v>188</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K189" s="4">
+        <v>221</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N189" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
@@ -10615,6 +10783,838 @@
       </c>
       <c r="N215" s="4" t="s">
         <v>690</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>691</v>
+      </c>
+      <c r="B216" t="s">
+        <v>692</v>
+      </c>
+      <c r="C216">
+        <v>365</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
+      </c>
+      <c r="E216" s="4">
+        <v>365</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I216" s="4">
+        <v>217</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K216" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L216" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M216" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N216" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>693</v>
+      </c>
+      <c r="B217" t="s">
+        <v>694</v>
+      </c>
+      <c r="C217">
+        <v>366</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L217" s="4">
+        <v>216</v>
+      </c>
+      <c r="M217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N217" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>695</v>
+      </c>
+      <c r="B218" t="s">
+        <v>696</v>
+      </c>
+      <c r="C218">
+        <v>367</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N218" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>698</v>
+      </c>
+      <c r="B219" t="s">
+        <v>699</v>
+      </c>
+      <c r="C219">
+        <v>368</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+      <c r="E219" s="4">
+        <v>218</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N219" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>700</v>
+      </c>
+      <c r="B220" t="s">
+        <v>701</v>
+      </c>
+      <c r="C220">
+        <v>369</v>
+      </c>
+      <c r="D220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>703</v>
+      </c>
+      <c r="B221" t="s">
+        <v>702</v>
+      </c>
+      <c r="C221">
+        <v>327</v>
+      </c>
+      <c r="D221">
+        <v>7</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J221" s="4">
+        <v>189</v>
+      </c>
+      <c r="K221" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L221" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M221" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N221" s="4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>704</v>
+      </c>
+      <c r="B222" t="s">
+        <v>705</v>
+      </c>
+      <c r="C222">
+        <v>328</v>
+      </c>
+      <c r="D222">
+        <v>7</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F222" s="4">
+        <v>224</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J222" s="4">
+        <v>223</v>
+      </c>
+      <c r="K222" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L222" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M222" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N222" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>706</v>
+      </c>
+      <c r="B223" t="s">
+        <v>706</v>
+      </c>
+      <c r="C223">
+        <v>335</v>
+      </c>
+      <c r="D223">
+        <v>7</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223" s="4">
+        <v>222</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J223" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K223" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L223" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M223" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N223" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>708</v>
+      </c>
+      <c r="B224" t="s">
+        <v>708</v>
+      </c>
+      <c r="C224">
+        <v>332</v>
+      </c>
+      <c r="D224">
+        <v>7</v>
+      </c>
+      <c r="E224" s="4">
+        <v>222</v>
+      </c>
+      <c r="F224" s="4">
+        <v>225</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N224" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>709</v>
+      </c>
+      <c r="B225" t="s">
+        <v>709</v>
+      </c>
+      <c r="C225">
+        <v>331</v>
+      </c>
+      <c r="D225">
+        <v>7</v>
+      </c>
+      <c r="E225" s="4">
+        <v>224</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G225" s="4">
+        <v>226</v>
+      </c>
+      <c r="H225" s="4">
+        <v>228</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N225" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>710</v>
+      </c>
+      <c r="B226" t="s">
+        <v>710</v>
+      </c>
+      <c r="C226">
+        <v>329</v>
+      </c>
+      <c r="D226">
+        <v>7</v>
+      </c>
+      <c r="E226" s="4">
+        <v>227</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H226" s="4">
+        <v>228</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K226" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L226" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M226" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N226" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>711</v>
+      </c>
+      <c r="B227" t="s">
+        <v>711</v>
+      </c>
+      <c r="C227">
+        <v>330</v>
+      </c>
+      <c r="D227">
+        <v>7</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F227" s="4">
+        <v>226</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N227" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>707</v>
+      </c>
+      <c r="B228" t="s">
+        <v>707</v>
+      </c>
+      <c r="C228">
+        <v>333</v>
+      </c>
+      <c r="D228">
+        <v>7</v>
+      </c>
+      <c r="E228" s="4">
+        <v>229</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" s="4">
+        <v>225</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N228" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>712</v>
+      </c>
+      <c r="B229" t="s">
+        <v>712</v>
+      </c>
+      <c r="C229">
+        <v>334</v>
+      </c>
+      <c r="D229">
+        <v>7</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" s="4">
+        <v>228</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N229" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>713</v>
+      </c>
+      <c r="B230" t="s">
+        <v>713</v>
+      </c>
+      <c r="C230">
+        <v>336</v>
+      </c>
+      <c r="D230">
+        <v>7</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F230" s="4">
+        <v>231</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I230" s="4">
+        <v>223</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N230" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>714</v>
+      </c>
+      <c r="B231" t="s">
+        <v>714</v>
+      </c>
+      <c r="C231">
+        <v>337</v>
+      </c>
+      <c r="D231">
+        <v>7</v>
+      </c>
+      <c r="E231" s="4">
+        <v>230</v>
+      </c>
+      <c r="F231" s="4">
+        <v>232</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H231" s="4">
+        <v>233</v>
+      </c>
+      <c r="I231" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K231" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L231" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M231" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N231" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>715</v>
+      </c>
+      <c r="B232" t="s">
+        <v>715</v>
+      </c>
+      <c r="C232">
+        <v>338</v>
+      </c>
+      <c r="D232">
+        <v>7</v>
+      </c>
+      <c r="E232" s="4">
+        <v>231</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N232" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>716</v>
+      </c>
+      <c r="B233" t="s">
+        <v>716</v>
+      </c>
+      <c r="C233">
+        <v>340</v>
+      </c>
+      <c r="D233">
+        <v>7</v>
+      </c>
+      <c r="E233" s="4">
+        <v>234</v>
+      </c>
+      <c r="F233" s="4">
+        <v>235</v>
+      </c>
+      <c r="G233" s="4">
+        <v>231</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K233" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L233" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M233" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N233" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>717</v>
+      </c>
+      <c r="B234" t="s">
+        <v>717</v>
+      </c>
+      <c r="C234">
+        <v>341</v>
+      </c>
+      <c r="D234">
+        <v>7</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F234" s="4">
+        <v>233</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I234" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K234" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L234" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M234" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N234" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>715</v>
+      </c>
+      <c r="B235" t="s">
+        <v>715</v>
+      </c>
+      <c r="C235">
+        <v>339</v>
+      </c>
+      <c r="D235">
+        <v>7</v>
+      </c>
+      <c r="E235" s="4">
+        <v>233</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N235" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264BA46C-B83F-4519-8FC7-8CBAD53182D1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D70ABB-429C-4443-8676-6DACC2DE6EE5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="721">
   <si>
     <t>Long description</t>
   </si>
@@ -2171,6 +2171,9 @@
     <t>You are in an intricate network of ice tunnels.  The only exit is south</t>
   </si>
   <si>
+    <t>You are in an intricate network of ice tunnels.  Exits lead northeast and</t>
+  </si>
+  <si>
     <t>You are in an intricate network of ice tunnels.  Exits lead northeast and south</t>
   </si>
   <si>
@@ -2184,6 +2187,12 @@
   </si>
   <si>
     <t>You  are  in  an  intricate network of ice tunnels.  Exits lead south and northwest</t>
+  </si>
+  <si>
+    <t>You  are  in  an intricate network of ice tunnels.  Exits lead northeast, south and west.</t>
+  </si>
+  <si>
+    <t>You  are  in an intricate network of ice tunnels.  Exits lead east, south and northwest</t>
   </si>
 </sst>
 </file>
@@ -2566,11 +2575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:P235"/>
+  <dimension ref="A1:P244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J234" sqref="J234"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11358,10 +11367,10 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B230" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C230">
         <v>336</v>
@@ -11402,10 +11411,10 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B231" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C231">
         <v>337</v>
@@ -11446,10 +11455,10 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B232" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C232">
         <v>338</v>
@@ -11490,10 +11499,10 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B233" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C233">
         <v>340</v>
@@ -11534,10 +11543,10 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B234" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C234">
         <v>341</v>
@@ -11560,6 +11569,9 @@
       <c r="I234" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="J234" s="4">
+        <v>236</v>
+      </c>
       <c r="K234" s="4" t="s">
         <v>16</v>
       </c>
@@ -11575,10 +11587,10 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B235" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C235">
         <v>339</v>
@@ -11615,6 +11627,357 @@
       </c>
       <c r="N235" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>706</v>
+      </c>
+      <c r="B236" t="s">
+        <v>706</v>
+      </c>
+      <c r="C236">
+        <v>342</v>
+      </c>
+      <c r="D236">
+        <v>7</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G236" s="4">
+        <v>234</v>
+      </c>
+      <c r="H236" s="4">
+        <v>237</v>
+      </c>
+      <c r="I236" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J236" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K236" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L236" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M236" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N236" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>719</v>
+      </c>
+      <c r="B237" t="s">
+        <v>719</v>
+      </c>
+      <c r="C237">
+        <v>343</v>
+      </c>
+      <c r="D237">
+        <v>7</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F237" s="4">
+        <v>238</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I237" s="4">
+        <v>236</v>
+      </c>
+      <c r="J237" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K237" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L237" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M237" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N237" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>708</v>
+      </c>
+      <c r="B238" t="s">
+        <v>708</v>
+      </c>
+      <c r="C238">
+        <v>344</v>
+      </c>
+      <c r="D238">
+        <v>7</v>
+      </c>
+      <c r="E238" s="4">
+        <v>237</v>
+      </c>
+      <c r="F238" s="4">
+        <v>239</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I238" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K238" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L238" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M238" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N238" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>716</v>
+      </c>
+      <c r="B239" t="s">
+        <v>716</v>
+      </c>
+      <c r="C239">
+        <v>345</v>
+      </c>
+      <c r="D239">
+        <v>7</v>
+      </c>
+      <c r="E239" s="4">
+        <v>238</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I239" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K239" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L239" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M239" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N239" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>720</v>
+      </c>
+      <c r="B240" t="s">
+        <v>720</v>
+      </c>
+      <c r="C240">
+        <v>347</v>
+      </c>
+      <c r="D240">
+        <v>7</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F240" s="4">
+        <v>241</v>
+      </c>
+      <c r="G240" s="4">
+        <v>237</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J240" s="4">
+        <v>243</v>
+      </c>
+      <c r="K240" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L240" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M240" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N240" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>708</v>
+      </c>
+      <c r="B241" t="s">
+        <v>708</v>
+      </c>
+      <c r="C241">
+        <v>348</v>
+      </c>
+      <c r="D241">
+        <v>7</v>
+      </c>
+      <c r="E241" s="4">
+        <v>240</v>
+      </c>
+      <c r="F241" s="4">
+        <v>242</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K241" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L241" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M241" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N241" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>716</v>
+      </c>
+      <c r="B242" t="s">
+        <v>716</v>
+      </c>
+      <c r="C242">
+        <v>346</v>
+      </c>
+      <c r="D242">
+        <v>7</v>
+      </c>
+      <c r="E242" s="4">
+        <v>241</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K242" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L242" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M242" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N242" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>706</v>
+      </c>
+      <c r="B243" t="s">
+        <v>706</v>
+      </c>
+      <c r="C243">
+        <v>347</v>
+      </c>
+      <c r="D243">
+        <v>7</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" s="4">
+        <v>240</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K243" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L243" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M243" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N243" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D70ABB-429C-4443-8676-6DACC2DE6EE5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A8188-FA8E-41C6-AE64-996FF43B7290}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="730">
   <si>
     <t>Long description</t>
   </si>
@@ -2171,9 +2171,6 @@
     <t>You are in an intricate network of ice tunnels.  The only exit is south</t>
   </si>
   <si>
-    <t>You are in an intricate network of ice tunnels.  Exits lead northeast and</t>
-  </si>
-  <si>
     <t>You are in an intricate network of ice tunnels.  Exits lead northeast and south</t>
   </si>
   <si>
@@ -2193,6 +2190,36 @@
   </si>
   <si>
     <t>You  are  in an intricate network of ice tunnels.  Exits lead east, south and northwest</t>
+  </si>
+  <si>
+    <t>You are in an intricate network of ice tunnels.  Exits lead northeast and south.</t>
+  </si>
+  <si>
+    <t>You are in an intricate network of ice tunnels.  Exits lead north, south, west and northwest.</t>
+  </si>
+  <si>
+    <t>You  are  in  an  intricate network of ice tunnels.  Exits lead north and east.</t>
+  </si>
+  <si>
+    <t>You  are  in  an  intricate  network of ice tunnels.  Exits lead east and south</t>
+  </si>
+  <si>
+    <t>You are in an intricate network of ice tunnels.  Exits lead southeast and northwest.</t>
+  </si>
+  <si>
+    <t>You  are  in  an  intricate network of ice tunnels.  Exits lead north and northwest.</t>
+  </si>
+  <si>
+    <t>You  are  in  an  intricate network of ice tunnels.  Exits lead north and southeast.</t>
+  </si>
+  <si>
+    <t>You  are  in  an  intricate  network of ice tunnels.  Exits lead east and south.</t>
+  </si>
+  <si>
+    <t>You are in a small chamber melted out of the ice.  The only exit is east. Glowing letters in midair spell out the words "This way out".</t>
+  </si>
+  <si>
+    <t>You're in small, icy chamber.</t>
   </si>
 </sst>
 </file>
@@ -2575,11 +2602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:P244"/>
+  <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C242" sqref="C242"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H263" sqref="H263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11367,10 +11394,10 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B230" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C230">
         <v>336</v>
@@ -11411,10 +11438,10 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B231" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C231">
         <v>337</v>
@@ -11455,10 +11482,10 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B232" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C232">
         <v>338</v>
@@ -11499,10 +11526,10 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B233" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C233">
         <v>340</v>
@@ -11543,10 +11570,10 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B234" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C234">
         <v>341</v>
@@ -11587,10 +11614,10 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B235" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C235">
         <v>339</v>
@@ -11675,10 +11702,10 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B237" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C237">
         <v>343</v>
@@ -11760,10 +11787,10 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B239" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C239">
         <v>345</v>
@@ -11804,10 +11831,10 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B240" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C240">
         <v>347</v>
@@ -11892,10 +11919,10 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B242" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C242">
         <v>346</v>
@@ -11942,7 +11969,7 @@
         <v>706</v>
       </c>
       <c r="C243">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D243">
         <v>7</v>
@@ -11956,6 +11983,9 @@
       <c r="G243" s="4">
         <v>240</v>
       </c>
+      <c r="H243" s="4">
+        <v>244</v>
+      </c>
       <c r="I243" s="4" t="s">
         <v>16</v>
       </c>
@@ -11977,7 +12007,662 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>713</v>
+        <v>720</v>
+      </c>
+      <c r="B244" t="s">
+        <v>720</v>
+      </c>
+      <c r="C244">
+        <v>350</v>
+      </c>
+      <c r="D244">
+        <v>7</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F244" s="4">
+        <v>245</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I244" s="4">
+        <v>243</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K244" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L244" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M244" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N244" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>721</v>
+      </c>
+      <c r="B245" t="s">
+        <v>721</v>
+      </c>
+      <c r="C245">
+        <v>351</v>
+      </c>
+      <c r="D245">
+        <v>7</v>
+      </c>
+      <c r="E245" s="4">
+        <v>244</v>
+      </c>
+      <c r="F245" s="4">
+        <v>246</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H245" s="4">
+        <v>248</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J245" s="4">
+        <v>249</v>
+      </c>
+      <c r="K245" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L245" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M245" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N245" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>710</v>
+      </c>
+      <c r="B246" t="s">
+        <v>710</v>
+      </c>
+      <c r="C246">
+        <v>352</v>
+      </c>
+      <c r="D246">
+        <v>7</v>
+      </c>
+      <c r="E246" s="4">
+        <v>245</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H246" s="4">
+        <v>247</v>
+      </c>
+      <c r="I246" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J246" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K246" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L246" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M246" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N246" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>722</v>
+      </c>
+      <c r="B247" t="s">
+        <v>722</v>
+      </c>
+      <c r="C247">
+        <v>353</v>
+      </c>
+      <c r="D247">
+        <v>7</v>
+      </c>
+      <c r="E247" s="4">
+        <v>248</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" s="4">
+        <v>246</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N247" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>723</v>
+      </c>
+      <c r="B248" t="s">
+        <v>723</v>
+      </c>
+      <c r="C248">
+        <v>354</v>
+      </c>
+      <c r="D248">
+        <v>7</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F248" s="4">
+        <v>247</v>
+      </c>
+      <c r="G248" s="4">
+        <v>245</v>
+      </c>
+      <c r="H248" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K248" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L248" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M248" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N248" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>724</v>
+      </c>
+      <c r="B249" t="s">
+        <v>724</v>
+      </c>
+      <c r="C249">
+        <v>355</v>
+      </c>
+      <c r="D249">
+        <v>7</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J249" s="4">
+        <v>250</v>
+      </c>
+      <c r="K249" s="4">
+        <v>245</v>
+      </c>
+      <c r="L249" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M249" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N249" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>706</v>
+      </c>
+      <c r="B250" t="s">
+        <v>706</v>
+      </c>
+      <c r="C250">
+        <v>356</v>
+      </c>
+      <c r="D250">
+        <v>7</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G250" s="4">
+        <v>249</v>
+      </c>
+      <c r="H250" s="4">
+        <v>251</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J250" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K250" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L250" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M250" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N250" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>718</v>
+      </c>
+      <c r="B251" t="s">
+        <v>718</v>
+      </c>
+      <c r="C251">
+        <v>357</v>
+      </c>
+      <c r="D251">
+        <v>7</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F251" s="4">
+        <v>252</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H251" s="4">
+        <v>363</v>
+      </c>
+      <c r="I251" s="4">
+        <v>250</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K251" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L251" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M251" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N251" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>721</v>
+      </c>
+      <c r="B252" t="s">
+        <v>721</v>
+      </c>
+      <c r="C252">
+        <v>358</v>
+      </c>
+      <c r="D252">
+        <v>7</v>
+      </c>
+      <c r="E252" s="4">
+        <v>251</v>
+      </c>
+      <c r="F252" s="4">
+        <v>253</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H252" s="4">
+        <v>255</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J252" s="4">
+        <v>256</v>
+      </c>
+      <c r="K252" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L252" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M252" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N252" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>725</v>
+      </c>
+      <c r="B253" t="s">
+        <v>725</v>
+      </c>
+      <c r="C253">
+        <v>359</v>
+      </c>
+      <c r="D253">
+        <v>7</v>
+      </c>
+      <c r="E253" s="4">
+        <v>252</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H253" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I253" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J253" s="4">
+        <v>254</v>
+      </c>
+      <c r="K253" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L253" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M253" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N253" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>726</v>
+      </c>
+      <c r="B254" t="s">
+        <v>726</v>
+      </c>
+      <c r="C254">
+        <v>360</v>
+      </c>
+      <c r="D254">
+        <v>7</v>
+      </c>
+      <c r="E254" s="4">
+        <v>255</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K254" s="4">
+        <v>253</v>
+      </c>
+      <c r="L254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N254" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>727</v>
+      </c>
+      <c r="B255" t="s">
+        <v>727</v>
+      </c>
+      <c r="C255">
+        <v>361</v>
+      </c>
+      <c r="D255">
+        <v>7</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F255" s="4">
+        <v>254</v>
+      </c>
+      <c r="G255" s="4">
+        <v>252</v>
+      </c>
+      <c r="H255" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I255" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J255" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K255" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L255" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M255" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N255" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>726</v>
+      </c>
+      <c r="B256" t="s">
+        <v>726</v>
+      </c>
+      <c r="C256">
+        <v>362</v>
+      </c>
+      <c r="D256">
+        <v>7</v>
+      </c>
+      <c r="E256" s="4">
+        <v>257</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K256" s="4">
+        <v>252</v>
+      </c>
+      <c r="L256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N256" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>719</v>
+      </c>
+      <c r="B257" t="s">
+        <v>719</v>
+      </c>
+      <c r="C257">
+        <v>363</v>
+      </c>
+      <c r="D257">
+        <v>7</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F257" s="4">
+        <v>256</v>
+      </c>
+      <c r="G257" s="4">
+        <v>251</v>
+      </c>
+      <c r="H257" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J257" s="4">
+        <v>258</v>
+      </c>
+      <c r="K257" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L257" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M257" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N257" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>729</v>
+      </c>
+      <c r="B258" t="s">
+        <v>728</v>
+      </c>
+      <c r="C258">
+        <v>364</v>
+      </c>
+      <c r="D258">
+        <v>7</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" s="4">
+        <v>257</v>
+      </c>
+      <c r="H258" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K258" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L258" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M258" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N258" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A8188-FA8E-41C6-AE64-996FF43B7290}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999B2F3E-5FFC-4786-BF98-F8B244728C68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="verbs" sheetId="5" r:id="rId5"/>
     <sheet name="nouns" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="731">
   <si>
     <t>Long description</t>
   </si>
@@ -2220,6 +2220,9 @@
   </si>
   <si>
     <t>You're in small, icy chamber.</t>
+  </si>
+  <si>
+    <t>thurb -&gt; 221</t>
   </si>
 </sst>
 </file>
@@ -2605,8 +2608,8 @@
   <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H263" sqref="H263"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12577,7 +12580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>719</v>
       </c>
@@ -12621,7 +12624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>729</v>
       </c>
@@ -12663,6 +12666,9 @@
       </c>
       <c r="N258" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="O258" s="4" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999B2F3E-5FFC-4786-BF98-F8B244728C68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039DB517-3CA7-4630-8292-ADF122DE7D26}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="753">
   <si>
     <t>Long description</t>
   </si>
@@ -2223,6 +2223,72 @@
   </si>
   <si>
     <t>thurb -&gt; 221</t>
+  </si>
+  <si>
+    <t>259 (after making bridge &amp; wearing ring)</t>
+  </si>
+  <si>
+    <t>You're at the south end of the Valley of the Stone Faces.</t>
+  </si>
+  <si>
+    <t>You  are  standing  at  the  southern end of a long valley illuminated by flickering red light from the volcanic gorge behind you.  Carved into the walls of the valley is an incredible series of stone faces.  Some of them look down into the valley with  expressions  of  benevolence  that  would credit  a  saint;  others  glare  with a malice that makes the heart grow faint.  All of them are imbued with a fantastic seeming of  life  by  the shifting  and flickering light of the volcano.  The entire far end of the valley is taken up by an immense carving of a seated  figure;  its  exact form cannot be seen from here due to the uncertainty of the light.</t>
+  </si>
+  <si>
+    <t>You  are  standing  at  the  north  end of the Valley of the Stone Faces. Above you, an incredible bas-relief statue of  an  immense  minotaur  has been  carved  out  of the rock.  At least sixty feet high, it sits gazing down at you with a faint but definite expression of  amusement.   Between its  feet  and the floor is a rock wall about ten feet high which extends across the entire north end of the valley.</t>
+  </si>
+  <si>
+    <t>You're at north end of the Valley of the Stone Faces.</t>
+  </si>
+  <si>
+    <t>You're in rough and narrow passage.</t>
+  </si>
+  <si>
+    <t>You  are  in  a narrow and rough passage running north and south.  A dull rumbling sound can be heard from the south.</t>
+  </si>
+  <si>
+    <t>get rid of basilisk with mirror made by polishing plate</t>
+  </si>
+  <si>
+    <t>You're in rough passage to the north of the basilisk's den.</t>
+  </si>
+  <si>
+    <t>ou are in a rough passage to the north of the basilisk's den.</t>
+  </si>
+  <si>
+    <t>You're in passage by steps.</t>
+  </si>
+  <si>
+    <t>You are in a wide north/south passage.  A set of steps leads downward.</t>
+  </si>
+  <si>
+    <t>You are in the Peelgrunt room.</t>
+  </si>
+  <si>
+    <t>You're in winding passage</t>
+  </si>
+  <si>
+    <t>You  are  in  a  winding passage which loops wildly before exiting to the north and northwest.</t>
+  </si>
+  <si>
+    <t>You're in golden chamber.</t>
+  </si>
+  <si>
+    <t>You are in a chamber with golden walls and a high ceiling.  Passages lead south, northeast, and northwest.</t>
+  </si>
+  <si>
+    <t>You're in Arabesque room.</t>
+  </si>
+  <si>
+    <t>You are in a small room whose walls are covered with an elaborate pattern of arabesque figures and designs.</t>
+  </si>
+  <si>
+    <t>You're in room with translucent walls.</t>
+  </si>
+  <si>
+    <t>You  are  in  a  large  room whose walls are composed of some translucent whitish mineral.  The room is illuminated by a  flickering  reddish  glow shining through the southern wall.  A passage leads east.</t>
+  </si>
+  <si>
+    <t>Suddenly  and  without  warning,  there appears from within the very cave walls around you a horde of vicious  little  goblins!   Each  one  stands about  eight inches high on a pair of spindly black legs, has a globular, spine-covered body resembling a giant gooseberry,  a  wide  mouth  filled with sharp teeth, and a pair of glittering little green eyes!  They swarm around you and try to block your way.</t>
   </si>
 </sst>
 </file>
@@ -2605,11 +2671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:P258"/>
+  <dimension ref="A1:P268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O269" sqref="O269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3274,7 +3340,7 @@
       <c r="L18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="6" t="s">
         <v>229</v>
       </c>
       <c r="N18" s="4">
@@ -10096,7 +10162,7 @@
         <v>4</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>16</v>
+        <v>731</v>
       </c>
       <c r="F196" s="4">
         <v>195</v>
@@ -12669,6 +12735,431 @@
       </c>
       <c r="O258" s="4" t="s">
         <v>730</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>732</v>
+      </c>
+      <c r="B259" t="s">
+        <v>733</v>
+      </c>
+      <c r="C259">
+        <v>253</v>
+      </c>
+      <c r="D259">
+        <v>4</v>
+      </c>
+      <c r="E259" s="4">
+        <v>260</v>
+      </c>
+      <c r="F259" s="4">
+        <v>196</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H259" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J259" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K259" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L259" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M259" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N259" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>735</v>
+      </c>
+      <c r="B260" t="s">
+        <v>734</v>
+      </c>
+      <c r="C260">
+        <v>254</v>
+      </c>
+      <c r="D260">
+        <v>4</v>
+      </c>
+      <c r="F260" s="4">
+        <v>259</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H260" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K260" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L260" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M260" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N260" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>736</v>
+      </c>
+      <c r="B261" t="s">
+        <v>737</v>
+      </c>
+      <c r="C261">
+        <v>263</v>
+      </c>
+      <c r="D261">
+        <v>4</v>
+      </c>
+      <c r="F261" s="4">
+        <v>260</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H261" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I261" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K261" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L261" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M261" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N261" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O261" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>739</v>
+      </c>
+      <c r="B262" t="s">
+        <v>740</v>
+      </c>
+      <c r="C262">
+        <v>264</v>
+      </c>
+      <c r="D262">
+        <v>4</v>
+      </c>
+      <c r="E262" s="4">
+        <v>263</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I262" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J262" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K262" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L262" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M262" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N262" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>741</v>
+      </c>
+      <c r="B263" t="s">
+        <v>742</v>
+      </c>
+      <c r="C263">
+        <v>265</v>
+      </c>
+      <c r="D263">
+        <v>4</v>
+      </c>
+      <c r="F263" s="4">
+        <v>262</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H263" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I263" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J263" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K263" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L263" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M263" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>743</v>
+      </c>
+      <c r="B264" t="s">
+        <v>743</v>
+      </c>
+      <c r="C264">
+        <v>315</v>
+      </c>
+      <c r="D264">
+        <v>4</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F264" s="4">
+        <v>263</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H264" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I264" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J264" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K264" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L264" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M264" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N264" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>744</v>
+      </c>
+      <c r="B265" t="s">
+        <v>745</v>
+      </c>
+      <c r="C265">
+        <v>292</v>
+      </c>
+      <c r="D265">
+        <v>4</v>
+      </c>
+      <c r="E265" s="4">
+        <v>266</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H265" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I265" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J265" s="4">
+        <v>254</v>
+      </c>
+      <c r="K265" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L265" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M265" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N265" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>746</v>
+      </c>
+      <c r="B266" t="s">
+        <v>747</v>
+      </c>
+      <c r="C266">
+        <v>293</v>
+      </c>
+      <c r="D266">
+        <v>4</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F266" s="4">
+        <v>265</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H266" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I266" s="4">
+        <v>267</v>
+      </c>
+      <c r="J266" s="4">
+        <v>268</v>
+      </c>
+      <c r="K266" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L266" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M266" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N266" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>748</v>
+      </c>
+      <c r="B267" t="s">
+        <v>749</v>
+      </c>
+      <c r="C267">
+        <v>294</v>
+      </c>
+      <c r="D267">
+        <v>4</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F267" s="4">
+        <v>266</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N267" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>750</v>
+      </c>
+      <c r="B268" t="s">
+        <v>751</v>
+      </c>
+      <c r="C268">
+        <v>295</v>
+      </c>
+      <c r="D268">
+        <v>4</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" s="4">
+        <v>266</v>
+      </c>
+      <c r="H268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O268" s="4" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/Adventure.xlsx
+++ b/Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adventure-wherigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039DB517-3CA7-4630-8292-ADF122DE7D26}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCEAE68C-D157-4C60-A94A-714F3A73F342}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="9850" xr2:uid="{DA9CDC86-6B9C-4A3C-A222-7CC08085C3FF}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="nouns" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="755">
   <si>
     <t>Long description</t>
   </si>
@@ -2289,6 +2290,12 @@
   </si>
   <si>
     <t>Suddenly  and  without  warning,  there appears from within the very cave walls around you a horde of vicious  little  goblins!   Each  one  stands about  eight inches high on a pair of spindly black legs, has a globular, spine-covered body resembling a giant gooseberry,  a  wide  mouth  filled with sharp teeth, and a pair of glittering little green eyes!  They swarm around you and try to block your way.</t>
+  </si>
+  <si>
+    <t>You're at south end of fog-filled room.</t>
+  </si>
+  <si>
+    <t>You  are  standing at the southern end of what appears to be a large room filled with multicolored fog.  The sides and far end of the  room  cannot be seen due to the thickness of the fog - it's a real pea-souper (even to the  color  in  places!).   A  passage  leads  back  to the south; a dull rumbling sound issues from the passage.</t>
   </si>
 </sst>
 </file>
@@ -2671,11 +2678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738AE1BC-ED79-46FF-9BB3-5FA0937E704C}">
-  <dimension ref="A1:P268"/>
+  <dimension ref="A1:P269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O269" sqref="O269"/>
+      <selection pane="bottomLeft" activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13160,6 +13167,47 @@
       </c>
       <c r="O268" s="4" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>753</v>
+      </c>
+      <c r="B269" t="s">
+        <v>754</v>
+      </c>
+      <c r="C269">
+        <v>255</v>
+      </c>
+      <c r="D269">
+        <v>4</v>
+      </c>
+      <c r="F269" s="4">
+        <v>260</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H269" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K269" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L269" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M269" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N269" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
